--- a/GVI & WUB/LS2/Stundensatzkalkulation_Vorlagen_LF2.8.xlsx
+++ b/GVI & WUB/LS2/Stundensatzkalkulation_Vorlagen_LF2.8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dstemmler\Dokumente\GitHub\Danger_Gang_GVI\GVI &amp; WUB\LS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA85A87-D579-9B40-A71D-A091BCF3F1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8337DAC4-FF93-47DC-A0C6-FE6C6641C964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="1080" windowWidth="30240" windowHeight="17380" tabRatio="908" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" tabRatio="908" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SB S. 247_248" sheetId="38" r:id="rId1"/>
@@ -369,13 +369,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;DM&quot;_-;\-* #,##0.00\ &quot;DM&quot;_-;_-* &quot;-&quot;??\ &quot;DM&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-1];\-#,##0.00\ [$€-1]"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ &quot;DM&quot;_-;\-* #,##0.00\ &quot;DM&quot;_-;_-* &quot;-&quot;??\ &quot;DM&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ [$€-1];\-#,##0.00\ [$€-1]"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -557,14 +557,14 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -582,10 +582,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -593,12 +593,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -606,33 +606,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -654,19 +654,21 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -679,8 +681,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Euro" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1139,9 +1139,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1179,7 +1179,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1285,7 +1285,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1427,7 +1427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1444,23 +1444,23 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.47265625" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.5" style="1"/>
+    <col min="1" max="1" width="7.3125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.47265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.47265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.15625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.3125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.47265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:6" ht="14.1" x14ac:dyDescent="0.5">
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" ht="14.1" x14ac:dyDescent="0.5">
       <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
         <v>3</v>
@@ -1480,7 +1480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="5" t="s">
         <v>32</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="5" t="s">
         <v>34</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="5" t="s">
         <v>36</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="5" t="s">
         <v>38</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21" s="5" t="s">
         <v>40</v>
       </c>
@@ -1734,12 +1734,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="I27" s="12"/>
     </row>
   </sheetData>
@@ -1762,658 +1762,658 @@
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.47265625" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="1"/>
-    <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
-    <col min="5" max="244" width="11.5" style="1"/>
-    <col min="245" max="245" width="17.1640625" style="1" customWidth="1"/>
-    <col min="246" max="247" width="11.5" style="1"/>
-    <col min="248" max="248" width="9.5" style="1" customWidth="1"/>
-    <col min="249" max="249" width="24.83203125" style="1" customWidth="1"/>
-    <col min="250" max="252" width="11.5" style="1"/>
-    <col min="253" max="253" width="4.1640625" style="1" customWidth="1"/>
-    <col min="254" max="254" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="6.6640625" style="1" customWidth="1"/>
-    <col min="256" max="260" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="261" max="500" width="11.5" style="1"/>
-    <col min="501" max="501" width="17.1640625" style="1" customWidth="1"/>
-    <col min="502" max="503" width="11.5" style="1"/>
-    <col min="504" max="504" width="9.5" style="1" customWidth="1"/>
-    <col min="505" max="505" width="24.83203125" style="1" customWidth="1"/>
-    <col min="506" max="508" width="11.5" style="1"/>
-    <col min="509" max="509" width="4.1640625" style="1" customWidth="1"/>
-    <col min="510" max="510" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="511" max="511" width="6.6640625" style="1" customWidth="1"/>
-    <col min="512" max="516" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="517" max="756" width="11.5" style="1"/>
-    <col min="757" max="757" width="17.1640625" style="1" customWidth="1"/>
-    <col min="758" max="759" width="11.5" style="1"/>
-    <col min="760" max="760" width="9.5" style="1" customWidth="1"/>
-    <col min="761" max="761" width="24.83203125" style="1" customWidth="1"/>
-    <col min="762" max="764" width="11.5" style="1"/>
-    <col min="765" max="765" width="4.1640625" style="1" customWidth="1"/>
-    <col min="766" max="766" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="767" max="767" width="6.6640625" style="1" customWidth="1"/>
-    <col min="768" max="772" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="773" max="1012" width="11.5" style="1"/>
-    <col min="1013" max="1013" width="17.1640625" style="1" customWidth="1"/>
-    <col min="1014" max="1015" width="11.5" style="1"/>
-    <col min="1016" max="1016" width="9.5" style="1" customWidth="1"/>
-    <col min="1017" max="1017" width="24.83203125" style="1" customWidth="1"/>
-    <col min="1018" max="1020" width="11.5" style="1"/>
-    <col min="1021" max="1021" width="4.1640625" style="1" customWidth="1"/>
-    <col min="1022" max="1022" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1023" max="1023" width="6.6640625" style="1" customWidth="1"/>
-    <col min="1024" max="1028" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1268" width="11.5" style="1"/>
-    <col min="1269" max="1269" width="17.1640625" style="1" customWidth="1"/>
-    <col min="1270" max="1271" width="11.5" style="1"/>
-    <col min="1272" max="1272" width="9.5" style="1" customWidth="1"/>
-    <col min="1273" max="1273" width="24.83203125" style="1" customWidth="1"/>
-    <col min="1274" max="1276" width="11.5" style="1"/>
-    <col min="1277" max="1277" width="4.1640625" style="1" customWidth="1"/>
-    <col min="1278" max="1278" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1279" max="1279" width="6.6640625" style="1" customWidth="1"/>
-    <col min="1280" max="1284" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1524" width="11.5" style="1"/>
-    <col min="1525" max="1525" width="17.1640625" style="1" customWidth="1"/>
-    <col min="1526" max="1527" width="11.5" style="1"/>
-    <col min="1528" max="1528" width="9.5" style="1" customWidth="1"/>
-    <col min="1529" max="1529" width="24.83203125" style="1" customWidth="1"/>
-    <col min="1530" max="1532" width="11.5" style="1"/>
-    <col min="1533" max="1533" width="4.1640625" style="1" customWidth="1"/>
-    <col min="1534" max="1534" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1535" max="1535" width="6.6640625" style="1" customWidth="1"/>
-    <col min="1536" max="1540" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1780" width="11.5" style="1"/>
-    <col min="1781" max="1781" width="17.1640625" style="1" customWidth="1"/>
-    <col min="1782" max="1783" width="11.5" style="1"/>
-    <col min="1784" max="1784" width="9.5" style="1" customWidth="1"/>
-    <col min="1785" max="1785" width="24.83203125" style="1" customWidth="1"/>
-    <col min="1786" max="1788" width="11.5" style="1"/>
-    <col min="1789" max="1789" width="4.1640625" style="1" customWidth="1"/>
-    <col min="1790" max="1790" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1791" max="1791" width="6.6640625" style="1" customWidth="1"/>
-    <col min="1792" max="1796" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1797" max="2036" width="11.5" style="1"/>
-    <col min="2037" max="2037" width="17.1640625" style="1" customWidth="1"/>
-    <col min="2038" max="2039" width="11.5" style="1"/>
-    <col min="2040" max="2040" width="9.5" style="1" customWidth="1"/>
-    <col min="2041" max="2041" width="24.83203125" style="1" customWidth="1"/>
-    <col min="2042" max="2044" width="11.5" style="1"/>
-    <col min="2045" max="2045" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2046" max="2046" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2047" max="2047" width="6.6640625" style="1" customWidth="1"/>
-    <col min="2048" max="2052" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2292" width="11.5" style="1"/>
-    <col min="2293" max="2293" width="17.1640625" style="1" customWidth="1"/>
-    <col min="2294" max="2295" width="11.5" style="1"/>
-    <col min="2296" max="2296" width="9.5" style="1" customWidth="1"/>
-    <col min="2297" max="2297" width="24.83203125" style="1" customWidth="1"/>
-    <col min="2298" max="2300" width="11.5" style="1"/>
-    <col min="2301" max="2301" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2302" max="2302" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2303" max="2303" width="6.6640625" style="1" customWidth="1"/>
-    <col min="2304" max="2308" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2548" width="11.5" style="1"/>
-    <col min="2549" max="2549" width="17.1640625" style="1" customWidth="1"/>
-    <col min="2550" max="2551" width="11.5" style="1"/>
-    <col min="2552" max="2552" width="9.5" style="1" customWidth="1"/>
-    <col min="2553" max="2553" width="24.83203125" style="1" customWidth="1"/>
-    <col min="2554" max="2556" width="11.5" style="1"/>
-    <col min="2557" max="2557" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2558" max="2558" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2559" max="2559" width="6.6640625" style="1" customWidth="1"/>
-    <col min="2560" max="2564" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2804" width="11.5" style="1"/>
-    <col min="2805" max="2805" width="17.1640625" style="1" customWidth="1"/>
-    <col min="2806" max="2807" width="11.5" style="1"/>
-    <col min="2808" max="2808" width="9.5" style="1" customWidth="1"/>
-    <col min="2809" max="2809" width="24.83203125" style="1" customWidth="1"/>
-    <col min="2810" max="2812" width="11.5" style="1"/>
-    <col min="2813" max="2813" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2814" max="2814" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2815" max="2815" width="6.6640625" style="1" customWidth="1"/>
-    <col min="2816" max="2820" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2821" max="3060" width="11.5" style="1"/>
-    <col min="3061" max="3061" width="17.1640625" style="1" customWidth="1"/>
-    <col min="3062" max="3063" width="11.5" style="1"/>
-    <col min="3064" max="3064" width="9.5" style="1" customWidth="1"/>
-    <col min="3065" max="3065" width="24.83203125" style="1" customWidth="1"/>
-    <col min="3066" max="3068" width="11.5" style="1"/>
-    <col min="3069" max="3069" width="4.1640625" style="1" customWidth="1"/>
-    <col min="3070" max="3070" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3071" max="3071" width="6.6640625" style="1" customWidth="1"/>
-    <col min="3072" max="3076" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3316" width="11.5" style="1"/>
-    <col min="3317" max="3317" width="17.1640625" style="1" customWidth="1"/>
-    <col min="3318" max="3319" width="11.5" style="1"/>
-    <col min="3320" max="3320" width="9.5" style="1" customWidth="1"/>
-    <col min="3321" max="3321" width="24.83203125" style="1" customWidth="1"/>
-    <col min="3322" max="3324" width="11.5" style="1"/>
-    <col min="3325" max="3325" width="4.1640625" style="1" customWidth="1"/>
-    <col min="3326" max="3326" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3327" max="3327" width="6.6640625" style="1" customWidth="1"/>
-    <col min="3328" max="3332" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3572" width="11.5" style="1"/>
-    <col min="3573" max="3573" width="17.1640625" style="1" customWidth="1"/>
-    <col min="3574" max="3575" width="11.5" style="1"/>
-    <col min="3576" max="3576" width="9.5" style="1" customWidth="1"/>
-    <col min="3577" max="3577" width="24.83203125" style="1" customWidth="1"/>
-    <col min="3578" max="3580" width="11.5" style="1"/>
-    <col min="3581" max="3581" width="4.1640625" style="1" customWidth="1"/>
-    <col min="3582" max="3582" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3583" max="3583" width="6.6640625" style="1" customWidth="1"/>
-    <col min="3584" max="3588" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3828" width="11.5" style="1"/>
-    <col min="3829" max="3829" width="17.1640625" style="1" customWidth="1"/>
-    <col min="3830" max="3831" width="11.5" style="1"/>
-    <col min="3832" max="3832" width="9.5" style="1" customWidth="1"/>
-    <col min="3833" max="3833" width="24.83203125" style="1" customWidth="1"/>
-    <col min="3834" max="3836" width="11.5" style="1"/>
-    <col min="3837" max="3837" width="4.1640625" style="1" customWidth="1"/>
-    <col min="3838" max="3838" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3839" max="3839" width="6.6640625" style="1" customWidth="1"/>
-    <col min="3840" max="3844" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3845" max="4084" width="11.5" style="1"/>
-    <col min="4085" max="4085" width="17.1640625" style="1" customWidth="1"/>
-    <col min="4086" max="4087" width="11.5" style="1"/>
-    <col min="4088" max="4088" width="9.5" style="1" customWidth="1"/>
-    <col min="4089" max="4089" width="24.83203125" style="1" customWidth="1"/>
-    <col min="4090" max="4092" width="11.5" style="1"/>
-    <col min="4093" max="4093" width="4.1640625" style="1" customWidth="1"/>
-    <col min="4094" max="4094" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4095" max="4095" width="6.6640625" style="1" customWidth="1"/>
-    <col min="4096" max="4100" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4340" width="11.5" style="1"/>
-    <col min="4341" max="4341" width="17.1640625" style="1" customWidth="1"/>
-    <col min="4342" max="4343" width="11.5" style="1"/>
-    <col min="4344" max="4344" width="9.5" style="1" customWidth="1"/>
-    <col min="4345" max="4345" width="24.83203125" style="1" customWidth="1"/>
-    <col min="4346" max="4348" width="11.5" style="1"/>
-    <col min="4349" max="4349" width="4.1640625" style="1" customWidth="1"/>
-    <col min="4350" max="4350" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4351" max="4351" width="6.6640625" style="1" customWidth="1"/>
-    <col min="4352" max="4356" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4596" width="11.5" style="1"/>
-    <col min="4597" max="4597" width="17.1640625" style="1" customWidth="1"/>
-    <col min="4598" max="4599" width="11.5" style="1"/>
-    <col min="4600" max="4600" width="9.5" style="1" customWidth="1"/>
-    <col min="4601" max="4601" width="24.83203125" style="1" customWidth="1"/>
-    <col min="4602" max="4604" width="11.5" style="1"/>
-    <col min="4605" max="4605" width="4.1640625" style="1" customWidth="1"/>
-    <col min="4606" max="4606" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4607" max="4607" width="6.6640625" style="1" customWidth="1"/>
-    <col min="4608" max="4612" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4852" width="11.5" style="1"/>
-    <col min="4853" max="4853" width="17.1640625" style="1" customWidth="1"/>
-    <col min="4854" max="4855" width="11.5" style="1"/>
-    <col min="4856" max="4856" width="9.5" style="1" customWidth="1"/>
-    <col min="4857" max="4857" width="24.83203125" style="1" customWidth="1"/>
-    <col min="4858" max="4860" width="11.5" style="1"/>
-    <col min="4861" max="4861" width="4.1640625" style="1" customWidth="1"/>
-    <col min="4862" max="4862" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4863" max="4863" width="6.6640625" style="1" customWidth="1"/>
-    <col min="4864" max="4868" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4869" max="5108" width="11.5" style="1"/>
-    <col min="5109" max="5109" width="17.1640625" style="1" customWidth="1"/>
-    <col min="5110" max="5111" width="11.5" style="1"/>
-    <col min="5112" max="5112" width="9.5" style="1" customWidth="1"/>
-    <col min="5113" max="5113" width="24.83203125" style="1" customWidth="1"/>
-    <col min="5114" max="5116" width="11.5" style="1"/>
-    <col min="5117" max="5117" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5118" max="5118" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5119" max="5119" width="6.6640625" style="1" customWidth="1"/>
-    <col min="5120" max="5124" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5364" width="11.5" style="1"/>
-    <col min="5365" max="5365" width="17.1640625" style="1" customWidth="1"/>
-    <col min="5366" max="5367" width="11.5" style="1"/>
-    <col min="5368" max="5368" width="9.5" style="1" customWidth="1"/>
-    <col min="5369" max="5369" width="24.83203125" style="1" customWidth="1"/>
-    <col min="5370" max="5372" width="11.5" style="1"/>
-    <col min="5373" max="5373" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5374" max="5374" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5375" max="5375" width="6.6640625" style="1" customWidth="1"/>
-    <col min="5376" max="5380" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5620" width="11.5" style="1"/>
-    <col min="5621" max="5621" width="17.1640625" style="1" customWidth="1"/>
-    <col min="5622" max="5623" width="11.5" style="1"/>
-    <col min="5624" max="5624" width="9.5" style="1" customWidth="1"/>
-    <col min="5625" max="5625" width="24.83203125" style="1" customWidth="1"/>
-    <col min="5626" max="5628" width="11.5" style="1"/>
-    <col min="5629" max="5629" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5630" max="5630" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5631" max="5631" width="6.6640625" style="1" customWidth="1"/>
-    <col min="5632" max="5636" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5876" width="11.5" style="1"/>
-    <col min="5877" max="5877" width="17.1640625" style="1" customWidth="1"/>
-    <col min="5878" max="5879" width="11.5" style="1"/>
-    <col min="5880" max="5880" width="9.5" style="1" customWidth="1"/>
-    <col min="5881" max="5881" width="24.83203125" style="1" customWidth="1"/>
-    <col min="5882" max="5884" width="11.5" style="1"/>
-    <col min="5885" max="5885" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5886" max="5886" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5887" max="5887" width="6.6640625" style="1" customWidth="1"/>
-    <col min="5888" max="5892" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5893" max="6132" width="11.5" style="1"/>
-    <col min="6133" max="6133" width="17.1640625" style="1" customWidth="1"/>
-    <col min="6134" max="6135" width="11.5" style="1"/>
-    <col min="6136" max="6136" width="9.5" style="1" customWidth="1"/>
-    <col min="6137" max="6137" width="24.83203125" style="1" customWidth="1"/>
-    <col min="6138" max="6140" width="11.5" style="1"/>
-    <col min="6141" max="6141" width="4.1640625" style="1" customWidth="1"/>
-    <col min="6142" max="6142" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6143" max="6143" width="6.6640625" style="1" customWidth="1"/>
-    <col min="6144" max="6148" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6388" width="11.5" style="1"/>
-    <col min="6389" max="6389" width="17.1640625" style="1" customWidth="1"/>
-    <col min="6390" max="6391" width="11.5" style="1"/>
-    <col min="6392" max="6392" width="9.5" style="1" customWidth="1"/>
-    <col min="6393" max="6393" width="24.83203125" style="1" customWidth="1"/>
-    <col min="6394" max="6396" width="11.5" style="1"/>
-    <col min="6397" max="6397" width="4.1640625" style="1" customWidth="1"/>
-    <col min="6398" max="6398" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6399" max="6399" width="6.6640625" style="1" customWidth="1"/>
-    <col min="6400" max="6404" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6644" width="11.5" style="1"/>
-    <col min="6645" max="6645" width="17.1640625" style="1" customWidth="1"/>
-    <col min="6646" max="6647" width="11.5" style="1"/>
-    <col min="6648" max="6648" width="9.5" style="1" customWidth="1"/>
-    <col min="6649" max="6649" width="24.83203125" style="1" customWidth="1"/>
-    <col min="6650" max="6652" width="11.5" style="1"/>
-    <col min="6653" max="6653" width="4.1640625" style="1" customWidth="1"/>
-    <col min="6654" max="6654" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6655" max="6655" width="6.6640625" style="1" customWidth="1"/>
-    <col min="6656" max="6660" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6900" width="11.5" style="1"/>
-    <col min="6901" max="6901" width="17.1640625" style="1" customWidth="1"/>
-    <col min="6902" max="6903" width="11.5" style="1"/>
-    <col min="6904" max="6904" width="9.5" style="1" customWidth="1"/>
-    <col min="6905" max="6905" width="24.83203125" style="1" customWidth="1"/>
-    <col min="6906" max="6908" width="11.5" style="1"/>
-    <col min="6909" max="6909" width="4.1640625" style="1" customWidth="1"/>
-    <col min="6910" max="6910" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6911" max="6911" width="6.6640625" style="1" customWidth="1"/>
-    <col min="6912" max="6916" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6917" max="7156" width="11.5" style="1"/>
-    <col min="7157" max="7157" width="17.1640625" style="1" customWidth="1"/>
-    <col min="7158" max="7159" width="11.5" style="1"/>
-    <col min="7160" max="7160" width="9.5" style="1" customWidth="1"/>
-    <col min="7161" max="7161" width="24.83203125" style="1" customWidth="1"/>
-    <col min="7162" max="7164" width="11.5" style="1"/>
-    <col min="7165" max="7165" width="4.1640625" style="1" customWidth="1"/>
-    <col min="7166" max="7166" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7167" max="7167" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7168" max="7172" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7412" width="11.5" style="1"/>
-    <col min="7413" max="7413" width="17.1640625" style="1" customWidth="1"/>
-    <col min="7414" max="7415" width="11.5" style="1"/>
-    <col min="7416" max="7416" width="9.5" style="1" customWidth="1"/>
-    <col min="7417" max="7417" width="24.83203125" style="1" customWidth="1"/>
-    <col min="7418" max="7420" width="11.5" style="1"/>
-    <col min="7421" max="7421" width="4.1640625" style="1" customWidth="1"/>
-    <col min="7422" max="7422" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7423" max="7423" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7424" max="7428" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7668" width="11.5" style="1"/>
-    <col min="7669" max="7669" width="17.1640625" style="1" customWidth="1"/>
-    <col min="7670" max="7671" width="11.5" style="1"/>
-    <col min="7672" max="7672" width="9.5" style="1" customWidth="1"/>
-    <col min="7673" max="7673" width="24.83203125" style="1" customWidth="1"/>
-    <col min="7674" max="7676" width="11.5" style="1"/>
-    <col min="7677" max="7677" width="4.1640625" style="1" customWidth="1"/>
-    <col min="7678" max="7678" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7679" max="7679" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7680" max="7684" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7924" width="11.5" style="1"/>
-    <col min="7925" max="7925" width="17.1640625" style="1" customWidth="1"/>
-    <col min="7926" max="7927" width="11.5" style="1"/>
-    <col min="7928" max="7928" width="9.5" style="1" customWidth="1"/>
-    <col min="7929" max="7929" width="24.83203125" style="1" customWidth="1"/>
-    <col min="7930" max="7932" width="11.5" style="1"/>
-    <col min="7933" max="7933" width="4.1640625" style="1" customWidth="1"/>
-    <col min="7934" max="7934" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7935" max="7935" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7936" max="7940" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7941" max="8180" width="11.5" style="1"/>
-    <col min="8181" max="8181" width="17.1640625" style="1" customWidth="1"/>
-    <col min="8182" max="8183" width="11.5" style="1"/>
-    <col min="8184" max="8184" width="9.5" style="1" customWidth="1"/>
-    <col min="8185" max="8185" width="24.83203125" style="1" customWidth="1"/>
-    <col min="8186" max="8188" width="11.5" style="1"/>
-    <col min="8189" max="8189" width="4.1640625" style="1" customWidth="1"/>
-    <col min="8190" max="8190" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8191" max="8191" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8192" max="8196" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8436" width="11.5" style="1"/>
-    <col min="8437" max="8437" width="17.1640625" style="1" customWidth="1"/>
-    <col min="8438" max="8439" width="11.5" style="1"/>
-    <col min="8440" max="8440" width="9.5" style="1" customWidth="1"/>
-    <col min="8441" max="8441" width="24.83203125" style="1" customWidth="1"/>
-    <col min="8442" max="8444" width="11.5" style="1"/>
-    <col min="8445" max="8445" width="4.1640625" style="1" customWidth="1"/>
-    <col min="8446" max="8446" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8447" max="8447" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8448" max="8452" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8692" width="11.5" style="1"/>
-    <col min="8693" max="8693" width="17.1640625" style="1" customWidth="1"/>
-    <col min="8694" max="8695" width="11.5" style="1"/>
-    <col min="8696" max="8696" width="9.5" style="1" customWidth="1"/>
-    <col min="8697" max="8697" width="24.83203125" style="1" customWidth="1"/>
-    <col min="8698" max="8700" width="11.5" style="1"/>
-    <col min="8701" max="8701" width="4.1640625" style="1" customWidth="1"/>
-    <col min="8702" max="8702" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8703" max="8703" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8704" max="8708" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8948" width="11.5" style="1"/>
-    <col min="8949" max="8949" width="17.1640625" style="1" customWidth="1"/>
-    <col min="8950" max="8951" width="11.5" style="1"/>
-    <col min="8952" max="8952" width="9.5" style="1" customWidth="1"/>
-    <col min="8953" max="8953" width="24.83203125" style="1" customWidth="1"/>
-    <col min="8954" max="8956" width="11.5" style="1"/>
-    <col min="8957" max="8957" width="4.1640625" style="1" customWidth="1"/>
-    <col min="8958" max="8958" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8959" max="8959" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8960" max="8964" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8965" max="9204" width="11.5" style="1"/>
-    <col min="9205" max="9205" width="17.1640625" style="1" customWidth="1"/>
-    <col min="9206" max="9207" width="11.5" style="1"/>
-    <col min="9208" max="9208" width="9.5" style="1" customWidth="1"/>
-    <col min="9209" max="9209" width="24.83203125" style="1" customWidth="1"/>
-    <col min="9210" max="9212" width="11.5" style="1"/>
-    <col min="9213" max="9213" width="4.1640625" style="1" customWidth="1"/>
-    <col min="9214" max="9214" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9215" max="9215" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9216" max="9220" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9460" width="11.5" style="1"/>
-    <col min="9461" max="9461" width="17.1640625" style="1" customWidth="1"/>
-    <col min="9462" max="9463" width="11.5" style="1"/>
-    <col min="9464" max="9464" width="9.5" style="1" customWidth="1"/>
-    <col min="9465" max="9465" width="24.83203125" style="1" customWidth="1"/>
-    <col min="9466" max="9468" width="11.5" style="1"/>
-    <col min="9469" max="9469" width="4.1640625" style="1" customWidth="1"/>
-    <col min="9470" max="9470" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9471" max="9471" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9472" max="9476" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9716" width="11.5" style="1"/>
-    <col min="9717" max="9717" width="17.1640625" style="1" customWidth="1"/>
-    <col min="9718" max="9719" width="11.5" style="1"/>
-    <col min="9720" max="9720" width="9.5" style="1" customWidth="1"/>
-    <col min="9721" max="9721" width="24.83203125" style="1" customWidth="1"/>
-    <col min="9722" max="9724" width="11.5" style="1"/>
-    <col min="9725" max="9725" width="4.1640625" style="1" customWidth="1"/>
-    <col min="9726" max="9726" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9727" max="9727" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9728" max="9732" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9972" width="11.5" style="1"/>
-    <col min="9973" max="9973" width="17.1640625" style="1" customWidth="1"/>
-    <col min="9974" max="9975" width="11.5" style="1"/>
-    <col min="9976" max="9976" width="9.5" style="1" customWidth="1"/>
-    <col min="9977" max="9977" width="24.83203125" style="1" customWidth="1"/>
-    <col min="9978" max="9980" width="11.5" style="1"/>
-    <col min="9981" max="9981" width="4.1640625" style="1" customWidth="1"/>
-    <col min="9982" max="9982" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9983" max="9983" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9984" max="9988" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9989" max="10228" width="11.5" style="1"/>
-    <col min="10229" max="10229" width="17.1640625" style="1" customWidth="1"/>
-    <col min="10230" max="10231" width="11.5" style="1"/>
-    <col min="10232" max="10232" width="9.5" style="1" customWidth="1"/>
-    <col min="10233" max="10233" width="24.83203125" style="1" customWidth="1"/>
-    <col min="10234" max="10236" width="11.5" style="1"/>
-    <col min="10237" max="10237" width="4.1640625" style="1" customWidth="1"/>
-    <col min="10238" max="10238" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10239" max="10239" width="6.6640625" style="1" customWidth="1"/>
-    <col min="10240" max="10244" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10484" width="11.5" style="1"/>
-    <col min="10485" max="10485" width="17.1640625" style="1" customWidth="1"/>
-    <col min="10486" max="10487" width="11.5" style="1"/>
-    <col min="10488" max="10488" width="9.5" style="1" customWidth="1"/>
-    <col min="10489" max="10489" width="24.83203125" style="1" customWidth="1"/>
-    <col min="10490" max="10492" width="11.5" style="1"/>
-    <col min="10493" max="10493" width="4.1640625" style="1" customWidth="1"/>
-    <col min="10494" max="10494" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10495" max="10495" width="6.6640625" style="1" customWidth="1"/>
-    <col min="10496" max="10500" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10740" width="11.5" style="1"/>
-    <col min="10741" max="10741" width="17.1640625" style="1" customWidth="1"/>
-    <col min="10742" max="10743" width="11.5" style="1"/>
-    <col min="10744" max="10744" width="9.5" style="1" customWidth="1"/>
-    <col min="10745" max="10745" width="24.83203125" style="1" customWidth="1"/>
-    <col min="10746" max="10748" width="11.5" style="1"/>
-    <col min="10749" max="10749" width="4.1640625" style="1" customWidth="1"/>
-    <col min="10750" max="10750" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10751" max="10751" width="6.6640625" style="1" customWidth="1"/>
-    <col min="10752" max="10756" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10996" width="11.5" style="1"/>
-    <col min="10997" max="10997" width="17.1640625" style="1" customWidth="1"/>
-    <col min="10998" max="10999" width="11.5" style="1"/>
-    <col min="11000" max="11000" width="9.5" style="1" customWidth="1"/>
-    <col min="11001" max="11001" width="24.83203125" style="1" customWidth="1"/>
-    <col min="11002" max="11004" width="11.5" style="1"/>
-    <col min="11005" max="11005" width="4.1640625" style="1" customWidth="1"/>
-    <col min="11006" max="11006" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11007" max="11007" width="6.6640625" style="1" customWidth="1"/>
-    <col min="11008" max="11012" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11252" width="11.5" style="1"/>
-    <col min="11253" max="11253" width="17.1640625" style="1" customWidth="1"/>
-    <col min="11254" max="11255" width="11.5" style="1"/>
-    <col min="11256" max="11256" width="9.5" style="1" customWidth="1"/>
-    <col min="11257" max="11257" width="24.83203125" style="1" customWidth="1"/>
-    <col min="11258" max="11260" width="11.5" style="1"/>
-    <col min="11261" max="11261" width="4.1640625" style="1" customWidth="1"/>
-    <col min="11262" max="11262" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11263" max="11263" width="6.6640625" style="1" customWidth="1"/>
-    <col min="11264" max="11268" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11508" width="11.5" style="1"/>
-    <col min="11509" max="11509" width="17.1640625" style="1" customWidth="1"/>
-    <col min="11510" max="11511" width="11.5" style="1"/>
-    <col min="11512" max="11512" width="9.5" style="1" customWidth="1"/>
-    <col min="11513" max="11513" width="24.83203125" style="1" customWidth="1"/>
-    <col min="11514" max="11516" width="11.5" style="1"/>
-    <col min="11517" max="11517" width="4.1640625" style="1" customWidth="1"/>
-    <col min="11518" max="11518" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11519" max="11519" width="6.6640625" style="1" customWidth="1"/>
-    <col min="11520" max="11524" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11764" width="11.5" style="1"/>
-    <col min="11765" max="11765" width="17.1640625" style="1" customWidth="1"/>
-    <col min="11766" max="11767" width="11.5" style="1"/>
-    <col min="11768" max="11768" width="9.5" style="1" customWidth="1"/>
-    <col min="11769" max="11769" width="24.83203125" style="1" customWidth="1"/>
-    <col min="11770" max="11772" width="11.5" style="1"/>
-    <col min="11773" max="11773" width="4.1640625" style="1" customWidth="1"/>
-    <col min="11774" max="11774" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11775" max="11775" width="6.6640625" style="1" customWidth="1"/>
-    <col min="11776" max="11780" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11781" max="12020" width="11.5" style="1"/>
-    <col min="12021" max="12021" width="17.1640625" style="1" customWidth="1"/>
-    <col min="12022" max="12023" width="11.5" style="1"/>
-    <col min="12024" max="12024" width="9.5" style="1" customWidth="1"/>
-    <col min="12025" max="12025" width="24.83203125" style="1" customWidth="1"/>
-    <col min="12026" max="12028" width="11.5" style="1"/>
-    <col min="12029" max="12029" width="4.1640625" style="1" customWidth="1"/>
-    <col min="12030" max="12030" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12031" max="12031" width="6.6640625" style="1" customWidth="1"/>
-    <col min="12032" max="12036" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12276" width="11.5" style="1"/>
-    <col min="12277" max="12277" width="17.1640625" style="1" customWidth="1"/>
-    <col min="12278" max="12279" width="11.5" style="1"/>
-    <col min="12280" max="12280" width="9.5" style="1" customWidth="1"/>
-    <col min="12281" max="12281" width="24.83203125" style="1" customWidth="1"/>
-    <col min="12282" max="12284" width="11.5" style="1"/>
-    <col min="12285" max="12285" width="4.1640625" style="1" customWidth="1"/>
-    <col min="12286" max="12286" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12287" max="12287" width="6.6640625" style="1" customWidth="1"/>
-    <col min="12288" max="12292" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12532" width="11.5" style="1"/>
-    <col min="12533" max="12533" width="17.1640625" style="1" customWidth="1"/>
-    <col min="12534" max="12535" width="11.5" style="1"/>
-    <col min="12536" max="12536" width="9.5" style="1" customWidth="1"/>
-    <col min="12537" max="12537" width="24.83203125" style="1" customWidth="1"/>
-    <col min="12538" max="12540" width="11.5" style="1"/>
-    <col min="12541" max="12541" width="4.1640625" style="1" customWidth="1"/>
-    <col min="12542" max="12542" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12543" max="12543" width="6.6640625" style="1" customWidth="1"/>
-    <col min="12544" max="12548" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12788" width="11.5" style="1"/>
-    <col min="12789" max="12789" width="17.1640625" style="1" customWidth="1"/>
-    <col min="12790" max="12791" width="11.5" style="1"/>
-    <col min="12792" max="12792" width="9.5" style="1" customWidth="1"/>
-    <col min="12793" max="12793" width="24.83203125" style="1" customWidth="1"/>
-    <col min="12794" max="12796" width="11.5" style="1"/>
-    <col min="12797" max="12797" width="4.1640625" style="1" customWidth="1"/>
-    <col min="12798" max="12798" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12799" max="12799" width="6.6640625" style="1" customWidth="1"/>
-    <col min="12800" max="12804" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12805" max="13044" width="11.5" style="1"/>
-    <col min="13045" max="13045" width="17.1640625" style="1" customWidth="1"/>
-    <col min="13046" max="13047" width="11.5" style="1"/>
-    <col min="13048" max="13048" width="9.5" style="1" customWidth="1"/>
-    <col min="13049" max="13049" width="24.83203125" style="1" customWidth="1"/>
-    <col min="13050" max="13052" width="11.5" style="1"/>
-    <col min="13053" max="13053" width="4.1640625" style="1" customWidth="1"/>
-    <col min="13054" max="13054" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13055" max="13055" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13056" max="13060" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13300" width="11.5" style="1"/>
-    <col min="13301" max="13301" width="17.1640625" style="1" customWidth="1"/>
-    <col min="13302" max="13303" width="11.5" style="1"/>
-    <col min="13304" max="13304" width="9.5" style="1" customWidth="1"/>
-    <col min="13305" max="13305" width="24.83203125" style="1" customWidth="1"/>
-    <col min="13306" max="13308" width="11.5" style="1"/>
-    <col min="13309" max="13309" width="4.1640625" style="1" customWidth="1"/>
-    <col min="13310" max="13310" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13311" max="13311" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13312" max="13316" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13556" width="11.5" style="1"/>
-    <col min="13557" max="13557" width="17.1640625" style="1" customWidth="1"/>
-    <col min="13558" max="13559" width="11.5" style="1"/>
-    <col min="13560" max="13560" width="9.5" style="1" customWidth="1"/>
-    <col min="13561" max="13561" width="24.83203125" style="1" customWidth="1"/>
-    <col min="13562" max="13564" width="11.5" style="1"/>
-    <col min="13565" max="13565" width="4.1640625" style="1" customWidth="1"/>
-    <col min="13566" max="13566" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13567" max="13567" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13568" max="13572" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13812" width="11.5" style="1"/>
-    <col min="13813" max="13813" width="17.1640625" style="1" customWidth="1"/>
-    <col min="13814" max="13815" width="11.5" style="1"/>
-    <col min="13816" max="13816" width="9.5" style="1" customWidth="1"/>
-    <col min="13817" max="13817" width="24.83203125" style="1" customWidth="1"/>
-    <col min="13818" max="13820" width="11.5" style="1"/>
-    <col min="13821" max="13821" width="4.1640625" style="1" customWidth="1"/>
-    <col min="13822" max="13822" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13823" max="13823" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13824" max="13828" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13829" max="14068" width="11.5" style="1"/>
-    <col min="14069" max="14069" width="17.1640625" style="1" customWidth="1"/>
-    <col min="14070" max="14071" width="11.5" style="1"/>
-    <col min="14072" max="14072" width="9.5" style="1" customWidth="1"/>
-    <col min="14073" max="14073" width="24.83203125" style="1" customWidth="1"/>
-    <col min="14074" max="14076" width="11.5" style="1"/>
-    <col min="14077" max="14077" width="4.1640625" style="1" customWidth="1"/>
-    <col min="14078" max="14078" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14079" max="14079" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14080" max="14084" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14324" width="11.5" style="1"/>
-    <col min="14325" max="14325" width="17.1640625" style="1" customWidth="1"/>
-    <col min="14326" max="14327" width="11.5" style="1"/>
-    <col min="14328" max="14328" width="9.5" style="1" customWidth="1"/>
-    <col min="14329" max="14329" width="24.83203125" style="1" customWidth="1"/>
-    <col min="14330" max="14332" width="11.5" style="1"/>
-    <col min="14333" max="14333" width="4.1640625" style="1" customWidth="1"/>
-    <col min="14334" max="14334" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14335" max="14335" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14336" max="14340" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14580" width="11.5" style="1"/>
-    <col min="14581" max="14581" width="17.1640625" style="1" customWidth="1"/>
-    <col min="14582" max="14583" width="11.5" style="1"/>
-    <col min="14584" max="14584" width="9.5" style="1" customWidth="1"/>
-    <col min="14585" max="14585" width="24.83203125" style="1" customWidth="1"/>
-    <col min="14586" max="14588" width="11.5" style="1"/>
-    <col min="14589" max="14589" width="4.1640625" style="1" customWidth="1"/>
-    <col min="14590" max="14590" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14591" max="14591" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14592" max="14596" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14836" width="11.5" style="1"/>
-    <col min="14837" max="14837" width="17.1640625" style="1" customWidth="1"/>
-    <col min="14838" max="14839" width="11.5" style="1"/>
-    <col min="14840" max="14840" width="9.5" style="1" customWidth="1"/>
-    <col min="14841" max="14841" width="24.83203125" style="1" customWidth="1"/>
-    <col min="14842" max="14844" width="11.5" style="1"/>
-    <col min="14845" max="14845" width="4.1640625" style="1" customWidth="1"/>
-    <col min="14846" max="14846" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14847" max="14847" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14848" max="14852" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14853" max="15092" width="11.5" style="1"/>
-    <col min="15093" max="15093" width="17.1640625" style="1" customWidth="1"/>
-    <col min="15094" max="15095" width="11.5" style="1"/>
-    <col min="15096" max="15096" width="9.5" style="1" customWidth="1"/>
-    <col min="15097" max="15097" width="24.83203125" style="1" customWidth="1"/>
-    <col min="15098" max="15100" width="11.5" style="1"/>
-    <col min="15101" max="15101" width="4.1640625" style="1" customWidth="1"/>
-    <col min="15102" max="15102" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15103" max="15103" width="6.6640625" style="1" customWidth="1"/>
-    <col min="15104" max="15108" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15348" width="11.5" style="1"/>
-    <col min="15349" max="15349" width="17.1640625" style="1" customWidth="1"/>
-    <col min="15350" max="15351" width="11.5" style="1"/>
-    <col min="15352" max="15352" width="9.5" style="1" customWidth="1"/>
-    <col min="15353" max="15353" width="24.83203125" style="1" customWidth="1"/>
-    <col min="15354" max="15356" width="11.5" style="1"/>
-    <col min="15357" max="15357" width="4.1640625" style="1" customWidth="1"/>
-    <col min="15358" max="15358" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15359" max="15359" width="6.6640625" style="1" customWidth="1"/>
-    <col min="15360" max="15364" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15604" width="11.5" style="1"/>
-    <col min="15605" max="15605" width="17.1640625" style="1" customWidth="1"/>
-    <col min="15606" max="15607" width="11.5" style="1"/>
-    <col min="15608" max="15608" width="9.5" style="1" customWidth="1"/>
-    <col min="15609" max="15609" width="24.83203125" style="1" customWidth="1"/>
-    <col min="15610" max="15612" width="11.5" style="1"/>
-    <col min="15613" max="15613" width="4.1640625" style="1" customWidth="1"/>
-    <col min="15614" max="15614" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15615" max="15615" width="6.6640625" style="1" customWidth="1"/>
-    <col min="15616" max="15620" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15860" width="11.5" style="1"/>
-    <col min="15861" max="15861" width="17.1640625" style="1" customWidth="1"/>
-    <col min="15862" max="15863" width="11.5" style="1"/>
-    <col min="15864" max="15864" width="9.5" style="1" customWidth="1"/>
-    <col min="15865" max="15865" width="24.83203125" style="1" customWidth="1"/>
-    <col min="15866" max="15868" width="11.5" style="1"/>
-    <col min="15869" max="15869" width="4.1640625" style="1" customWidth="1"/>
-    <col min="15870" max="15870" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15871" max="15871" width="6.6640625" style="1" customWidth="1"/>
-    <col min="15872" max="15876" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15877" max="16116" width="11.5" style="1"/>
-    <col min="16117" max="16117" width="17.1640625" style="1" customWidth="1"/>
-    <col min="16118" max="16119" width="11.5" style="1"/>
-    <col min="16120" max="16120" width="9.5" style="1" customWidth="1"/>
-    <col min="16121" max="16121" width="24.83203125" style="1" customWidth="1"/>
-    <col min="16122" max="16124" width="11.5" style="1"/>
-    <col min="16125" max="16125" width="4.1640625" style="1" customWidth="1"/>
-    <col min="16126" max="16126" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16127" max="16127" width="6.6640625" style="1" customWidth="1"/>
-    <col min="16128" max="16132" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16384" width="11.5" style="1"/>
+    <col min="1" max="1" width="21.15625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.15625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.47265625" style="1"/>
+    <col min="4" max="4" width="9.47265625" style="1" customWidth="1"/>
+    <col min="5" max="244" width="11.47265625" style="1"/>
+    <col min="245" max="245" width="17.15625" style="1" customWidth="1"/>
+    <col min="246" max="247" width="11.47265625" style="1"/>
+    <col min="248" max="248" width="9.47265625" style="1" customWidth="1"/>
+    <col min="249" max="249" width="24.83984375" style="1" customWidth="1"/>
+    <col min="250" max="252" width="11.47265625" style="1"/>
+    <col min="253" max="253" width="4.15625" style="1" customWidth="1"/>
+    <col min="254" max="254" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="6.68359375" style="1" customWidth="1"/>
+    <col min="256" max="260" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="500" width="11.47265625" style="1"/>
+    <col min="501" max="501" width="17.15625" style="1" customWidth="1"/>
+    <col min="502" max="503" width="11.47265625" style="1"/>
+    <col min="504" max="504" width="9.47265625" style="1" customWidth="1"/>
+    <col min="505" max="505" width="24.83984375" style="1" customWidth="1"/>
+    <col min="506" max="508" width="11.47265625" style="1"/>
+    <col min="509" max="509" width="4.15625" style="1" customWidth="1"/>
+    <col min="510" max="510" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="511" max="511" width="6.68359375" style="1" customWidth="1"/>
+    <col min="512" max="516" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="756" width="11.47265625" style="1"/>
+    <col min="757" max="757" width="17.15625" style="1" customWidth="1"/>
+    <col min="758" max="759" width="11.47265625" style="1"/>
+    <col min="760" max="760" width="9.47265625" style="1" customWidth="1"/>
+    <col min="761" max="761" width="24.83984375" style="1" customWidth="1"/>
+    <col min="762" max="764" width="11.47265625" style="1"/>
+    <col min="765" max="765" width="4.15625" style="1" customWidth="1"/>
+    <col min="766" max="766" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="767" max="767" width="6.68359375" style="1" customWidth="1"/>
+    <col min="768" max="772" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="773" max="1012" width="11.47265625" style="1"/>
+    <col min="1013" max="1013" width="17.15625" style="1" customWidth="1"/>
+    <col min="1014" max="1015" width="11.47265625" style="1"/>
+    <col min="1016" max="1016" width="9.47265625" style="1" customWidth="1"/>
+    <col min="1017" max="1017" width="24.83984375" style="1" customWidth="1"/>
+    <col min="1018" max="1020" width="11.47265625" style="1"/>
+    <col min="1021" max="1021" width="4.15625" style="1" customWidth="1"/>
+    <col min="1022" max="1022" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1023" max="1023" width="6.68359375" style="1" customWidth="1"/>
+    <col min="1024" max="1028" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1268" width="11.47265625" style="1"/>
+    <col min="1269" max="1269" width="17.15625" style="1" customWidth="1"/>
+    <col min="1270" max="1271" width="11.47265625" style="1"/>
+    <col min="1272" max="1272" width="9.47265625" style="1" customWidth="1"/>
+    <col min="1273" max="1273" width="24.83984375" style="1" customWidth="1"/>
+    <col min="1274" max="1276" width="11.47265625" style="1"/>
+    <col min="1277" max="1277" width="4.15625" style="1" customWidth="1"/>
+    <col min="1278" max="1278" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1279" max="1279" width="6.68359375" style="1" customWidth="1"/>
+    <col min="1280" max="1284" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1524" width="11.47265625" style="1"/>
+    <col min="1525" max="1525" width="17.15625" style="1" customWidth="1"/>
+    <col min="1526" max="1527" width="11.47265625" style="1"/>
+    <col min="1528" max="1528" width="9.47265625" style="1" customWidth="1"/>
+    <col min="1529" max="1529" width="24.83984375" style="1" customWidth="1"/>
+    <col min="1530" max="1532" width="11.47265625" style="1"/>
+    <col min="1533" max="1533" width="4.15625" style="1" customWidth="1"/>
+    <col min="1534" max="1534" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1535" max="1535" width="6.68359375" style="1" customWidth="1"/>
+    <col min="1536" max="1540" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1780" width="11.47265625" style="1"/>
+    <col min="1781" max="1781" width="17.15625" style="1" customWidth="1"/>
+    <col min="1782" max="1783" width="11.47265625" style="1"/>
+    <col min="1784" max="1784" width="9.47265625" style="1" customWidth="1"/>
+    <col min="1785" max="1785" width="24.83984375" style="1" customWidth="1"/>
+    <col min="1786" max="1788" width="11.47265625" style="1"/>
+    <col min="1789" max="1789" width="4.15625" style="1" customWidth="1"/>
+    <col min="1790" max="1790" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1791" max="1791" width="6.68359375" style="1" customWidth="1"/>
+    <col min="1792" max="1796" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1797" max="2036" width="11.47265625" style="1"/>
+    <col min="2037" max="2037" width="17.15625" style="1" customWidth="1"/>
+    <col min="2038" max="2039" width="11.47265625" style="1"/>
+    <col min="2040" max="2040" width="9.47265625" style="1" customWidth="1"/>
+    <col min="2041" max="2041" width="24.83984375" style="1" customWidth="1"/>
+    <col min="2042" max="2044" width="11.47265625" style="1"/>
+    <col min="2045" max="2045" width="4.15625" style="1" customWidth="1"/>
+    <col min="2046" max="2046" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2047" max="2047" width="6.68359375" style="1" customWidth="1"/>
+    <col min="2048" max="2052" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2292" width="11.47265625" style="1"/>
+    <col min="2293" max="2293" width="17.15625" style="1" customWidth="1"/>
+    <col min="2294" max="2295" width="11.47265625" style="1"/>
+    <col min="2296" max="2296" width="9.47265625" style="1" customWidth="1"/>
+    <col min="2297" max="2297" width="24.83984375" style="1" customWidth="1"/>
+    <col min="2298" max="2300" width="11.47265625" style="1"/>
+    <col min="2301" max="2301" width="4.15625" style="1" customWidth="1"/>
+    <col min="2302" max="2302" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2303" max="2303" width="6.68359375" style="1" customWidth="1"/>
+    <col min="2304" max="2308" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2548" width="11.47265625" style="1"/>
+    <col min="2549" max="2549" width="17.15625" style="1" customWidth="1"/>
+    <col min="2550" max="2551" width="11.47265625" style="1"/>
+    <col min="2552" max="2552" width="9.47265625" style="1" customWidth="1"/>
+    <col min="2553" max="2553" width="24.83984375" style="1" customWidth="1"/>
+    <col min="2554" max="2556" width="11.47265625" style="1"/>
+    <col min="2557" max="2557" width="4.15625" style="1" customWidth="1"/>
+    <col min="2558" max="2558" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2559" max="2559" width="6.68359375" style="1" customWidth="1"/>
+    <col min="2560" max="2564" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2804" width="11.47265625" style="1"/>
+    <col min="2805" max="2805" width="17.15625" style="1" customWidth="1"/>
+    <col min="2806" max="2807" width="11.47265625" style="1"/>
+    <col min="2808" max="2808" width="9.47265625" style="1" customWidth="1"/>
+    <col min="2809" max="2809" width="24.83984375" style="1" customWidth="1"/>
+    <col min="2810" max="2812" width="11.47265625" style="1"/>
+    <col min="2813" max="2813" width="4.15625" style="1" customWidth="1"/>
+    <col min="2814" max="2814" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2815" max="2815" width="6.68359375" style="1" customWidth="1"/>
+    <col min="2816" max="2820" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2821" max="3060" width="11.47265625" style="1"/>
+    <col min="3061" max="3061" width="17.15625" style="1" customWidth="1"/>
+    <col min="3062" max="3063" width="11.47265625" style="1"/>
+    <col min="3064" max="3064" width="9.47265625" style="1" customWidth="1"/>
+    <col min="3065" max="3065" width="24.83984375" style="1" customWidth="1"/>
+    <col min="3066" max="3068" width="11.47265625" style="1"/>
+    <col min="3069" max="3069" width="4.15625" style="1" customWidth="1"/>
+    <col min="3070" max="3070" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3071" max="3071" width="6.68359375" style="1" customWidth="1"/>
+    <col min="3072" max="3076" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3316" width="11.47265625" style="1"/>
+    <col min="3317" max="3317" width="17.15625" style="1" customWidth="1"/>
+    <col min="3318" max="3319" width="11.47265625" style="1"/>
+    <col min="3320" max="3320" width="9.47265625" style="1" customWidth="1"/>
+    <col min="3321" max="3321" width="24.83984375" style="1" customWidth="1"/>
+    <col min="3322" max="3324" width="11.47265625" style="1"/>
+    <col min="3325" max="3325" width="4.15625" style="1" customWidth="1"/>
+    <col min="3326" max="3326" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3327" max="3327" width="6.68359375" style="1" customWidth="1"/>
+    <col min="3328" max="3332" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3572" width="11.47265625" style="1"/>
+    <col min="3573" max="3573" width="17.15625" style="1" customWidth="1"/>
+    <col min="3574" max="3575" width="11.47265625" style="1"/>
+    <col min="3576" max="3576" width="9.47265625" style="1" customWidth="1"/>
+    <col min="3577" max="3577" width="24.83984375" style="1" customWidth="1"/>
+    <col min="3578" max="3580" width="11.47265625" style="1"/>
+    <col min="3581" max="3581" width="4.15625" style="1" customWidth="1"/>
+    <col min="3582" max="3582" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3583" max="3583" width="6.68359375" style="1" customWidth="1"/>
+    <col min="3584" max="3588" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3828" width="11.47265625" style="1"/>
+    <col min="3829" max="3829" width="17.15625" style="1" customWidth="1"/>
+    <col min="3830" max="3831" width="11.47265625" style="1"/>
+    <col min="3832" max="3832" width="9.47265625" style="1" customWidth="1"/>
+    <col min="3833" max="3833" width="24.83984375" style="1" customWidth="1"/>
+    <col min="3834" max="3836" width="11.47265625" style="1"/>
+    <col min="3837" max="3837" width="4.15625" style="1" customWidth="1"/>
+    <col min="3838" max="3838" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3839" max="3839" width="6.68359375" style="1" customWidth="1"/>
+    <col min="3840" max="3844" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3845" max="4084" width="11.47265625" style="1"/>
+    <col min="4085" max="4085" width="17.15625" style="1" customWidth="1"/>
+    <col min="4086" max="4087" width="11.47265625" style="1"/>
+    <col min="4088" max="4088" width="9.47265625" style="1" customWidth="1"/>
+    <col min="4089" max="4089" width="24.83984375" style="1" customWidth="1"/>
+    <col min="4090" max="4092" width="11.47265625" style="1"/>
+    <col min="4093" max="4093" width="4.15625" style="1" customWidth="1"/>
+    <col min="4094" max="4094" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4095" max="4095" width="6.68359375" style="1" customWidth="1"/>
+    <col min="4096" max="4100" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4340" width="11.47265625" style="1"/>
+    <col min="4341" max="4341" width="17.15625" style="1" customWidth="1"/>
+    <col min="4342" max="4343" width="11.47265625" style="1"/>
+    <col min="4344" max="4344" width="9.47265625" style="1" customWidth="1"/>
+    <col min="4345" max="4345" width="24.83984375" style="1" customWidth="1"/>
+    <col min="4346" max="4348" width="11.47265625" style="1"/>
+    <col min="4349" max="4349" width="4.15625" style="1" customWidth="1"/>
+    <col min="4350" max="4350" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4351" max="4351" width="6.68359375" style="1" customWidth="1"/>
+    <col min="4352" max="4356" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4596" width="11.47265625" style="1"/>
+    <col min="4597" max="4597" width="17.15625" style="1" customWidth="1"/>
+    <col min="4598" max="4599" width="11.47265625" style="1"/>
+    <col min="4600" max="4600" width="9.47265625" style="1" customWidth="1"/>
+    <col min="4601" max="4601" width="24.83984375" style="1" customWidth="1"/>
+    <col min="4602" max="4604" width="11.47265625" style="1"/>
+    <col min="4605" max="4605" width="4.15625" style="1" customWidth="1"/>
+    <col min="4606" max="4606" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4607" max="4607" width="6.68359375" style="1" customWidth="1"/>
+    <col min="4608" max="4612" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4852" width="11.47265625" style="1"/>
+    <col min="4853" max="4853" width="17.15625" style="1" customWidth="1"/>
+    <col min="4854" max="4855" width="11.47265625" style="1"/>
+    <col min="4856" max="4856" width="9.47265625" style="1" customWidth="1"/>
+    <col min="4857" max="4857" width="24.83984375" style="1" customWidth="1"/>
+    <col min="4858" max="4860" width="11.47265625" style="1"/>
+    <col min="4861" max="4861" width="4.15625" style="1" customWidth="1"/>
+    <col min="4862" max="4862" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4863" max="4863" width="6.68359375" style="1" customWidth="1"/>
+    <col min="4864" max="4868" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4869" max="5108" width="11.47265625" style="1"/>
+    <col min="5109" max="5109" width="17.15625" style="1" customWidth="1"/>
+    <col min="5110" max="5111" width="11.47265625" style="1"/>
+    <col min="5112" max="5112" width="9.47265625" style="1" customWidth="1"/>
+    <col min="5113" max="5113" width="24.83984375" style="1" customWidth="1"/>
+    <col min="5114" max="5116" width="11.47265625" style="1"/>
+    <col min="5117" max="5117" width="4.15625" style="1" customWidth="1"/>
+    <col min="5118" max="5118" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5119" max="5119" width="6.68359375" style="1" customWidth="1"/>
+    <col min="5120" max="5124" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5364" width="11.47265625" style="1"/>
+    <col min="5365" max="5365" width="17.15625" style="1" customWidth="1"/>
+    <col min="5366" max="5367" width="11.47265625" style="1"/>
+    <col min="5368" max="5368" width="9.47265625" style="1" customWidth="1"/>
+    <col min="5369" max="5369" width="24.83984375" style="1" customWidth="1"/>
+    <col min="5370" max="5372" width="11.47265625" style="1"/>
+    <col min="5373" max="5373" width="4.15625" style="1" customWidth="1"/>
+    <col min="5374" max="5374" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5375" max="5375" width="6.68359375" style="1" customWidth="1"/>
+    <col min="5376" max="5380" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5620" width="11.47265625" style="1"/>
+    <col min="5621" max="5621" width="17.15625" style="1" customWidth="1"/>
+    <col min="5622" max="5623" width="11.47265625" style="1"/>
+    <col min="5624" max="5624" width="9.47265625" style="1" customWidth="1"/>
+    <col min="5625" max="5625" width="24.83984375" style="1" customWidth="1"/>
+    <col min="5626" max="5628" width="11.47265625" style="1"/>
+    <col min="5629" max="5629" width="4.15625" style="1" customWidth="1"/>
+    <col min="5630" max="5630" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5631" max="5631" width="6.68359375" style="1" customWidth="1"/>
+    <col min="5632" max="5636" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5876" width="11.47265625" style="1"/>
+    <col min="5877" max="5877" width="17.15625" style="1" customWidth="1"/>
+    <col min="5878" max="5879" width="11.47265625" style="1"/>
+    <col min="5880" max="5880" width="9.47265625" style="1" customWidth="1"/>
+    <col min="5881" max="5881" width="24.83984375" style="1" customWidth="1"/>
+    <col min="5882" max="5884" width="11.47265625" style="1"/>
+    <col min="5885" max="5885" width="4.15625" style="1" customWidth="1"/>
+    <col min="5886" max="5886" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5887" max="5887" width="6.68359375" style="1" customWidth="1"/>
+    <col min="5888" max="5892" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5893" max="6132" width="11.47265625" style="1"/>
+    <col min="6133" max="6133" width="17.15625" style="1" customWidth="1"/>
+    <col min="6134" max="6135" width="11.47265625" style="1"/>
+    <col min="6136" max="6136" width="9.47265625" style="1" customWidth="1"/>
+    <col min="6137" max="6137" width="24.83984375" style="1" customWidth="1"/>
+    <col min="6138" max="6140" width="11.47265625" style="1"/>
+    <col min="6141" max="6141" width="4.15625" style="1" customWidth="1"/>
+    <col min="6142" max="6142" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6143" max="6143" width="6.68359375" style="1" customWidth="1"/>
+    <col min="6144" max="6148" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6388" width="11.47265625" style="1"/>
+    <col min="6389" max="6389" width="17.15625" style="1" customWidth="1"/>
+    <col min="6390" max="6391" width="11.47265625" style="1"/>
+    <col min="6392" max="6392" width="9.47265625" style="1" customWidth="1"/>
+    <col min="6393" max="6393" width="24.83984375" style="1" customWidth="1"/>
+    <col min="6394" max="6396" width="11.47265625" style="1"/>
+    <col min="6397" max="6397" width="4.15625" style="1" customWidth="1"/>
+    <col min="6398" max="6398" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6399" max="6399" width="6.68359375" style="1" customWidth="1"/>
+    <col min="6400" max="6404" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6644" width="11.47265625" style="1"/>
+    <col min="6645" max="6645" width="17.15625" style="1" customWidth="1"/>
+    <col min="6646" max="6647" width="11.47265625" style="1"/>
+    <col min="6648" max="6648" width="9.47265625" style="1" customWidth="1"/>
+    <col min="6649" max="6649" width="24.83984375" style="1" customWidth="1"/>
+    <col min="6650" max="6652" width="11.47265625" style="1"/>
+    <col min="6653" max="6653" width="4.15625" style="1" customWidth="1"/>
+    <col min="6654" max="6654" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6655" max="6655" width="6.68359375" style="1" customWidth="1"/>
+    <col min="6656" max="6660" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6900" width="11.47265625" style="1"/>
+    <col min="6901" max="6901" width="17.15625" style="1" customWidth="1"/>
+    <col min="6902" max="6903" width="11.47265625" style="1"/>
+    <col min="6904" max="6904" width="9.47265625" style="1" customWidth="1"/>
+    <col min="6905" max="6905" width="24.83984375" style="1" customWidth="1"/>
+    <col min="6906" max="6908" width="11.47265625" style="1"/>
+    <col min="6909" max="6909" width="4.15625" style="1" customWidth="1"/>
+    <col min="6910" max="6910" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6911" max="6911" width="6.68359375" style="1" customWidth="1"/>
+    <col min="6912" max="6916" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6917" max="7156" width="11.47265625" style="1"/>
+    <col min="7157" max="7157" width="17.15625" style="1" customWidth="1"/>
+    <col min="7158" max="7159" width="11.47265625" style="1"/>
+    <col min="7160" max="7160" width="9.47265625" style="1" customWidth="1"/>
+    <col min="7161" max="7161" width="24.83984375" style="1" customWidth="1"/>
+    <col min="7162" max="7164" width="11.47265625" style="1"/>
+    <col min="7165" max="7165" width="4.15625" style="1" customWidth="1"/>
+    <col min="7166" max="7166" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7167" max="7167" width="6.68359375" style="1" customWidth="1"/>
+    <col min="7168" max="7172" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7412" width="11.47265625" style="1"/>
+    <col min="7413" max="7413" width="17.15625" style="1" customWidth="1"/>
+    <col min="7414" max="7415" width="11.47265625" style="1"/>
+    <col min="7416" max="7416" width="9.47265625" style="1" customWidth="1"/>
+    <col min="7417" max="7417" width="24.83984375" style="1" customWidth="1"/>
+    <col min="7418" max="7420" width="11.47265625" style="1"/>
+    <col min="7421" max="7421" width="4.15625" style="1" customWidth="1"/>
+    <col min="7422" max="7422" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7423" max="7423" width="6.68359375" style="1" customWidth="1"/>
+    <col min="7424" max="7428" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7668" width="11.47265625" style="1"/>
+    <col min="7669" max="7669" width="17.15625" style="1" customWidth="1"/>
+    <col min="7670" max="7671" width="11.47265625" style="1"/>
+    <col min="7672" max="7672" width="9.47265625" style="1" customWidth="1"/>
+    <col min="7673" max="7673" width="24.83984375" style="1" customWidth="1"/>
+    <col min="7674" max="7676" width="11.47265625" style="1"/>
+    <col min="7677" max="7677" width="4.15625" style="1" customWidth="1"/>
+    <col min="7678" max="7678" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7679" max="7679" width="6.68359375" style="1" customWidth="1"/>
+    <col min="7680" max="7684" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7924" width="11.47265625" style="1"/>
+    <col min="7925" max="7925" width="17.15625" style="1" customWidth="1"/>
+    <col min="7926" max="7927" width="11.47265625" style="1"/>
+    <col min="7928" max="7928" width="9.47265625" style="1" customWidth="1"/>
+    <col min="7929" max="7929" width="24.83984375" style="1" customWidth="1"/>
+    <col min="7930" max="7932" width="11.47265625" style="1"/>
+    <col min="7933" max="7933" width="4.15625" style="1" customWidth="1"/>
+    <col min="7934" max="7934" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7935" max="7935" width="6.68359375" style="1" customWidth="1"/>
+    <col min="7936" max="7940" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7941" max="8180" width="11.47265625" style="1"/>
+    <col min="8181" max="8181" width="17.15625" style="1" customWidth="1"/>
+    <col min="8182" max="8183" width="11.47265625" style="1"/>
+    <col min="8184" max="8184" width="9.47265625" style="1" customWidth="1"/>
+    <col min="8185" max="8185" width="24.83984375" style="1" customWidth="1"/>
+    <col min="8186" max="8188" width="11.47265625" style="1"/>
+    <col min="8189" max="8189" width="4.15625" style="1" customWidth="1"/>
+    <col min="8190" max="8190" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8191" max="8191" width="6.68359375" style="1" customWidth="1"/>
+    <col min="8192" max="8196" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8436" width="11.47265625" style="1"/>
+    <col min="8437" max="8437" width="17.15625" style="1" customWidth="1"/>
+    <col min="8438" max="8439" width="11.47265625" style="1"/>
+    <col min="8440" max="8440" width="9.47265625" style="1" customWidth="1"/>
+    <col min="8441" max="8441" width="24.83984375" style="1" customWidth="1"/>
+    <col min="8442" max="8444" width="11.47265625" style="1"/>
+    <col min="8445" max="8445" width="4.15625" style="1" customWidth="1"/>
+    <col min="8446" max="8446" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8447" max="8447" width="6.68359375" style="1" customWidth="1"/>
+    <col min="8448" max="8452" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8692" width="11.47265625" style="1"/>
+    <col min="8693" max="8693" width="17.15625" style="1" customWidth="1"/>
+    <col min="8694" max="8695" width="11.47265625" style="1"/>
+    <col min="8696" max="8696" width="9.47265625" style="1" customWidth="1"/>
+    <col min="8697" max="8697" width="24.83984375" style="1" customWidth="1"/>
+    <col min="8698" max="8700" width="11.47265625" style="1"/>
+    <col min="8701" max="8701" width="4.15625" style="1" customWidth="1"/>
+    <col min="8702" max="8702" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8703" max="8703" width="6.68359375" style="1" customWidth="1"/>
+    <col min="8704" max="8708" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8948" width="11.47265625" style="1"/>
+    <col min="8949" max="8949" width="17.15625" style="1" customWidth="1"/>
+    <col min="8950" max="8951" width="11.47265625" style="1"/>
+    <col min="8952" max="8952" width="9.47265625" style="1" customWidth="1"/>
+    <col min="8953" max="8953" width="24.83984375" style="1" customWidth="1"/>
+    <col min="8954" max="8956" width="11.47265625" style="1"/>
+    <col min="8957" max="8957" width="4.15625" style="1" customWidth="1"/>
+    <col min="8958" max="8958" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8959" max="8959" width="6.68359375" style="1" customWidth="1"/>
+    <col min="8960" max="8964" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8965" max="9204" width="11.47265625" style="1"/>
+    <col min="9205" max="9205" width="17.15625" style="1" customWidth="1"/>
+    <col min="9206" max="9207" width="11.47265625" style="1"/>
+    <col min="9208" max="9208" width="9.47265625" style="1" customWidth="1"/>
+    <col min="9209" max="9209" width="24.83984375" style="1" customWidth="1"/>
+    <col min="9210" max="9212" width="11.47265625" style="1"/>
+    <col min="9213" max="9213" width="4.15625" style="1" customWidth="1"/>
+    <col min="9214" max="9214" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9215" max="9215" width="6.68359375" style="1" customWidth="1"/>
+    <col min="9216" max="9220" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9460" width="11.47265625" style="1"/>
+    <col min="9461" max="9461" width="17.15625" style="1" customWidth="1"/>
+    <col min="9462" max="9463" width="11.47265625" style="1"/>
+    <col min="9464" max="9464" width="9.47265625" style="1" customWidth="1"/>
+    <col min="9465" max="9465" width="24.83984375" style="1" customWidth="1"/>
+    <col min="9466" max="9468" width="11.47265625" style="1"/>
+    <col min="9469" max="9469" width="4.15625" style="1" customWidth="1"/>
+    <col min="9470" max="9470" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9471" max="9471" width="6.68359375" style="1" customWidth="1"/>
+    <col min="9472" max="9476" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9716" width="11.47265625" style="1"/>
+    <col min="9717" max="9717" width="17.15625" style="1" customWidth="1"/>
+    <col min="9718" max="9719" width="11.47265625" style="1"/>
+    <col min="9720" max="9720" width="9.47265625" style="1" customWidth="1"/>
+    <col min="9721" max="9721" width="24.83984375" style="1" customWidth="1"/>
+    <col min="9722" max="9724" width="11.47265625" style="1"/>
+    <col min="9725" max="9725" width="4.15625" style="1" customWidth="1"/>
+    <col min="9726" max="9726" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9727" max="9727" width="6.68359375" style="1" customWidth="1"/>
+    <col min="9728" max="9732" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9972" width="11.47265625" style="1"/>
+    <col min="9973" max="9973" width="17.15625" style="1" customWidth="1"/>
+    <col min="9974" max="9975" width="11.47265625" style="1"/>
+    <col min="9976" max="9976" width="9.47265625" style="1" customWidth="1"/>
+    <col min="9977" max="9977" width="24.83984375" style="1" customWidth="1"/>
+    <col min="9978" max="9980" width="11.47265625" style="1"/>
+    <col min="9981" max="9981" width="4.15625" style="1" customWidth="1"/>
+    <col min="9982" max="9982" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9983" max="9983" width="6.68359375" style="1" customWidth="1"/>
+    <col min="9984" max="9988" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9989" max="10228" width="11.47265625" style="1"/>
+    <col min="10229" max="10229" width="17.15625" style="1" customWidth="1"/>
+    <col min="10230" max="10231" width="11.47265625" style="1"/>
+    <col min="10232" max="10232" width="9.47265625" style="1" customWidth="1"/>
+    <col min="10233" max="10233" width="24.83984375" style="1" customWidth="1"/>
+    <col min="10234" max="10236" width="11.47265625" style="1"/>
+    <col min="10237" max="10237" width="4.15625" style="1" customWidth="1"/>
+    <col min="10238" max="10238" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10239" max="10239" width="6.68359375" style="1" customWidth="1"/>
+    <col min="10240" max="10244" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10484" width="11.47265625" style="1"/>
+    <col min="10485" max="10485" width="17.15625" style="1" customWidth="1"/>
+    <col min="10486" max="10487" width="11.47265625" style="1"/>
+    <col min="10488" max="10488" width="9.47265625" style="1" customWidth="1"/>
+    <col min="10489" max="10489" width="24.83984375" style="1" customWidth="1"/>
+    <col min="10490" max="10492" width="11.47265625" style="1"/>
+    <col min="10493" max="10493" width="4.15625" style="1" customWidth="1"/>
+    <col min="10494" max="10494" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10495" max="10495" width="6.68359375" style="1" customWidth="1"/>
+    <col min="10496" max="10500" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10740" width="11.47265625" style="1"/>
+    <col min="10741" max="10741" width="17.15625" style="1" customWidth="1"/>
+    <col min="10742" max="10743" width="11.47265625" style="1"/>
+    <col min="10744" max="10744" width="9.47265625" style="1" customWidth="1"/>
+    <col min="10745" max="10745" width="24.83984375" style="1" customWidth="1"/>
+    <col min="10746" max="10748" width="11.47265625" style="1"/>
+    <col min="10749" max="10749" width="4.15625" style="1" customWidth="1"/>
+    <col min="10750" max="10750" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10751" max="10751" width="6.68359375" style="1" customWidth="1"/>
+    <col min="10752" max="10756" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10996" width="11.47265625" style="1"/>
+    <col min="10997" max="10997" width="17.15625" style="1" customWidth="1"/>
+    <col min="10998" max="10999" width="11.47265625" style="1"/>
+    <col min="11000" max="11000" width="9.47265625" style="1" customWidth="1"/>
+    <col min="11001" max="11001" width="24.83984375" style="1" customWidth="1"/>
+    <col min="11002" max="11004" width="11.47265625" style="1"/>
+    <col min="11005" max="11005" width="4.15625" style="1" customWidth="1"/>
+    <col min="11006" max="11006" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11007" max="11007" width="6.68359375" style="1" customWidth="1"/>
+    <col min="11008" max="11012" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11252" width="11.47265625" style="1"/>
+    <col min="11253" max="11253" width="17.15625" style="1" customWidth="1"/>
+    <col min="11254" max="11255" width="11.47265625" style="1"/>
+    <col min="11256" max="11256" width="9.47265625" style="1" customWidth="1"/>
+    <col min="11257" max="11257" width="24.83984375" style="1" customWidth="1"/>
+    <col min="11258" max="11260" width="11.47265625" style="1"/>
+    <col min="11261" max="11261" width="4.15625" style="1" customWidth="1"/>
+    <col min="11262" max="11262" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11263" max="11263" width="6.68359375" style="1" customWidth="1"/>
+    <col min="11264" max="11268" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11508" width="11.47265625" style="1"/>
+    <col min="11509" max="11509" width="17.15625" style="1" customWidth="1"/>
+    <col min="11510" max="11511" width="11.47265625" style="1"/>
+    <col min="11512" max="11512" width="9.47265625" style="1" customWidth="1"/>
+    <col min="11513" max="11513" width="24.83984375" style="1" customWidth="1"/>
+    <col min="11514" max="11516" width="11.47265625" style="1"/>
+    <col min="11517" max="11517" width="4.15625" style="1" customWidth="1"/>
+    <col min="11518" max="11518" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11519" max="11519" width="6.68359375" style="1" customWidth="1"/>
+    <col min="11520" max="11524" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11764" width="11.47265625" style="1"/>
+    <col min="11765" max="11765" width="17.15625" style="1" customWidth="1"/>
+    <col min="11766" max="11767" width="11.47265625" style="1"/>
+    <col min="11768" max="11768" width="9.47265625" style="1" customWidth="1"/>
+    <col min="11769" max="11769" width="24.83984375" style="1" customWidth="1"/>
+    <col min="11770" max="11772" width="11.47265625" style="1"/>
+    <col min="11773" max="11773" width="4.15625" style="1" customWidth="1"/>
+    <col min="11774" max="11774" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11775" max="11775" width="6.68359375" style="1" customWidth="1"/>
+    <col min="11776" max="11780" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11781" max="12020" width="11.47265625" style="1"/>
+    <col min="12021" max="12021" width="17.15625" style="1" customWidth="1"/>
+    <col min="12022" max="12023" width="11.47265625" style="1"/>
+    <col min="12024" max="12024" width="9.47265625" style="1" customWidth="1"/>
+    <col min="12025" max="12025" width="24.83984375" style="1" customWidth="1"/>
+    <col min="12026" max="12028" width="11.47265625" style="1"/>
+    <col min="12029" max="12029" width="4.15625" style="1" customWidth="1"/>
+    <col min="12030" max="12030" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12031" max="12031" width="6.68359375" style="1" customWidth="1"/>
+    <col min="12032" max="12036" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12276" width="11.47265625" style="1"/>
+    <col min="12277" max="12277" width="17.15625" style="1" customWidth="1"/>
+    <col min="12278" max="12279" width="11.47265625" style="1"/>
+    <col min="12280" max="12280" width="9.47265625" style="1" customWidth="1"/>
+    <col min="12281" max="12281" width="24.83984375" style="1" customWidth="1"/>
+    <col min="12282" max="12284" width="11.47265625" style="1"/>
+    <col min="12285" max="12285" width="4.15625" style="1" customWidth="1"/>
+    <col min="12286" max="12286" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12287" max="12287" width="6.68359375" style="1" customWidth="1"/>
+    <col min="12288" max="12292" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12532" width="11.47265625" style="1"/>
+    <col min="12533" max="12533" width="17.15625" style="1" customWidth="1"/>
+    <col min="12534" max="12535" width="11.47265625" style="1"/>
+    <col min="12536" max="12536" width="9.47265625" style="1" customWidth="1"/>
+    <col min="12537" max="12537" width="24.83984375" style="1" customWidth="1"/>
+    <col min="12538" max="12540" width="11.47265625" style="1"/>
+    <col min="12541" max="12541" width="4.15625" style="1" customWidth="1"/>
+    <col min="12542" max="12542" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12543" max="12543" width="6.68359375" style="1" customWidth="1"/>
+    <col min="12544" max="12548" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12788" width="11.47265625" style="1"/>
+    <col min="12789" max="12789" width="17.15625" style="1" customWidth="1"/>
+    <col min="12790" max="12791" width="11.47265625" style="1"/>
+    <col min="12792" max="12792" width="9.47265625" style="1" customWidth="1"/>
+    <col min="12793" max="12793" width="24.83984375" style="1" customWidth="1"/>
+    <col min="12794" max="12796" width="11.47265625" style="1"/>
+    <col min="12797" max="12797" width="4.15625" style="1" customWidth="1"/>
+    <col min="12798" max="12798" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12799" max="12799" width="6.68359375" style="1" customWidth="1"/>
+    <col min="12800" max="12804" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12805" max="13044" width="11.47265625" style="1"/>
+    <col min="13045" max="13045" width="17.15625" style="1" customWidth="1"/>
+    <col min="13046" max="13047" width="11.47265625" style="1"/>
+    <col min="13048" max="13048" width="9.47265625" style="1" customWidth="1"/>
+    <col min="13049" max="13049" width="24.83984375" style="1" customWidth="1"/>
+    <col min="13050" max="13052" width="11.47265625" style="1"/>
+    <col min="13053" max="13053" width="4.15625" style="1" customWidth="1"/>
+    <col min="13054" max="13054" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13055" max="13055" width="6.68359375" style="1" customWidth="1"/>
+    <col min="13056" max="13060" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13300" width="11.47265625" style="1"/>
+    <col min="13301" max="13301" width="17.15625" style="1" customWidth="1"/>
+    <col min="13302" max="13303" width="11.47265625" style="1"/>
+    <col min="13304" max="13304" width="9.47265625" style="1" customWidth="1"/>
+    <col min="13305" max="13305" width="24.83984375" style="1" customWidth="1"/>
+    <col min="13306" max="13308" width="11.47265625" style="1"/>
+    <col min="13309" max="13309" width="4.15625" style="1" customWidth="1"/>
+    <col min="13310" max="13310" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13311" max="13311" width="6.68359375" style="1" customWidth="1"/>
+    <col min="13312" max="13316" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13556" width="11.47265625" style="1"/>
+    <col min="13557" max="13557" width="17.15625" style="1" customWidth="1"/>
+    <col min="13558" max="13559" width="11.47265625" style="1"/>
+    <col min="13560" max="13560" width="9.47265625" style="1" customWidth="1"/>
+    <col min="13561" max="13561" width="24.83984375" style="1" customWidth="1"/>
+    <col min="13562" max="13564" width="11.47265625" style="1"/>
+    <col min="13565" max="13565" width="4.15625" style="1" customWidth="1"/>
+    <col min="13566" max="13566" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13567" max="13567" width="6.68359375" style="1" customWidth="1"/>
+    <col min="13568" max="13572" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13812" width="11.47265625" style="1"/>
+    <col min="13813" max="13813" width="17.15625" style="1" customWidth="1"/>
+    <col min="13814" max="13815" width="11.47265625" style="1"/>
+    <col min="13816" max="13816" width="9.47265625" style="1" customWidth="1"/>
+    <col min="13817" max="13817" width="24.83984375" style="1" customWidth="1"/>
+    <col min="13818" max="13820" width="11.47265625" style="1"/>
+    <col min="13821" max="13821" width="4.15625" style="1" customWidth="1"/>
+    <col min="13822" max="13822" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13823" max="13823" width="6.68359375" style="1" customWidth="1"/>
+    <col min="13824" max="13828" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13829" max="14068" width="11.47265625" style="1"/>
+    <col min="14069" max="14069" width="17.15625" style="1" customWidth="1"/>
+    <col min="14070" max="14071" width="11.47265625" style="1"/>
+    <col min="14072" max="14072" width="9.47265625" style="1" customWidth="1"/>
+    <col min="14073" max="14073" width="24.83984375" style="1" customWidth="1"/>
+    <col min="14074" max="14076" width="11.47265625" style="1"/>
+    <col min="14077" max="14077" width="4.15625" style="1" customWidth="1"/>
+    <col min="14078" max="14078" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14079" max="14079" width="6.68359375" style="1" customWidth="1"/>
+    <col min="14080" max="14084" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14324" width="11.47265625" style="1"/>
+    <col min="14325" max="14325" width="17.15625" style="1" customWidth="1"/>
+    <col min="14326" max="14327" width="11.47265625" style="1"/>
+    <col min="14328" max="14328" width="9.47265625" style="1" customWidth="1"/>
+    <col min="14329" max="14329" width="24.83984375" style="1" customWidth="1"/>
+    <col min="14330" max="14332" width="11.47265625" style="1"/>
+    <col min="14333" max="14333" width="4.15625" style="1" customWidth="1"/>
+    <col min="14334" max="14334" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14335" max="14335" width="6.68359375" style="1" customWidth="1"/>
+    <col min="14336" max="14340" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14580" width="11.47265625" style="1"/>
+    <col min="14581" max="14581" width="17.15625" style="1" customWidth="1"/>
+    <col min="14582" max="14583" width="11.47265625" style="1"/>
+    <col min="14584" max="14584" width="9.47265625" style="1" customWidth="1"/>
+    <col min="14585" max="14585" width="24.83984375" style="1" customWidth="1"/>
+    <col min="14586" max="14588" width="11.47265625" style="1"/>
+    <col min="14589" max="14589" width="4.15625" style="1" customWidth="1"/>
+    <col min="14590" max="14590" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14591" max="14591" width="6.68359375" style="1" customWidth="1"/>
+    <col min="14592" max="14596" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14836" width="11.47265625" style="1"/>
+    <col min="14837" max="14837" width="17.15625" style="1" customWidth="1"/>
+    <col min="14838" max="14839" width="11.47265625" style="1"/>
+    <col min="14840" max="14840" width="9.47265625" style="1" customWidth="1"/>
+    <col min="14841" max="14841" width="24.83984375" style="1" customWidth="1"/>
+    <col min="14842" max="14844" width="11.47265625" style="1"/>
+    <col min="14845" max="14845" width="4.15625" style="1" customWidth="1"/>
+    <col min="14846" max="14846" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14847" max="14847" width="6.68359375" style="1" customWidth="1"/>
+    <col min="14848" max="14852" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14853" max="15092" width="11.47265625" style="1"/>
+    <col min="15093" max="15093" width="17.15625" style="1" customWidth="1"/>
+    <col min="15094" max="15095" width="11.47265625" style="1"/>
+    <col min="15096" max="15096" width="9.47265625" style="1" customWidth="1"/>
+    <col min="15097" max="15097" width="24.83984375" style="1" customWidth="1"/>
+    <col min="15098" max="15100" width="11.47265625" style="1"/>
+    <col min="15101" max="15101" width="4.15625" style="1" customWidth="1"/>
+    <col min="15102" max="15102" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15103" max="15103" width="6.68359375" style="1" customWidth="1"/>
+    <col min="15104" max="15108" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15348" width="11.47265625" style="1"/>
+    <col min="15349" max="15349" width="17.15625" style="1" customWidth="1"/>
+    <col min="15350" max="15351" width="11.47265625" style="1"/>
+    <col min="15352" max="15352" width="9.47265625" style="1" customWidth="1"/>
+    <col min="15353" max="15353" width="24.83984375" style="1" customWidth="1"/>
+    <col min="15354" max="15356" width="11.47265625" style="1"/>
+    <col min="15357" max="15357" width="4.15625" style="1" customWidth="1"/>
+    <col min="15358" max="15358" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15359" max="15359" width="6.68359375" style="1" customWidth="1"/>
+    <col min="15360" max="15364" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15604" width="11.47265625" style="1"/>
+    <col min="15605" max="15605" width="17.15625" style="1" customWidth="1"/>
+    <col min="15606" max="15607" width="11.47265625" style="1"/>
+    <col min="15608" max="15608" width="9.47265625" style="1" customWidth="1"/>
+    <col min="15609" max="15609" width="24.83984375" style="1" customWidth="1"/>
+    <col min="15610" max="15612" width="11.47265625" style="1"/>
+    <col min="15613" max="15613" width="4.15625" style="1" customWidth="1"/>
+    <col min="15614" max="15614" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15615" max="15615" width="6.68359375" style="1" customWidth="1"/>
+    <col min="15616" max="15620" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15860" width="11.47265625" style="1"/>
+    <col min="15861" max="15861" width="17.15625" style="1" customWidth="1"/>
+    <col min="15862" max="15863" width="11.47265625" style="1"/>
+    <col min="15864" max="15864" width="9.47265625" style="1" customWidth="1"/>
+    <col min="15865" max="15865" width="24.83984375" style="1" customWidth="1"/>
+    <col min="15866" max="15868" width="11.47265625" style="1"/>
+    <col min="15869" max="15869" width="4.15625" style="1" customWidth="1"/>
+    <col min="15870" max="15870" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15871" max="15871" width="6.68359375" style="1" customWidth="1"/>
+    <col min="15872" max="15876" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15877" max="16116" width="11.47265625" style="1"/>
+    <col min="16117" max="16117" width="17.15625" style="1" customWidth="1"/>
+    <col min="16118" max="16119" width="11.47265625" style="1"/>
+    <col min="16120" max="16120" width="9.47265625" style="1" customWidth="1"/>
+    <col min="16121" max="16121" width="24.83984375" style="1" customWidth="1"/>
+    <col min="16122" max="16124" width="11.47265625" style="1"/>
+    <col min="16125" max="16125" width="4.15625" style="1" customWidth="1"/>
+    <col min="16126" max="16126" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16127" max="16127" width="6.68359375" style="1" customWidth="1"/>
+    <col min="16128" max="16132" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16384" width="11.47265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A2" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+    </row>
+    <row r="3" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A3" s="20" t="s">
         <v>45</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>23.28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>26.28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>18.396000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>44.676000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>3.5740800000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -2540,19 +2540,19 @@
         <v>48.250080000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="54" t="s">
+    <row r="17" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A17" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+    </row>
+    <row r="18" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A18" s="20" t="s">
         <v>45</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>8</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>47</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>14</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>31.04</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>16</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>38.04</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>28.53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>22</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>66.569999999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>6.657</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>26</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>73.22699999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>2.1968099999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>75.423809999999989</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>34</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>15.084761999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
@@ -2748,496 +2748,496 @@
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.47265625" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.47265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="1"/>
-    <col min="9" max="9" width="17.1640625" style="1" customWidth="1"/>
-    <col min="10" max="254" width="11.5" style="1"/>
-    <col min="255" max="255" width="7.5" style="1" customWidth="1"/>
-    <col min="256" max="256" width="27.83203125" style="1" customWidth="1"/>
-    <col min="257" max="257" width="9.83203125" style="1" customWidth="1"/>
-    <col min="258" max="258" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="5.5" style="1" customWidth="1"/>
-    <col min="260" max="260" width="17.5" style="1" customWidth="1"/>
-    <col min="261" max="510" width="11.5" style="1"/>
-    <col min="511" max="511" width="7.5" style="1" customWidth="1"/>
-    <col min="512" max="512" width="27.83203125" style="1" customWidth="1"/>
-    <col min="513" max="513" width="9.83203125" style="1" customWidth="1"/>
-    <col min="514" max="514" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="5.5" style="1" customWidth="1"/>
-    <col min="516" max="516" width="17.5" style="1" customWidth="1"/>
-    <col min="517" max="766" width="11.5" style="1"/>
-    <col min="767" max="767" width="7.5" style="1" customWidth="1"/>
-    <col min="768" max="768" width="27.83203125" style="1" customWidth="1"/>
-    <col min="769" max="769" width="9.83203125" style="1" customWidth="1"/>
-    <col min="770" max="770" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="5.5" style="1" customWidth="1"/>
-    <col min="772" max="772" width="17.5" style="1" customWidth="1"/>
-    <col min="773" max="1022" width="11.5" style="1"/>
-    <col min="1023" max="1023" width="7.5" style="1" customWidth="1"/>
-    <col min="1024" max="1024" width="27.83203125" style="1" customWidth="1"/>
-    <col min="1025" max="1025" width="9.83203125" style="1" customWidth="1"/>
-    <col min="1026" max="1026" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="5.5" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="17.5" style="1" customWidth="1"/>
-    <col min="1029" max="1278" width="11.5" style="1"/>
-    <col min="1279" max="1279" width="7.5" style="1" customWidth="1"/>
-    <col min="1280" max="1280" width="27.83203125" style="1" customWidth="1"/>
-    <col min="1281" max="1281" width="9.83203125" style="1" customWidth="1"/>
-    <col min="1282" max="1282" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="5.5" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="17.5" style="1" customWidth="1"/>
-    <col min="1285" max="1534" width="11.5" style="1"/>
-    <col min="1535" max="1535" width="7.5" style="1" customWidth="1"/>
-    <col min="1536" max="1536" width="27.83203125" style="1" customWidth="1"/>
-    <col min="1537" max="1537" width="9.83203125" style="1" customWidth="1"/>
-    <col min="1538" max="1538" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="5.5" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="17.5" style="1" customWidth="1"/>
-    <col min="1541" max="1790" width="11.5" style="1"/>
-    <col min="1791" max="1791" width="7.5" style="1" customWidth="1"/>
-    <col min="1792" max="1792" width="27.83203125" style="1" customWidth="1"/>
-    <col min="1793" max="1793" width="9.83203125" style="1" customWidth="1"/>
-    <col min="1794" max="1794" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="5.5" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="17.5" style="1" customWidth="1"/>
-    <col min="1797" max="2046" width="11.5" style="1"/>
-    <col min="2047" max="2047" width="7.5" style="1" customWidth="1"/>
-    <col min="2048" max="2048" width="27.83203125" style="1" customWidth="1"/>
-    <col min="2049" max="2049" width="9.83203125" style="1" customWidth="1"/>
-    <col min="2050" max="2050" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="5.5" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="17.5" style="1" customWidth="1"/>
-    <col min="2053" max="2302" width="11.5" style="1"/>
-    <col min="2303" max="2303" width="7.5" style="1" customWidth="1"/>
-    <col min="2304" max="2304" width="27.83203125" style="1" customWidth="1"/>
-    <col min="2305" max="2305" width="9.83203125" style="1" customWidth="1"/>
-    <col min="2306" max="2306" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="5.5" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="17.5" style="1" customWidth="1"/>
-    <col min="2309" max="2558" width="11.5" style="1"/>
-    <col min="2559" max="2559" width="7.5" style="1" customWidth="1"/>
-    <col min="2560" max="2560" width="27.83203125" style="1" customWidth="1"/>
-    <col min="2561" max="2561" width="9.83203125" style="1" customWidth="1"/>
-    <col min="2562" max="2562" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="5.5" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="17.5" style="1" customWidth="1"/>
-    <col min="2565" max="2814" width="11.5" style="1"/>
-    <col min="2815" max="2815" width="7.5" style="1" customWidth="1"/>
-    <col min="2816" max="2816" width="27.83203125" style="1" customWidth="1"/>
-    <col min="2817" max="2817" width="9.83203125" style="1" customWidth="1"/>
-    <col min="2818" max="2818" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="5.5" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="17.5" style="1" customWidth="1"/>
-    <col min="2821" max="3070" width="11.5" style="1"/>
-    <col min="3071" max="3071" width="7.5" style="1" customWidth="1"/>
-    <col min="3072" max="3072" width="27.83203125" style="1" customWidth="1"/>
-    <col min="3073" max="3073" width="9.83203125" style="1" customWidth="1"/>
-    <col min="3074" max="3074" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="5.5" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="17.5" style="1" customWidth="1"/>
-    <col min="3077" max="3326" width="11.5" style="1"/>
-    <col min="3327" max="3327" width="7.5" style="1" customWidth="1"/>
-    <col min="3328" max="3328" width="27.83203125" style="1" customWidth="1"/>
-    <col min="3329" max="3329" width="9.83203125" style="1" customWidth="1"/>
-    <col min="3330" max="3330" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="5.5" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="17.5" style="1" customWidth="1"/>
-    <col min="3333" max="3582" width="11.5" style="1"/>
-    <col min="3583" max="3583" width="7.5" style="1" customWidth="1"/>
-    <col min="3584" max="3584" width="27.83203125" style="1" customWidth="1"/>
-    <col min="3585" max="3585" width="9.83203125" style="1" customWidth="1"/>
-    <col min="3586" max="3586" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="5.5" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="17.5" style="1" customWidth="1"/>
-    <col min="3589" max="3838" width="11.5" style="1"/>
-    <col min="3839" max="3839" width="7.5" style="1" customWidth="1"/>
-    <col min="3840" max="3840" width="27.83203125" style="1" customWidth="1"/>
-    <col min="3841" max="3841" width="9.83203125" style="1" customWidth="1"/>
-    <col min="3842" max="3842" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="5.5" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="17.5" style="1" customWidth="1"/>
-    <col min="3845" max="4094" width="11.5" style="1"/>
-    <col min="4095" max="4095" width="7.5" style="1" customWidth="1"/>
-    <col min="4096" max="4096" width="27.83203125" style="1" customWidth="1"/>
-    <col min="4097" max="4097" width="9.83203125" style="1" customWidth="1"/>
-    <col min="4098" max="4098" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="5.5" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="17.5" style="1" customWidth="1"/>
-    <col min="4101" max="4350" width="11.5" style="1"/>
-    <col min="4351" max="4351" width="7.5" style="1" customWidth="1"/>
-    <col min="4352" max="4352" width="27.83203125" style="1" customWidth="1"/>
-    <col min="4353" max="4353" width="9.83203125" style="1" customWidth="1"/>
-    <col min="4354" max="4354" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="5.5" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="17.5" style="1" customWidth="1"/>
-    <col min="4357" max="4606" width="11.5" style="1"/>
-    <col min="4607" max="4607" width="7.5" style="1" customWidth="1"/>
-    <col min="4608" max="4608" width="27.83203125" style="1" customWidth="1"/>
-    <col min="4609" max="4609" width="9.83203125" style="1" customWidth="1"/>
-    <col min="4610" max="4610" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="5.5" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="17.5" style="1" customWidth="1"/>
-    <col min="4613" max="4862" width="11.5" style="1"/>
-    <col min="4863" max="4863" width="7.5" style="1" customWidth="1"/>
-    <col min="4864" max="4864" width="27.83203125" style="1" customWidth="1"/>
-    <col min="4865" max="4865" width="9.83203125" style="1" customWidth="1"/>
-    <col min="4866" max="4866" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="5.5" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="17.5" style="1" customWidth="1"/>
-    <col min="4869" max="5118" width="11.5" style="1"/>
-    <col min="5119" max="5119" width="7.5" style="1" customWidth="1"/>
-    <col min="5120" max="5120" width="27.83203125" style="1" customWidth="1"/>
-    <col min="5121" max="5121" width="9.83203125" style="1" customWidth="1"/>
-    <col min="5122" max="5122" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="5.5" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="17.5" style="1" customWidth="1"/>
-    <col min="5125" max="5374" width="11.5" style="1"/>
-    <col min="5375" max="5375" width="7.5" style="1" customWidth="1"/>
-    <col min="5376" max="5376" width="27.83203125" style="1" customWidth="1"/>
-    <col min="5377" max="5377" width="9.83203125" style="1" customWidth="1"/>
-    <col min="5378" max="5378" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="5.5" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="17.5" style="1" customWidth="1"/>
-    <col min="5381" max="5630" width="11.5" style="1"/>
-    <col min="5631" max="5631" width="7.5" style="1" customWidth="1"/>
-    <col min="5632" max="5632" width="27.83203125" style="1" customWidth="1"/>
-    <col min="5633" max="5633" width="9.83203125" style="1" customWidth="1"/>
-    <col min="5634" max="5634" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="5.5" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="17.5" style="1" customWidth="1"/>
-    <col min="5637" max="5886" width="11.5" style="1"/>
-    <col min="5887" max="5887" width="7.5" style="1" customWidth="1"/>
-    <col min="5888" max="5888" width="27.83203125" style="1" customWidth="1"/>
-    <col min="5889" max="5889" width="9.83203125" style="1" customWidth="1"/>
-    <col min="5890" max="5890" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="5.5" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="17.5" style="1" customWidth="1"/>
-    <col min="5893" max="6142" width="11.5" style="1"/>
-    <col min="6143" max="6143" width="7.5" style="1" customWidth="1"/>
-    <col min="6144" max="6144" width="27.83203125" style="1" customWidth="1"/>
-    <col min="6145" max="6145" width="9.83203125" style="1" customWidth="1"/>
-    <col min="6146" max="6146" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="5.5" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="17.5" style="1" customWidth="1"/>
-    <col min="6149" max="6398" width="11.5" style="1"/>
-    <col min="6399" max="6399" width="7.5" style="1" customWidth="1"/>
-    <col min="6400" max="6400" width="27.83203125" style="1" customWidth="1"/>
-    <col min="6401" max="6401" width="9.83203125" style="1" customWidth="1"/>
-    <col min="6402" max="6402" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="5.5" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="17.5" style="1" customWidth="1"/>
-    <col min="6405" max="6654" width="11.5" style="1"/>
-    <col min="6655" max="6655" width="7.5" style="1" customWidth="1"/>
-    <col min="6656" max="6656" width="27.83203125" style="1" customWidth="1"/>
-    <col min="6657" max="6657" width="9.83203125" style="1" customWidth="1"/>
-    <col min="6658" max="6658" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="5.5" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="17.5" style="1" customWidth="1"/>
-    <col min="6661" max="6910" width="11.5" style="1"/>
-    <col min="6911" max="6911" width="7.5" style="1" customWidth="1"/>
-    <col min="6912" max="6912" width="27.83203125" style="1" customWidth="1"/>
-    <col min="6913" max="6913" width="9.83203125" style="1" customWidth="1"/>
-    <col min="6914" max="6914" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="5.5" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="17.5" style="1" customWidth="1"/>
-    <col min="6917" max="7166" width="11.5" style="1"/>
-    <col min="7167" max="7167" width="7.5" style="1" customWidth="1"/>
-    <col min="7168" max="7168" width="27.83203125" style="1" customWidth="1"/>
-    <col min="7169" max="7169" width="9.83203125" style="1" customWidth="1"/>
-    <col min="7170" max="7170" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="5.5" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="17.5" style="1" customWidth="1"/>
-    <col min="7173" max="7422" width="11.5" style="1"/>
-    <col min="7423" max="7423" width="7.5" style="1" customWidth="1"/>
-    <col min="7424" max="7424" width="27.83203125" style="1" customWidth="1"/>
-    <col min="7425" max="7425" width="9.83203125" style="1" customWidth="1"/>
-    <col min="7426" max="7426" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="5.5" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="17.5" style="1" customWidth="1"/>
-    <col min="7429" max="7678" width="11.5" style="1"/>
-    <col min="7679" max="7679" width="7.5" style="1" customWidth="1"/>
-    <col min="7680" max="7680" width="27.83203125" style="1" customWidth="1"/>
-    <col min="7681" max="7681" width="9.83203125" style="1" customWidth="1"/>
-    <col min="7682" max="7682" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="5.5" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="17.5" style="1" customWidth="1"/>
-    <col min="7685" max="7934" width="11.5" style="1"/>
-    <col min="7935" max="7935" width="7.5" style="1" customWidth="1"/>
-    <col min="7936" max="7936" width="27.83203125" style="1" customWidth="1"/>
-    <col min="7937" max="7937" width="9.83203125" style="1" customWidth="1"/>
-    <col min="7938" max="7938" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="5.5" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="17.5" style="1" customWidth="1"/>
-    <col min="7941" max="8190" width="11.5" style="1"/>
-    <col min="8191" max="8191" width="7.5" style="1" customWidth="1"/>
-    <col min="8192" max="8192" width="27.83203125" style="1" customWidth="1"/>
-    <col min="8193" max="8193" width="9.83203125" style="1" customWidth="1"/>
-    <col min="8194" max="8194" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="5.5" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="17.5" style="1" customWidth="1"/>
-    <col min="8197" max="8446" width="11.5" style="1"/>
-    <col min="8447" max="8447" width="7.5" style="1" customWidth="1"/>
-    <col min="8448" max="8448" width="27.83203125" style="1" customWidth="1"/>
-    <col min="8449" max="8449" width="9.83203125" style="1" customWidth="1"/>
-    <col min="8450" max="8450" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="5.5" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="17.5" style="1" customWidth="1"/>
-    <col min="8453" max="8702" width="11.5" style="1"/>
-    <col min="8703" max="8703" width="7.5" style="1" customWidth="1"/>
-    <col min="8704" max="8704" width="27.83203125" style="1" customWidth="1"/>
-    <col min="8705" max="8705" width="9.83203125" style="1" customWidth="1"/>
-    <col min="8706" max="8706" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="5.5" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="17.5" style="1" customWidth="1"/>
-    <col min="8709" max="8958" width="11.5" style="1"/>
-    <col min="8959" max="8959" width="7.5" style="1" customWidth="1"/>
-    <col min="8960" max="8960" width="27.83203125" style="1" customWidth="1"/>
-    <col min="8961" max="8961" width="9.83203125" style="1" customWidth="1"/>
-    <col min="8962" max="8962" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="5.5" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="17.5" style="1" customWidth="1"/>
-    <col min="8965" max="9214" width="11.5" style="1"/>
-    <col min="9215" max="9215" width="7.5" style="1" customWidth="1"/>
-    <col min="9216" max="9216" width="27.83203125" style="1" customWidth="1"/>
-    <col min="9217" max="9217" width="9.83203125" style="1" customWidth="1"/>
-    <col min="9218" max="9218" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="5.5" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="17.5" style="1" customWidth="1"/>
-    <col min="9221" max="9470" width="11.5" style="1"/>
-    <col min="9471" max="9471" width="7.5" style="1" customWidth="1"/>
-    <col min="9472" max="9472" width="27.83203125" style="1" customWidth="1"/>
-    <col min="9473" max="9473" width="9.83203125" style="1" customWidth="1"/>
-    <col min="9474" max="9474" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="5.5" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="17.5" style="1" customWidth="1"/>
-    <col min="9477" max="9726" width="11.5" style="1"/>
-    <col min="9727" max="9727" width="7.5" style="1" customWidth="1"/>
-    <col min="9728" max="9728" width="27.83203125" style="1" customWidth="1"/>
-    <col min="9729" max="9729" width="9.83203125" style="1" customWidth="1"/>
-    <col min="9730" max="9730" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="5.5" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="17.5" style="1" customWidth="1"/>
-    <col min="9733" max="9982" width="11.5" style="1"/>
-    <col min="9983" max="9983" width="7.5" style="1" customWidth="1"/>
-    <col min="9984" max="9984" width="27.83203125" style="1" customWidth="1"/>
-    <col min="9985" max="9985" width="9.83203125" style="1" customWidth="1"/>
-    <col min="9986" max="9986" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="5.5" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="17.5" style="1" customWidth="1"/>
-    <col min="9989" max="10238" width="11.5" style="1"/>
-    <col min="10239" max="10239" width="7.5" style="1" customWidth="1"/>
-    <col min="10240" max="10240" width="27.83203125" style="1" customWidth="1"/>
-    <col min="10241" max="10241" width="9.83203125" style="1" customWidth="1"/>
-    <col min="10242" max="10242" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="5.5" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="17.5" style="1" customWidth="1"/>
-    <col min="10245" max="10494" width="11.5" style="1"/>
-    <col min="10495" max="10495" width="7.5" style="1" customWidth="1"/>
-    <col min="10496" max="10496" width="27.83203125" style="1" customWidth="1"/>
-    <col min="10497" max="10497" width="9.83203125" style="1" customWidth="1"/>
-    <col min="10498" max="10498" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="5.5" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="17.5" style="1" customWidth="1"/>
-    <col min="10501" max="10750" width="11.5" style="1"/>
-    <col min="10751" max="10751" width="7.5" style="1" customWidth="1"/>
-    <col min="10752" max="10752" width="27.83203125" style="1" customWidth="1"/>
-    <col min="10753" max="10753" width="9.83203125" style="1" customWidth="1"/>
-    <col min="10754" max="10754" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="5.5" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="17.5" style="1" customWidth="1"/>
-    <col min="10757" max="11006" width="11.5" style="1"/>
-    <col min="11007" max="11007" width="7.5" style="1" customWidth="1"/>
-    <col min="11008" max="11008" width="27.83203125" style="1" customWidth="1"/>
-    <col min="11009" max="11009" width="9.83203125" style="1" customWidth="1"/>
-    <col min="11010" max="11010" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="5.5" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="17.5" style="1" customWidth="1"/>
-    <col min="11013" max="11262" width="11.5" style="1"/>
-    <col min="11263" max="11263" width="7.5" style="1" customWidth="1"/>
-    <col min="11264" max="11264" width="27.83203125" style="1" customWidth="1"/>
-    <col min="11265" max="11265" width="9.83203125" style="1" customWidth="1"/>
-    <col min="11266" max="11266" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="5.5" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="17.5" style="1" customWidth="1"/>
-    <col min="11269" max="11518" width="11.5" style="1"/>
-    <col min="11519" max="11519" width="7.5" style="1" customWidth="1"/>
-    <col min="11520" max="11520" width="27.83203125" style="1" customWidth="1"/>
-    <col min="11521" max="11521" width="9.83203125" style="1" customWidth="1"/>
-    <col min="11522" max="11522" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="5.5" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="17.5" style="1" customWidth="1"/>
-    <col min="11525" max="11774" width="11.5" style="1"/>
-    <col min="11775" max="11775" width="7.5" style="1" customWidth="1"/>
-    <col min="11776" max="11776" width="27.83203125" style="1" customWidth="1"/>
-    <col min="11777" max="11777" width="9.83203125" style="1" customWidth="1"/>
-    <col min="11778" max="11778" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="5.5" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="17.5" style="1" customWidth="1"/>
-    <col min="11781" max="12030" width="11.5" style="1"/>
-    <col min="12031" max="12031" width="7.5" style="1" customWidth="1"/>
-    <col min="12032" max="12032" width="27.83203125" style="1" customWidth="1"/>
-    <col min="12033" max="12033" width="9.83203125" style="1" customWidth="1"/>
-    <col min="12034" max="12034" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="5.5" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="17.5" style="1" customWidth="1"/>
-    <col min="12037" max="12286" width="11.5" style="1"/>
-    <col min="12287" max="12287" width="7.5" style="1" customWidth="1"/>
-    <col min="12288" max="12288" width="27.83203125" style="1" customWidth="1"/>
-    <col min="12289" max="12289" width="9.83203125" style="1" customWidth="1"/>
-    <col min="12290" max="12290" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="5.5" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="17.5" style="1" customWidth="1"/>
-    <col min="12293" max="12542" width="11.5" style="1"/>
-    <col min="12543" max="12543" width="7.5" style="1" customWidth="1"/>
-    <col min="12544" max="12544" width="27.83203125" style="1" customWidth="1"/>
-    <col min="12545" max="12545" width="9.83203125" style="1" customWidth="1"/>
-    <col min="12546" max="12546" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="5.5" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="17.5" style="1" customWidth="1"/>
-    <col min="12549" max="12798" width="11.5" style="1"/>
-    <col min="12799" max="12799" width="7.5" style="1" customWidth="1"/>
-    <col min="12800" max="12800" width="27.83203125" style="1" customWidth="1"/>
-    <col min="12801" max="12801" width="9.83203125" style="1" customWidth="1"/>
-    <col min="12802" max="12802" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="5.5" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="17.5" style="1" customWidth="1"/>
-    <col min="12805" max="13054" width="11.5" style="1"/>
-    <col min="13055" max="13055" width="7.5" style="1" customWidth="1"/>
-    <col min="13056" max="13056" width="27.83203125" style="1" customWidth="1"/>
-    <col min="13057" max="13057" width="9.83203125" style="1" customWidth="1"/>
-    <col min="13058" max="13058" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="5.5" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="17.5" style="1" customWidth="1"/>
-    <col min="13061" max="13310" width="11.5" style="1"/>
-    <col min="13311" max="13311" width="7.5" style="1" customWidth="1"/>
-    <col min="13312" max="13312" width="27.83203125" style="1" customWidth="1"/>
-    <col min="13313" max="13313" width="9.83203125" style="1" customWidth="1"/>
-    <col min="13314" max="13314" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="5.5" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="17.5" style="1" customWidth="1"/>
-    <col min="13317" max="13566" width="11.5" style="1"/>
-    <col min="13567" max="13567" width="7.5" style="1" customWidth="1"/>
-    <col min="13568" max="13568" width="27.83203125" style="1" customWidth="1"/>
-    <col min="13569" max="13569" width="9.83203125" style="1" customWidth="1"/>
-    <col min="13570" max="13570" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="5.5" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="17.5" style="1" customWidth="1"/>
-    <col min="13573" max="13822" width="11.5" style="1"/>
-    <col min="13823" max="13823" width="7.5" style="1" customWidth="1"/>
-    <col min="13824" max="13824" width="27.83203125" style="1" customWidth="1"/>
-    <col min="13825" max="13825" width="9.83203125" style="1" customWidth="1"/>
-    <col min="13826" max="13826" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="5.5" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="17.5" style="1" customWidth="1"/>
-    <col min="13829" max="14078" width="11.5" style="1"/>
-    <col min="14079" max="14079" width="7.5" style="1" customWidth="1"/>
-    <col min="14080" max="14080" width="27.83203125" style="1" customWidth="1"/>
-    <col min="14081" max="14081" width="9.83203125" style="1" customWidth="1"/>
-    <col min="14082" max="14082" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="5.5" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="17.5" style="1" customWidth="1"/>
-    <col min="14085" max="14334" width="11.5" style="1"/>
-    <col min="14335" max="14335" width="7.5" style="1" customWidth="1"/>
-    <col min="14336" max="14336" width="27.83203125" style="1" customWidth="1"/>
-    <col min="14337" max="14337" width="9.83203125" style="1" customWidth="1"/>
-    <col min="14338" max="14338" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="5.5" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="17.5" style="1" customWidth="1"/>
-    <col min="14341" max="14590" width="11.5" style="1"/>
-    <col min="14591" max="14591" width="7.5" style="1" customWidth="1"/>
-    <col min="14592" max="14592" width="27.83203125" style="1" customWidth="1"/>
-    <col min="14593" max="14593" width="9.83203125" style="1" customWidth="1"/>
-    <col min="14594" max="14594" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="5.5" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="17.5" style="1" customWidth="1"/>
-    <col min="14597" max="14846" width="11.5" style="1"/>
-    <col min="14847" max="14847" width="7.5" style="1" customWidth="1"/>
-    <col min="14848" max="14848" width="27.83203125" style="1" customWidth="1"/>
-    <col min="14849" max="14849" width="9.83203125" style="1" customWidth="1"/>
-    <col min="14850" max="14850" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="5.5" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="17.5" style="1" customWidth="1"/>
-    <col min="14853" max="15102" width="11.5" style="1"/>
-    <col min="15103" max="15103" width="7.5" style="1" customWidth="1"/>
-    <col min="15104" max="15104" width="27.83203125" style="1" customWidth="1"/>
-    <col min="15105" max="15105" width="9.83203125" style="1" customWidth="1"/>
-    <col min="15106" max="15106" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="5.5" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="17.5" style="1" customWidth="1"/>
-    <col min="15109" max="15358" width="11.5" style="1"/>
-    <col min="15359" max="15359" width="7.5" style="1" customWidth="1"/>
-    <col min="15360" max="15360" width="27.83203125" style="1" customWidth="1"/>
-    <col min="15361" max="15361" width="9.83203125" style="1" customWidth="1"/>
-    <col min="15362" max="15362" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="5.5" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="17.5" style="1" customWidth="1"/>
-    <col min="15365" max="15614" width="11.5" style="1"/>
-    <col min="15615" max="15615" width="7.5" style="1" customWidth="1"/>
-    <col min="15616" max="15616" width="27.83203125" style="1" customWidth="1"/>
-    <col min="15617" max="15617" width="9.83203125" style="1" customWidth="1"/>
-    <col min="15618" max="15618" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="5.5" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="17.5" style="1" customWidth="1"/>
-    <col min="15621" max="15870" width="11.5" style="1"/>
-    <col min="15871" max="15871" width="7.5" style="1" customWidth="1"/>
-    <col min="15872" max="15872" width="27.83203125" style="1" customWidth="1"/>
-    <col min="15873" max="15873" width="9.83203125" style="1" customWidth="1"/>
-    <col min="15874" max="15874" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="5.5" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="17.5" style="1" customWidth="1"/>
-    <col min="15877" max="16126" width="11.5" style="1"/>
-    <col min="16127" max="16127" width="7.5" style="1" customWidth="1"/>
-    <col min="16128" max="16128" width="27.83203125" style="1" customWidth="1"/>
-    <col min="16129" max="16129" width="9.83203125" style="1" customWidth="1"/>
-    <col min="16130" max="16130" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="5.5" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="17.5" style="1" customWidth="1"/>
-    <col min="16133" max="16384" width="11.5" style="1"/>
+    <col min="6" max="6" width="4.68359375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.68359375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.47265625" style="1"/>
+    <col min="9" max="9" width="17.15625" style="1" customWidth="1"/>
+    <col min="10" max="254" width="11.47265625" style="1"/>
+    <col min="255" max="255" width="7.47265625" style="1" customWidth="1"/>
+    <col min="256" max="256" width="27.83984375" style="1" customWidth="1"/>
+    <col min="257" max="257" width="9.83984375" style="1" customWidth="1"/>
+    <col min="258" max="258" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="5.47265625" style="1" customWidth="1"/>
+    <col min="260" max="260" width="17.47265625" style="1" customWidth="1"/>
+    <col min="261" max="510" width="11.47265625" style="1"/>
+    <col min="511" max="511" width="7.47265625" style="1" customWidth="1"/>
+    <col min="512" max="512" width="27.83984375" style="1" customWidth="1"/>
+    <col min="513" max="513" width="9.83984375" style="1" customWidth="1"/>
+    <col min="514" max="514" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="5.47265625" style="1" customWidth="1"/>
+    <col min="516" max="516" width="17.47265625" style="1" customWidth="1"/>
+    <col min="517" max="766" width="11.47265625" style="1"/>
+    <col min="767" max="767" width="7.47265625" style="1" customWidth="1"/>
+    <col min="768" max="768" width="27.83984375" style="1" customWidth="1"/>
+    <col min="769" max="769" width="9.83984375" style="1" customWidth="1"/>
+    <col min="770" max="770" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="5.47265625" style="1" customWidth="1"/>
+    <col min="772" max="772" width="17.47265625" style="1" customWidth="1"/>
+    <col min="773" max="1022" width="11.47265625" style="1"/>
+    <col min="1023" max="1023" width="7.47265625" style="1" customWidth="1"/>
+    <col min="1024" max="1024" width="27.83984375" style="1" customWidth="1"/>
+    <col min="1025" max="1025" width="9.83984375" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="5.47265625" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="17.47265625" style="1" customWidth="1"/>
+    <col min="1029" max="1278" width="11.47265625" style="1"/>
+    <col min="1279" max="1279" width="7.47265625" style="1" customWidth="1"/>
+    <col min="1280" max="1280" width="27.83984375" style="1" customWidth="1"/>
+    <col min="1281" max="1281" width="9.83984375" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="5.47265625" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="17.47265625" style="1" customWidth="1"/>
+    <col min="1285" max="1534" width="11.47265625" style="1"/>
+    <col min="1535" max="1535" width="7.47265625" style="1" customWidth="1"/>
+    <col min="1536" max="1536" width="27.83984375" style="1" customWidth="1"/>
+    <col min="1537" max="1537" width="9.83984375" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="5.47265625" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="17.47265625" style="1" customWidth="1"/>
+    <col min="1541" max="1790" width="11.47265625" style="1"/>
+    <col min="1791" max="1791" width="7.47265625" style="1" customWidth="1"/>
+    <col min="1792" max="1792" width="27.83984375" style="1" customWidth="1"/>
+    <col min="1793" max="1793" width="9.83984375" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="5.47265625" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="17.47265625" style="1" customWidth="1"/>
+    <col min="1797" max="2046" width="11.47265625" style="1"/>
+    <col min="2047" max="2047" width="7.47265625" style="1" customWidth="1"/>
+    <col min="2048" max="2048" width="27.83984375" style="1" customWidth="1"/>
+    <col min="2049" max="2049" width="9.83984375" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="5.47265625" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="17.47265625" style="1" customWidth="1"/>
+    <col min="2053" max="2302" width="11.47265625" style="1"/>
+    <col min="2303" max="2303" width="7.47265625" style="1" customWidth="1"/>
+    <col min="2304" max="2304" width="27.83984375" style="1" customWidth="1"/>
+    <col min="2305" max="2305" width="9.83984375" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="5.47265625" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="17.47265625" style="1" customWidth="1"/>
+    <col min="2309" max="2558" width="11.47265625" style="1"/>
+    <col min="2559" max="2559" width="7.47265625" style="1" customWidth="1"/>
+    <col min="2560" max="2560" width="27.83984375" style="1" customWidth="1"/>
+    <col min="2561" max="2561" width="9.83984375" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="5.47265625" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="17.47265625" style="1" customWidth="1"/>
+    <col min="2565" max="2814" width="11.47265625" style="1"/>
+    <col min="2815" max="2815" width="7.47265625" style="1" customWidth="1"/>
+    <col min="2816" max="2816" width="27.83984375" style="1" customWidth="1"/>
+    <col min="2817" max="2817" width="9.83984375" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="5.47265625" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="17.47265625" style="1" customWidth="1"/>
+    <col min="2821" max="3070" width="11.47265625" style="1"/>
+    <col min="3071" max="3071" width="7.47265625" style="1" customWidth="1"/>
+    <col min="3072" max="3072" width="27.83984375" style="1" customWidth="1"/>
+    <col min="3073" max="3073" width="9.83984375" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="5.47265625" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="17.47265625" style="1" customWidth="1"/>
+    <col min="3077" max="3326" width="11.47265625" style="1"/>
+    <col min="3327" max="3327" width="7.47265625" style="1" customWidth="1"/>
+    <col min="3328" max="3328" width="27.83984375" style="1" customWidth="1"/>
+    <col min="3329" max="3329" width="9.83984375" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="5.47265625" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="17.47265625" style="1" customWidth="1"/>
+    <col min="3333" max="3582" width="11.47265625" style="1"/>
+    <col min="3583" max="3583" width="7.47265625" style="1" customWidth="1"/>
+    <col min="3584" max="3584" width="27.83984375" style="1" customWidth="1"/>
+    <col min="3585" max="3585" width="9.83984375" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="5.47265625" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="17.47265625" style="1" customWidth="1"/>
+    <col min="3589" max="3838" width="11.47265625" style="1"/>
+    <col min="3839" max="3839" width="7.47265625" style="1" customWidth="1"/>
+    <col min="3840" max="3840" width="27.83984375" style="1" customWidth="1"/>
+    <col min="3841" max="3841" width="9.83984375" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="5.47265625" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="17.47265625" style="1" customWidth="1"/>
+    <col min="3845" max="4094" width="11.47265625" style="1"/>
+    <col min="4095" max="4095" width="7.47265625" style="1" customWidth="1"/>
+    <col min="4096" max="4096" width="27.83984375" style="1" customWidth="1"/>
+    <col min="4097" max="4097" width="9.83984375" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="5.47265625" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="17.47265625" style="1" customWidth="1"/>
+    <col min="4101" max="4350" width="11.47265625" style="1"/>
+    <col min="4351" max="4351" width="7.47265625" style="1" customWidth="1"/>
+    <col min="4352" max="4352" width="27.83984375" style="1" customWidth="1"/>
+    <col min="4353" max="4353" width="9.83984375" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="5.47265625" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="17.47265625" style="1" customWidth="1"/>
+    <col min="4357" max="4606" width="11.47265625" style="1"/>
+    <col min="4607" max="4607" width="7.47265625" style="1" customWidth="1"/>
+    <col min="4608" max="4608" width="27.83984375" style="1" customWidth="1"/>
+    <col min="4609" max="4609" width="9.83984375" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="5.47265625" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="17.47265625" style="1" customWidth="1"/>
+    <col min="4613" max="4862" width="11.47265625" style="1"/>
+    <col min="4863" max="4863" width="7.47265625" style="1" customWidth="1"/>
+    <col min="4864" max="4864" width="27.83984375" style="1" customWidth="1"/>
+    <col min="4865" max="4865" width="9.83984375" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="5.47265625" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="17.47265625" style="1" customWidth="1"/>
+    <col min="4869" max="5118" width="11.47265625" style="1"/>
+    <col min="5119" max="5119" width="7.47265625" style="1" customWidth="1"/>
+    <col min="5120" max="5120" width="27.83984375" style="1" customWidth="1"/>
+    <col min="5121" max="5121" width="9.83984375" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="5.47265625" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="17.47265625" style="1" customWidth="1"/>
+    <col min="5125" max="5374" width="11.47265625" style="1"/>
+    <col min="5375" max="5375" width="7.47265625" style="1" customWidth="1"/>
+    <col min="5376" max="5376" width="27.83984375" style="1" customWidth="1"/>
+    <col min="5377" max="5377" width="9.83984375" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="5.47265625" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="17.47265625" style="1" customWidth="1"/>
+    <col min="5381" max="5630" width="11.47265625" style="1"/>
+    <col min="5631" max="5631" width="7.47265625" style="1" customWidth="1"/>
+    <col min="5632" max="5632" width="27.83984375" style="1" customWidth="1"/>
+    <col min="5633" max="5633" width="9.83984375" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="5.47265625" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="17.47265625" style="1" customWidth="1"/>
+    <col min="5637" max="5886" width="11.47265625" style="1"/>
+    <col min="5887" max="5887" width="7.47265625" style="1" customWidth="1"/>
+    <col min="5888" max="5888" width="27.83984375" style="1" customWidth="1"/>
+    <col min="5889" max="5889" width="9.83984375" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="5.47265625" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="17.47265625" style="1" customWidth="1"/>
+    <col min="5893" max="6142" width="11.47265625" style="1"/>
+    <col min="6143" max="6143" width="7.47265625" style="1" customWidth="1"/>
+    <col min="6144" max="6144" width="27.83984375" style="1" customWidth="1"/>
+    <col min="6145" max="6145" width="9.83984375" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="5.47265625" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="17.47265625" style="1" customWidth="1"/>
+    <col min="6149" max="6398" width="11.47265625" style="1"/>
+    <col min="6399" max="6399" width="7.47265625" style="1" customWidth="1"/>
+    <col min="6400" max="6400" width="27.83984375" style="1" customWidth="1"/>
+    <col min="6401" max="6401" width="9.83984375" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="5.47265625" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="17.47265625" style="1" customWidth="1"/>
+    <col min="6405" max="6654" width="11.47265625" style="1"/>
+    <col min="6655" max="6655" width="7.47265625" style="1" customWidth="1"/>
+    <col min="6656" max="6656" width="27.83984375" style="1" customWidth="1"/>
+    <col min="6657" max="6657" width="9.83984375" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="5.47265625" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="17.47265625" style="1" customWidth="1"/>
+    <col min="6661" max="6910" width="11.47265625" style="1"/>
+    <col min="6911" max="6911" width="7.47265625" style="1" customWidth="1"/>
+    <col min="6912" max="6912" width="27.83984375" style="1" customWidth="1"/>
+    <col min="6913" max="6913" width="9.83984375" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="5.47265625" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="17.47265625" style="1" customWidth="1"/>
+    <col min="6917" max="7166" width="11.47265625" style="1"/>
+    <col min="7167" max="7167" width="7.47265625" style="1" customWidth="1"/>
+    <col min="7168" max="7168" width="27.83984375" style="1" customWidth="1"/>
+    <col min="7169" max="7169" width="9.83984375" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="5.47265625" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="17.47265625" style="1" customWidth="1"/>
+    <col min="7173" max="7422" width="11.47265625" style="1"/>
+    <col min="7423" max="7423" width="7.47265625" style="1" customWidth="1"/>
+    <col min="7424" max="7424" width="27.83984375" style="1" customWidth="1"/>
+    <col min="7425" max="7425" width="9.83984375" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="5.47265625" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="17.47265625" style="1" customWidth="1"/>
+    <col min="7429" max="7678" width="11.47265625" style="1"/>
+    <col min="7679" max="7679" width="7.47265625" style="1" customWidth="1"/>
+    <col min="7680" max="7680" width="27.83984375" style="1" customWidth="1"/>
+    <col min="7681" max="7681" width="9.83984375" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="5.47265625" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="17.47265625" style="1" customWidth="1"/>
+    <col min="7685" max="7934" width="11.47265625" style="1"/>
+    <col min="7935" max="7935" width="7.47265625" style="1" customWidth="1"/>
+    <col min="7936" max="7936" width="27.83984375" style="1" customWidth="1"/>
+    <col min="7937" max="7937" width="9.83984375" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="5.47265625" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="17.47265625" style="1" customWidth="1"/>
+    <col min="7941" max="8190" width="11.47265625" style="1"/>
+    <col min="8191" max="8191" width="7.47265625" style="1" customWidth="1"/>
+    <col min="8192" max="8192" width="27.83984375" style="1" customWidth="1"/>
+    <col min="8193" max="8193" width="9.83984375" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="5.47265625" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="17.47265625" style="1" customWidth="1"/>
+    <col min="8197" max="8446" width="11.47265625" style="1"/>
+    <col min="8447" max="8447" width="7.47265625" style="1" customWidth="1"/>
+    <col min="8448" max="8448" width="27.83984375" style="1" customWidth="1"/>
+    <col min="8449" max="8449" width="9.83984375" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="5.47265625" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="17.47265625" style="1" customWidth="1"/>
+    <col min="8453" max="8702" width="11.47265625" style="1"/>
+    <col min="8703" max="8703" width="7.47265625" style="1" customWidth="1"/>
+    <col min="8704" max="8704" width="27.83984375" style="1" customWidth="1"/>
+    <col min="8705" max="8705" width="9.83984375" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="5.47265625" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="17.47265625" style="1" customWidth="1"/>
+    <col min="8709" max="8958" width="11.47265625" style="1"/>
+    <col min="8959" max="8959" width="7.47265625" style="1" customWidth="1"/>
+    <col min="8960" max="8960" width="27.83984375" style="1" customWidth="1"/>
+    <col min="8961" max="8961" width="9.83984375" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="5.47265625" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="17.47265625" style="1" customWidth="1"/>
+    <col min="8965" max="9214" width="11.47265625" style="1"/>
+    <col min="9215" max="9215" width="7.47265625" style="1" customWidth="1"/>
+    <col min="9216" max="9216" width="27.83984375" style="1" customWidth="1"/>
+    <col min="9217" max="9217" width="9.83984375" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="5.47265625" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="17.47265625" style="1" customWidth="1"/>
+    <col min="9221" max="9470" width="11.47265625" style="1"/>
+    <col min="9471" max="9471" width="7.47265625" style="1" customWidth="1"/>
+    <col min="9472" max="9472" width="27.83984375" style="1" customWidth="1"/>
+    <col min="9473" max="9473" width="9.83984375" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="5.47265625" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="17.47265625" style="1" customWidth="1"/>
+    <col min="9477" max="9726" width="11.47265625" style="1"/>
+    <col min="9727" max="9727" width="7.47265625" style="1" customWidth="1"/>
+    <col min="9728" max="9728" width="27.83984375" style="1" customWidth="1"/>
+    <col min="9729" max="9729" width="9.83984375" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="5.47265625" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="17.47265625" style="1" customWidth="1"/>
+    <col min="9733" max="9982" width="11.47265625" style="1"/>
+    <col min="9983" max="9983" width="7.47265625" style="1" customWidth="1"/>
+    <col min="9984" max="9984" width="27.83984375" style="1" customWidth="1"/>
+    <col min="9985" max="9985" width="9.83984375" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="5.47265625" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="17.47265625" style="1" customWidth="1"/>
+    <col min="9989" max="10238" width="11.47265625" style="1"/>
+    <col min="10239" max="10239" width="7.47265625" style="1" customWidth="1"/>
+    <col min="10240" max="10240" width="27.83984375" style="1" customWidth="1"/>
+    <col min="10241" max="10241" width="9.83984375" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="5.47265625" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="17.47265625" style="1" customWidth="1"/>
+    <col min="10245" max="10494" width="11.47265625" style="1"/>
+    <col min="10495" max="10495" width="7.47265625" style="1" customWidth="1"/>
+    <col min="10496" max="10496" width="27.83984375" style="1" customWidth="1"/>
+    <col min="10497" max="10497" width="9.83984375" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="5.47265625" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="17.47265625" style="1" customWidth="1"/>
+    <col min="10501" max="10750" width="11.47265625" style="1"/>
+    <col min="10751" max="10751" width="7.47265625" style="1" customWidth="1"/>
+    <col min="10752" max="10752" width="27.83984375" style="1" customWidth="1"/>
+    <col min="10753" max="10753" width="9.83984375" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="5.47265625" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="17.47265625" style="1" customWidth="1"/>
+    <col min="10757" max="11006" width="11.47265625" style="1"/>
+    <col min="11007" max="11007" width="7.47265625" style="1" customWidth="1"/>
+    <col min="11008" max="11008" width="27.83984375" style="1" customWidth="1"/>
+    <col min="11009" max="11009" width="9.83984375" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="5.47265625" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="17.47265625" style="1" customWidth="1"/>
+    <col min="11013" max="11262" width="11.47265625" style="1"/>
+    <col min="11263" max="11263" width="7.47265625" style="1" customWidth="1"/>
+    <col min="11264" max="11264" width="27.83984375" style="1" customWidth="1"/>
+    <col min="11265" max="11265" width="9.83984375" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="5.47265625" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="17.47265625" style="1" customWidth="1"/>
+    <col min="11269" max="11518" width="11.47265625" style="1"/>
+    <col min="11519" max="11519" width="7.47265625" style="1" customWidth="1"/>
+    <col min="11520" max="11520" width="27.83984375" style="1" customWidth="1"/>
+    <col min="11521" max="11521" width="9.83984375" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="5.47265625" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="17.47265625" style="1" customWidth="1"/>
+    <col min="11525" max="11774" width="11.47265625" style="1"/>
+    <col min="11775" max="11775" width="7.47265625" style="1" customWidth="1"/>
+    <col min="11776" max="11776" width="27.83984375" style="1" customWidth="1"/>
+    <col min="11777" max="11777" width="9.83984375" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="5.47265625" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="17.47265625" style="1" customWidth="1"/>
+    <col min="11781" max="12030" width="11.47265625" style="1"/>
+    <col min="12031" max="12031" width="7.47265625" style="1" customWidth="1"/>
+    <col min="12032" max="12032" width="27.83984375" style="1" customWidth="1"/>
+    <col min="12033" max="12033" width="9.83984375" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="5.47265625" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="17.47265625" style="1" customWidth="1"/>
+    <col min="12037" max="12286" width="11.47265625" style="1"/>
+    <col min="12287" max="12287" width="7.47265625" style="1" customWidth="1"/>
+    <col min="12288" max="12288" width="27.83984375" style="1" customWidth="1"/>
+    <col min="12289" max="12289" width="9.83984375" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="5.47265625" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="17.47265625" style="1" customWidth="1"/>
+    <col min="12293" max="12542" width="11.47265625" style="1"/>
+    <col min="12543" max="12543" width="7.47265625" style="1" customWidth="1"/>
+    <col min="12544" max="12544" width="27.83984375" style="1" customWidth="1"/>
+    <col min="12545" max="12545" width="9.83984375" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="5.47265625" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="17.47265625" style="1" customWidth="1"/>
+    <col min="12549" max="12798" width="11.47265625" style="1"/>
+    <col min="12799" max="12799" width="7.47265625" style="1" customWidth="1"/>
+    <col min="12800" max="12800" width="27.83984375" style="1" customWidth="1"/>
+    <col min="12801" max="12801" width="9.83984375" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="5.47265625" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="17.47265625" style="1" customWidth="1"/>
+    <col min="12805" max="13054" width="11.47265625" style="1"/>
+    <col min="13055" max="13055" width="7.47265625" style="1" customWidth="1"/>
+    <col min="13056" max="13056" width="27.83984375" style="1" customWidth="1"/>
+    <col min="13057" max="13057" width="9.83984375" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="5.47265625" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="17.47265625" style="1" customWidth="1"/>
+    <col min="13061" max="13310" width="11.47265625" style="1"/>
+    <col min="13311" max="13311" width="7.47265625" style="1" customWidth="1"/>
+    <col min="13312" max="13312" width="27.83984375" style="1" customWidth="1"/>
+    <col min="13313" max="13313" width="9.83984375" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="5.47265625" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="17.47265625" style="1" customWidth="1"/>
+    <col min="13317" max="13566" width="11.47265625" style="1"/>
+    <col min="13567" max="13567" width="7.47265625" style="1" customWidth="1"/>
+    <col min="13568" max="13568" width="27.83984375" style="1" customWidth="1"/>
+    <col min="13569" max="13569" width="9.83984375" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="5.47265625" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="17.47265625" style="1" customWidth="1"/>
+    <col min="13573" max="13822" width="11.47265625" style="1"/>
+    <col min="13823" max="13823" width="7.47265625" style="1" customWidth="1"/>
+    <col min="13824" max="13824" width="27.83984375" style="1" customWidth="1"/>
+    <col min="13825" max="13825" width="9.83984375" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="5.47265625" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="17.47265625" style="1" customWidth="1"/>
+    <col min="13829" max="14078" width="11.47265625" style="1"/>
+    <col min="14079" max="14079" width="7.47265625" style="1" customWidth="1"/>
+    <col min="14080" max="14080" width="27.83984375" style="1" customWidth="1"/>
+    <col min="14081" max="14081" width="9.83984375" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="5.47265625" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="17.47265625" style="1" customWidth="1"/>
+    <col min="14085" max="14334" width="11.47265625" style="1"/>
+    <col min="14335" max="14335" width="7.47265625" style="1" customWidth="1"/>
+    <col min="14336" max="14336" width="27.83984375" style="1" customWidth="1"/>
+    <col min="14337" max="14337" width="9.83984375" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="5.47265625" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="17.47265625" style="1" customWidth="1"/>
+    <col min="14341" max="14590" width="11.47265625" style="1"/>
+    <col min="14591" max="14591" width="7.47265625" style="1" customWidth="1"/>
+    <col min="14592" max="14592" width="27.83984375" style="1" customWidth="1"/>
+    <col min="14593" max="14593" width="9.83984375" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="5.47265625" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="17.47265625" style="1" customWidth="1"/>
+    <col min="14597" max="14846" width="11.47265625" style="1"/>
+    <col min="14847" max="14847" width="7.47265625" style="1" customWidth="1"/>
+    <col min="14848" max="14848" width="27.83984375" style="1" customWidth="1"/>
+    <col min="14849" max="14849" width="9.83984375" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="5.47265625" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="17.47265625" style="1" customWidth="1"/>
+    <col min="14853" max="15102" width="11.47265625" style="1"/>
+    <col min="15103" max="15103" width="7.47265625" style="1" customWidth="1"/>
+    <col min="15104" max="15104" width="27.83984375" style="1" customWidth="1"/>
+    <col min="15105" max="15105" width="9.83984375" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="5.47265625" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="17.47265625" style="1" customWidth="1"/>
+    <col min="15109" max="15358" width="11.47265625" style="1"/>
+    <col min="15359" max="15359" width="7.47265625" style="1" customWidth="1"/>
+    <col min="15360" max="15360" width="27.83984375" style="1" customWidth="1"/>
+    <col min="15361" max="15361" width="9.83984375" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="5.47265625" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="17.47265625" style="1" customWidth="1"/>
+    <col min="15365" max="15614" width="11.47265625" style="1"/>
+    <col min="15615" max="15615" width="7.47265625" style="1" customWidth="1"/>
+    <col min="15616" max="15616" width="27.83984375" style="1" customWidth="1"/>
+    <col min="15617" max="15617" width="9.83984375" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="5.47265625" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="17.47265625" style="1" customWidth="1"/>
+    <col min="15621" max="15870" width="11.47265625" style="1"/>
+    <col min="15871" max="15871" width="7.47265625" style="1" customWidth="1"/>
+    <col min="15872" max="15872" width="27.83984375" style="1" customWidth="1"/>
+    <col min="15873" max="15873" width="9.83984375" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="5.47265625" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="17.47265625" style="1" customWidth="1"/>
+    <col min="15877" max="16126" width="11.47265625" style="1"/>
+    <col min="16127" max="16127" width="7.47265625" style="1" customWidth="1"/>
+    <col min="16128" max="16128" width="27.83984375" style="1" customWidth="1"/>
+    <col min="16129" max="16129" width="9.83984375" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="11.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="5.47265625" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="17.47265625" style="1" customWidth="1"/>
+    <col min="16133" max="16384" width="11.47265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.1" x14ac:dyDescent="0.5">
       <c r="B2" s="18"/>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="56"/>
+      <c r="D2" s="58"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="56"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.1" x14ac:dyDescent="0.5">
       <c r="B3" s="19" t="s">
         <v>51</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B4" s="15" t="s">
         <v>52</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>109.2300865924601</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="15" t="s">
         <v>53</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>10.92300865924601</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>98.307077933214089</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B7" s="15" t="s">
         <v>12</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>1.9661415586642821</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B8" s="15" t="s">
         <v>14</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>96.340936374549813</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B10" s="15" t="s">
         <v>54</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>102.34093637454981</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>40.936374549819931</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B12" s="5" t="s">
         <v>55</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>143.27731092436974</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B13" s="5" t="s">
         <v>56</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>11.46218487394958</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>154.73949579831933</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>3.327731092436975</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B16" s="5" t="s">
         <v>57</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>8.3193277310924376</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="5" t="s">
         <v>58</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>166.38655462184875</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="5" t="s">
         <v>34</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>18.487394957983195</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="5" t="s">
         <v>59</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>184.87394957983193</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="5" t="s">
         <v>38</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>35.12605042016807</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21" s="5" t="s">
         <v>60</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>61</v>
       </c>
@@ -3637,24 +3637,24 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.47265625" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.5" style="26"/>
-    <col min="4" max="16384" width="11.5" style="1"/>
+    <col min="1" max="1" width="20.68359375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="11.47265625" style="26"/>
+    <col min="4" max="16384" width="11.47265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A1" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A2" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
       <c r="B3" s="27" t="s">
         <v>3</v>
@@ -3663,7 +3663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -3674,9 +3674,9 @@
         <f>B4</f>
         <v>30</v>
       </c>
-      <c r="D4" s="58"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D4" s="54"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -3697,9 +3697,9 @@
         <f>C4-C5</f>
         <v>24</v>
       </c>
-      <c r="D6" s="58"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D6" s="54"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3710,9 +3710,9 @@
         <f>C6*B7</f>
         <v>0.72</v>
       </c>
-      <c r="D7" s="58"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D7" s="54"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
@@ -3721,9 +3721,9 @@
         <f>C6-C7</f>
         <v>23.28</v>
       </c>
-      <c r="D8" s="58"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D8" s="54"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -3734,9 +3734,9 @@
         <f>B9</f>
         <v>3</v>
       </c>
-      <c r="D9" s="58"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D9" s="54"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -3744,9 +3744,9 @@
         <f>C8+C9</f>
         <v>26.28</v>
       </c>
-      <c r="D10" s="58"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D10" s="54"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -3757,9 +3757,9 @@
         <f>C10*B11</f>
         <v>11.826000000000001</v>
       </c>
-      <c r="D11" s="58"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D11" s="54"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -3768,9 +3768,9 @@
         <f>C10+C11</f>
         <v>38.106000000000002</v>
       </c>
-      <c r="D12" s="58"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D12" s="54"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
@@ -3781,9 +3781,9 @@
         <f>C14-C12</f>
         <v>6.3064999999999927</v>
       </c>
-      <c r="D13" s="58"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D13" s="54"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>44.412499999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -3804,9 +3804,9 @@
         <f>C17*B15</f>
         <v>0.93500000000000005</v>
       </c>
-      <c r="D15" s="58"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D15" s="54"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
@@ -3817,9 +3817,9 @@
         <f>C17*B16</f>
         <v>1.4024999999999999</v>
       </c>
-      <c r="D16" s="58"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D16" s="54"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>46.75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
@@ -3840,9 +3840,9 @@
         <f>C19*B18</f>
         <v>8.25</v>
       </c>
-      <c r="D18" s="58"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D18" s="54"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -3867,17 +3867,17 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.47265625" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.5" style="1"/>
+    <col min="1" max="1" width="29.3125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.47265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>66</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>48</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>70</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>213.75</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>73</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>1338.75</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>43</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -4077,7 +4077,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
@@ -4086,7 +4086,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>71</v>
       </c>
@@ -4095,7 +4095,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>72</v>
       </c>
@@ -4104,7 +4104,7 @@
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>73</v>
       </c>
@@ -4129,16 +4129,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.47265625" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1"/>
-    <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.5" style="1"/>
+    <col min="1" max="1" width="11.47265625" style="1"/>
+    <col min="2" max="2" width="16.68359375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.47265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.15625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.47265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -4179,17 +4179,17 @@
         <v>148.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="59">
+      <c r="B4" s="55">
         <v>28</v>
       </c>
       <c r="C4" s="36">
         <v>0.5</v>
       </c>
-      <c r="D4" s="59">
+      <c r="D4" s="55">
         <f>B4*C4+B4</f>
         <v>42</v>
       </c>
@@ -4207,277 +4207,277 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.47265625" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="108.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="256" width="11.5" style="1"/>
-    <col min="257" max="257" width="91.83203125" style="1" customWidth="1"/>
-    <col min="258" max="258" width="15.5" style="1" customWidth="1"/>
-    <col min="259" max="259" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="260" max="512" width="11.5" style="1"/>
-    <col min="513" max="513" width="91.83203125" style="1" customWidth="1"/>
-    <col min="514" max="514" width="15.5" style="1" customWidth="1"/>
-    <col min="515" max="515" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="516" max="768" width="11.5" style="1"/>
-    <col min="769" max="769" width="91.83203125" style="1" customWidth="1"/>
-    <col min="770" max="770" width="15.5" style="1" customWidth="1"/>
-    <col min="771" max="771" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="772" max="1024" width="11.5" style="1"/>
-    <col min="1025" max="1025" width="91.83203125" style="1" customWidth="1"/>
-    <col min="1026" max="1026" width="15.5" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1280" width="11.5" style="1"/>
-    <col min="1281" max="1281" width="91.83203125" style="1" customWidth="1"/>
-    <col min="1282" max="1282" width="15.5" style="1" customWidth="1"/>
-    <col min="1283" max="1283" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1536" width="11.5" style="1"/>
-    <col min="1537" max="1537" width="91.83203125" style="1" customWidth="1"/>
-    <col min="1538" max="1538" width="15.5" style="1" customWidth="1"/>
-    <col min="1539" max="1539" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1792" width="11.5" style="1"/>
-    <col min="1793" max="1793" width="91.83203125" style="1" customWidth="1"/>
-    <col min="1794" max="1794" width="15.5" style="1" customWidth="1"/>
-    <col min="1795" max="1795" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="1796" max="2048" width="11.5" style="1"/>
-    <col min="2049" max="2049" width="91.83203125" style="1" customWidth="1"/>
-    <col min="2050" max="2050" width="15.5" style="1" customWidth="1"/>
-    <col min="2051" max="2051" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2304" width="11.5" style="1"/>
-    <col min="2305" max="2305" width="91.83203125" style="1" customWidth="1"/>
-    <col min="2306" max="2306" width="15.5" style="1" customWidth="1"/>
-    <col min="2307" max="2307" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2560" width="11.5" style="1"/>
-    <col min="2561" max="2561" width="91.83203125" style="1" customWidth="1"/>
-    <col min="2562" max="2562" width="15.5" style="1" customWidth="1"/>
-    <col min="2563" max="2563" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2816" width="11.5" style="1"/>
-    <col min="2817" max="2817" width="91.83203125" style="1" customWidth="1"/>
-    <col min="2818" max="2818" width="15.5" style="1" customWidth="1"/>
-    <col min="2819" max="2819" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2820" max="3072" width="11.5" style="1"/>
-    <col min="3073" max="3073" width="91.83203125" style="1" customWidth="1"/>
-    <col min="3074" max="3074" width="15.5" style="1" customWidth="1"/>
-    <col min="3075" max="3075" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3328" width="11.5" style="1"/>
-    <col min="3329" max="3329" width="91.83203125" style="1" customWidth="1"/>
-    <col min="3330" max="3330" width="15.5" style="1" customWidth="1"/>
-    <col min="3331" max="3331" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3584" width="11.5" style="1"/>
-    <col min="3585" max="3585" width="91.83203125" style="1" customWidth="1"/>
-    <col min="3586" max="3586" width="15.5" style="1" customWidth="1"/>
-    <col min="3587" max="3587" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3840" width="11.5" style="1"/>
-    <col min="3841" max="3841" width="91.83203125" style="1" customWidth="1"/>
-    <col min="3842" max="3842" width="15.5" style="1" customWidth="1"/>
-    <col min="3843" max="3843" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3844" max="4096" width="11.5" style="1"/>
-    <col min="4097" max="4097" width="91.83203125" style="1" customWidth="1"/>
-    <col min="4098" max="4098" width="15.5" style="1" customWidth="1"/>
-    <col min="4099" max="4099" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4352" width="11.5" style="1"/>
-    <col min="4353" max="4353" width="91.83203125" style="1" customWidth="1"/>
-    <col min="4354" max="4354" width="15.5" style="1" customWidth="1"/>
-    <col min="4355" max="4355" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4608" width="11.5" style="1"/>
-    <col min="4609" max="4609" width="91.83203125" style="1" customWidth="1"/>
-    <col min="4610" max="4610" width="15.5" style="1" customWidth="1"/>
-    <col min="4611" max="4611" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4864" width="11.5" style="1"/>
-    <col min="4865" max="4865" width="91.83203125" style="1" customWidth="1"/>
-    <col min="4866" max="4866" width="15.5" style="1" customWidth="1"/>
-    <col min="4867" max="4867" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4868" max="5120" width="11.5" style="1"/>
-    <col min="5121" max="5121" width="91.83203125" style="1" customWidth="1"/>
-    <col min="5122" max="5122" width="15.5" style="1" customWidth="1"/>
-    <col min="5123" max="5123" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5376" width="11.5" style="1"/>
-    <col min="5377" max="5377" width="91.83203125" style="1" customWidth="1"/>
-    <col min="5378" max="5378" width="15.5" style="1" customWidth="1"/>
-    <col min="5379" max="5379" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5632" width="11.5" style="1"/>
-    <col min="5633" max="5633" width="91.83203125" style="1" customWidth="1"/>
-    <col min="5634" max="5634" width="15.5" style="1" customWidth="1"/>
-    <col min="5635" max="5635" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5888" width="11.5" style="1"/>
-    <col min="5889" max="5889" width="91.83203125" style="1" customWidth="1"/>
-    <col min="5890" max="5890" width="15.5" style="1" customWidth="1"/>
-    <col min="5891" max="5891" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5892" max="6144" width="11.5" style="1"/>
-    <col min="6145" max="6145" width="91.83203125" style="1" customWidth="1"/>
-    <col min="6146" max="6146" width="15.5" style="1" customWidth="1"/>
-    <col min="6147" max="6147" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6400" width="11.5" style="1"/>
-    <col min="6401" max="6401" width="91.83203125" style="1" customWidth="1"/>
-    <col min="6402" max="6402" width="15.5" style="1" customWidth="1"/>
-    <col min="6403" max="6403" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6656" width="11.5" style="1"/>
-    <col min="6657" max="6657" width="91.83203125" style="1" customWidth="1"/>
-    <col min="6658" max="6658" width="15.5" style="1" customWidth="1"/>
-    <col min="6659" max="6659" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6912" width="11.5" style="1"/>
-    <col min="6913" max="6913" width="91.83203125" style="1" customWidth="1"/>
-    <col min="6914" max="6914" width="15.5" style="1" customWidth="1"/>
-    <col min="6915" max="6915" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6916" max="7168" width="11.5" style="1"/>
-    <col min="7169" max="7169" width="91.83203125" style="1" customWidth="1"/>
-    <col min="7170" max="7170" width="15.5" style="1" customWidth="1"/>
-    <col min="7171" max="7171" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7424" width="11.5" style="1"/>
-    <col min="7425" max="7425" width="91.83203125" style="1" customWidth="1"/>
-    <col min="7426" max="7426" width="15.5" style="1" customWidth="1"/>
-    <col min="7427" max="7427" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7680" width="11.5" style="1"/>
-    <col min="7681" max="7681" width="91.83203125" style="1" customWidth="1"/>
-    <col min="7682" max="7682" width="15.5" style="1" customWidth="1"/>
-    <col min="7683" max="7683" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7936" width="11.5" style="1"/>
-    <col min="7937" max="7937" width="91.83203125" style="1" customWidth="1"/>
-    <col min="7938" max="7938" width="15.5" style="1" customWidth="1"/>
-    <col min="7939" max="7939" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7940" max="8192" width="11.5" style="1"/>
-    <col min="8193" max="8193" width="91.83203125" style="1" customWidth="1"/>
-    <col min="8194" max="8194" width="15.5" style="1" customWidth="1"/>
-    <col min="8195" max="8195" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8448" width="11.5" style="1"/>
-    <col min="8449" max="8449" width="91.83203125" style="1" customWidth="1"/>
-    <col min="8450" max="8450" width="15.5" style="1" customWidth="1"/>
-    <col min="8451" max="8451" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8704" width="11.5" style="1"/>
-    <col min="8705" max="8705" width="91.83203125" style="1" customWidth="1"/>
-    <col min="8706" max="8706" width="15.5" style="1" customWidth="1"/>
-    <col min="8707" max="8707" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8960" width="11.5" style="1"/>
-    <col min="8961" max="8961" width="91.83203125" style="1" customWidth="1"/>
-    <col min="8962" max="8962" width="15.5" style="1" customWidth="1"/>
-    <col min="8963" max="8963" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8964" max="9216" width="11.5" style="1"/>
-    <col min="9217" max="9217" width="91.83203125" style="1" customWidth="1"/>
-    <col min="9218" max="9218" width="15.5" style="1" customWidth="1"/>
-    <col min="9219" max="9219" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9472" width="11.5" style="1"/>
-    <col min="9473" max="9473" width="91.83203125" style="1" customWidth="1"/>
-    <col min="9474" max="9474" width="15.5" style="1" customWidth="1"/>
-    <col min="9475" max="9475" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9728" width="11.5" style="1"/>
-    <col min="9729" max="9729" width="91.83203125" style="1" customWidth="1"/>
-    <col min="9730" max="9730" width="15.5" style="1" customWidth="1"/>
-    <col min="9731" max="9731" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9984" width="11.5" style="1"/>
-    <col min="9985" max="9985" width="91.83203125" style="1" customWidth="1"/>
-    <col min="9986" max="9986" width="15.5" style="1" customWidth="1"/>
-    <col min="9987" max="9987" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9988" max="10240" width="11.5" style="1"/>
-    <col min="10241" max="10241" width="91.83203125" style="1" customWidth="1"/>
-    <col min="10242" max="10242" width="15.5" style="1" customWidth="1"/>
-    <col min="10243" max="10243" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10496" width="11.5" style="1"/>
-    <col min="10497" max="10497" width="91.83203125" style="1" customWidth="1"/>
-    <col min="10498" max="10498" width="15.5" style="1" customWidth="1"/>
-    <col min="10499" max="10499" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10752" width="11.5" style="1"/>
-    <col min="10753" max="10753" width="91.83203125" style="1" customWidth="1"/>
-    <col min="10754" max="10754" width="15.5" style="1" customWidth="1"/>
-    <col min="10755" max="10755" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10756" max="11008" width="11.5" style="1"/>
-    <col min="11009" max="11009" width="91.83203125" style="1" customWidth="1"/>
-    <col min="11010" max="11010" width="15.5" style="1" customWidth="1"/>
-    <col min="11011" max="11011" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11264" width="11.5" style="1"/>
-    <col min="11265" max="11265" width="91.83203125" style="1" customWidth="1"/>
-    <col min="11266" max="11266" width="15.5" style="1" customWidth="1"/>
-    <col min="11267" max="11267" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11520" width="11.5" style="1"/>
-    <col min="11521" max="11521" width="91.83203125" style="1" customWidth="1"/>
-    <col min="11522" max="11522" width="15.5" style="1" customWidth="1"/>
-    <col min="11523" max="11523" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11776" width="11.5" style="1"/>
-    <col min="11777" max="11777" width="91.83203125" style="1" customWidth="1"/>
-    <col min="11778" max="11778" width="15.5" style="1" customWidth="1"/>
-    <col min="11779" max="11779" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11780" max="12032" width="11.5" style="1"/>
-    <col min="12033" max="12033" width="91.83203125" style="1" customWidth="1"/>
-    <col min="12034" max="12034" width="15.5" style="1" customWidth="1"/>
-    <col min="12035" max="12035" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12288" width="11.5" style="1"/>
-    <col min="12289" max="12289" width="91.83203125" style="1" customWidth="1"/>
-    <col min="12290" max="12290" width="15.5" style="1" customWidth="1"/>
-    <col min="12291" max="12291" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12544" width="11.5" style="1"/>
-    <col min="12545" max="12545" width="91.83203125" style="1" customWidth="1"/>
-    <col min="12546" max="12546" width="15.5" style="1" customWidth="1"/>
-    <col min="12547" max="12547" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12800" width="11.5" style="1"/>
-    <col min="12801" max="12801" width="91.83203125" style="1" customWidth="1"/>
-    <col min="12802" max="12802" width="15.5" style="1" customWidth="1"/>
-    <col min="12803" max="12803" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12804" max="13056" width="11.5" style="1"/>
-    <col min="13057" max="13057" width="91.83203125" style="1" customWidth="1"/>
-    <col min="13058" max="13058" width="15.5" style="1" customWidth="1"/>
-    <col min="13059" max="13059" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13312" width="11.5" style="1"/>
-    <col min="13313" max="13313" width="91.83203125" style="1" customWidth="1"/>
-    <col min="13314" max="13314" width="15.5" style="1" customWidth="1"/>
-    <col min="13315" max="13315" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13568" width="11.5" style="1"/>
-    <col min="13569" max="13569" width="91.83203125" style="1" customWidth="1"/>
-    <col min="13570" max="13570" width="15.5" style="1" customWidth="1"/>
-    <col min="13571" max="13571" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13824" width="11.5" style="1"/>
-    <col min="13825" max="13825" width="91.83203125" style="1" customWidth="1"/>
-    <col min="13826" max="13826" width="15.5" style="1" customWidth="1"/>
-    <col min="13827" max="13827" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13828" max="14080" width="11.5" style="1"/>
-    <col min="14081" max="14081" width="91.83203125" style="1" customWidth="1"/>
-    <col min="14082" max="14082" width="15.5" style="1" customWidth="1"/>
-    <col min="14083" max="14083" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14336" width="11.5" style="1"/>
-    <col min="14337" max="14337" width="91.83203125" style="1" customWidth="1"/>
-    <col min="14338" max="14338" width="15.5" style="1" customWidth="1"/>
-    <col min="14339" max="14339" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14592" width="11.5" style="1"/>
-    <col min="14593" max="14593" width="91.83203125" style="1" customWidth="1"/>
-    <col min="14594" max="14594" width="15.5" style="1" customWidth="1"/>
-    <col min="14595" max="14595" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14848" width="11.5" style="1"/>
-    <col min="14849" max="14849" width="91.83203125" style="1" customWidth="1"/>
-    <col min="14850" max="14850" width="15.5" style="1" customWidth="1"/>
-    <col min="14851" max="14851" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14852" max="15104" width="11.5" style="1"/>
-    <col min="15105" max="15105" width="91.83203125" style="1" customWidth="1"/>
-    <col min="15106" max="15106" width="15.5" style="1" customWidth="1"/>
-    <col min="15107" max="15107" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15360" width="11.5" style="1"/>
-    <col min="15361" max="15361" width="91.83203125" style="1" customWidth="1"/>
-    <col min="15362" max="15362" width="15.5" style="1" customWidth="1"/>
-    <col min="15363" max="15363" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15616" width="11.5" style="1"/>
-    <col min="15617" max="15617" width="91.83203125" style="1" customWidth="1"/>
-    <col min="15618" max="15618" width="15.5" style="1" customWidth="1"/>
-    <col min="15619" max="15619" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15872" width="11.5" style="1"/>
-    <col min="15873" max="15873" width="91.83203125" style="1" customWidth="1"/>
-    <col min="15874" max="15874" width="15.5" style="1" customWidth="1"/>
-    <col min="15875" max="15875" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15876" max="16128" width="11.5" style="1"/>
-    <col min="16129" max="16129" width="91.83203125" style="1" customWidth="1"/>
-    <col min="16130" max="16130" width="15.5" style="1" customWidth="1"/>
-    <col min="16131" max="16131" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16384" width="11.5" style="1"/>
+    <col min="1" max="1" width="108.3125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.68359375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="256" width="11.47265625" style="1"/>
+    <col min="257" max="257" width="91.83984375" style="1" customWidth="1"/>
+    <col min="258" max="258" width="15.47265625" style="1" customWidth="1"/>
+    <col min="259" max="259" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="260" max="512" width="11.47265625" style="1"/>
+    <col min="513" max="513" width="91.83984375" style="1" customWidth="1"/>
+    <col min="514" max="514" width="15.47265625" style="1" customWidth="1"/>
+    <col min="515" max="515" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="516" max="768" width="11.47265625" style="1"/>
+    <col min="769" max="769" width="91.83984375" style="1" customWidth="1"/>
+    <col min="770" max="770" width="15.47265625" style="1" customWidth="1"/>
+    <col min="771" max="771" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="772" max="1024" width="11.47265625" style="1"/>
+    <col min="1025" max="1025" width="91.83984375" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="15.47265625" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1280" width="11.47265625" style="1"/>
+    <col min="1281" max="1281" width="91.83984375" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="15.47265625" style="1" customWidth="1"/>
+    <col min="1283" max="1283" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1536" width="11.47265625" style="1"/>
+    <col min="1537" max="1537" width="91.83984375" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="15.47265625" style="1" customWidth="1"/>
+    <col min="1539" max="1539" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1792" width="11.47265625" style="1"/>
+    <col min="1793" max="1793" width="91.83984375" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="15.47265625" style="1" customWidth="1"/>
+    <col min="1795" max="1795" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1796" max="2048" width="11.47265625" style="1"/>
+    <col min="2049" max="2049" width="91.83984375" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="15.47265625" style="1" customWidth="1"/>
+    <col min="2051" max="2051" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2304" width="11.47265625" style="1"/>
+    <col min="2305" max="2305" width="91.83984375" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="15.47265625" style="1" customWidth="1"/>
+    <col min="2307" max="2307" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2560" width="11.47265625" style="1"/>
+    <col min="2561" max="2561" width="91.83984375" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="15.47265625" style="1" customWidth="1"/>
+    <col min="2563" max="2563" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2816" width="11.47265625" style="1"/>
+    <col min="2817" max="2817" width="91.83984375" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="15.47265625" style="1" customWidth="1"/>
+    <col min="2819" max="2819" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2820" max="3072" width="11.47265625" style="1"/>
+    <col min="3073" max="3073" width="91.83984375" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="15.47265625" style="1" customWidth="1"/>
+    <col min="3075" max="3075" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3328" width="11.47265625" style="1"/>
+    <col min="3329" max="3329" width="91.83984375" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="15.47265625" style="1" customWidth="1"/>
+    <col min="3331" max="3331" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3584" width="11.47265625" style="1"/>
+    <col min="3585" max="3585" width="91.83984375" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="15.47265625" style="1" customWidth="1"/>
+    <col min="3587" max="3587" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3840" width="11.47265625" style="1"/>
+    <col min="3841" max="3841" width="91.83984375" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="15.47265625" style="1" customWidth="1"/>
+    <col min="3843" max="3843" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3844" max="4096" width="11.47265625" style="1"/>
+    <col min="4097" max="4097" width="91.83984375" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="15.47265625" style="1" customWidth="1"/>
+    <col min="4099" max="4099" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4352" width="11.47265625" style="1"/>
+    <col min="4353" max="4353" width="91.83984375" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="15.47265625" style="1" customWidth="1"/>
+    <col min="4355" max="4355" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4608" width="11.47265625" style="1"/>
+    <col min="4609" max="4609" width="91.83984375" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="15.47265625" style="1" customWidth="1"/>
+    <col min="4611" max="4611" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4864" width="11.47265625" style="1"/>
+    <col min="4865" max="4865" width="91.83984375" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="15.47265625" style="1" customWidth="1"/>
+    <col min="4867" max="4867" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4868" max="5120" width="11.47265625" style="1"/>
+    <col min="5121" max="5121" width="91.83984375" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="15.47265625" style="1" customWidth="1"/>
+    <col min="5123" max="5123" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5376" width="11.47265625" style="1"/>
+    <col min="5377" max="5377" width="91.83984375" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="15.47265625" style="1" customWidth="1"/>
+    <col min="5379" max="5379" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5632" width="11.47265625" style="1"/>
+    <col min="5633" max="5633" width="91.83984375" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="15.47265625" style="1" customWidth="1"/>
+    <col min="5635" max="5635" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5888" width="11.47265625" style="1"/>
+    <col min="5889" max="5889" width="91.83984375" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="15.47265625" style="1" customWidth="1"/>
+    <col min="5891" max="5891" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5892" max="6144" width="11.47265625" style="1"/>
+    <col min="6145" max="6145" width="91.83984375" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="15.47265625" style="1" customWidth="1"/>
+    <col min="6147" max="6147" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6400" width="11.47265625" style="1"/>
+    <col min="6401" max="6401" width="91.83984375" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="15.47265625" style="1" customWidth="1"/>
+    <col min="6403" max="6403" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6656" width="11.47265625" style="1"/>
+    <col min="6657" max="6657" width="91.83984375" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="15.47265625" style="1" customWidth="1"/>
+    <col min="6659" max="6659" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6912" width="11.47265625" style="1"/>
+    <col min="6913" max="6913" width="91.83984375" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="15.47265625" style="1" customWidth="1"/>
+    <col min="6915" max="6915" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6916" max="7168" width="11.47265625" style="1"/>
+    <col min="7169" max="7169" width="91.83984375" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="15.47265625" style="1" customWidth="1"/>
+    <col min="7171" max="7171" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7424" width="11.47265625" style="1"/>
+    <col min="7425" max="7425" width="91.83984375" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="15.47265625" style="1" customWidth="1"/>
+    <col min="7427" max="7427" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7680" width="11.47265625" style="1"/>
+    <col min="7681" max="7681" width="91.83984375" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="15.47265625" style="1" customWidth="1"/>
+    <col min="7683" max="7683" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7936" width="11.47265625" style="1"/>
+    <col min="7937" max="7937" width="91.83984375" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="15.47265625" style="1" customWidth="1"/>
+    <col min="7939" max="7939" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7940" max="8192" width="11.47265625" style="1"/>
+    <col min="8193" max="8193" width="91.83984375" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="15.47265625" style="1" customWidth="1"/>
+    <col min="8195" max="8195" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8448" width="11.47265625" style="1"/>
+    <col min="8449" max="8449" width="91.83984375" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="15.47265625" style="1" customWidth="1"/>
+    <col min="8451" max="8451" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8704" width="11.47265625" style="1"/>
+    <col min="8705" max="8705" width="91.83984375" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="15.47265625" style="1" customWidth="1"/>
+    <col min="8707" max="8707" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8960" width="11.47265625" style="1"/>
+    <col min="8961" max="8961" width="91.83984375" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="15.47265625" style="1" customWidth="1"/>
+    <col min="8963" max="8963" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8964" max="9216" width="11.47265625" style="1"/>
+    <col min="9217" max="9217" width="91.83984375" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="15.47265625" style="1" customWidth="1"/>
+    <col min="9219" max="9219" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9472" width="11.47265625" style="1"/>
+    <col min="9473" max="9473" width="91.83984375" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="15.47265625" style="1" customWidth="1"/>
+    <col min="9475" max="9475" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9728" width="11.47265625" style="1"/>
+    <col min="9729" max="9729" width="91.83984375" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="15.47265625" style="1" customWidth="1"/>
+    <col min="9731" max="9731" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9984" width="11.47265625" style="1"/>
+    <col min="9985" max="9985" width="91.83984375" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="15.47265625" style="1" customWidth="1"/>
+    <col min="9987" max="9987" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9988" max="10240" width="11.47265625" style="1"/>
+    <col min="10241" max="10241" width="91.83984375" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="15.47265625" style="1" customWidth="1"/>
+    <col min="10243" max="10243" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10496" width="11.47265625" style="1"/>
+    <col min="10497" max="10497" width="91.83984375" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="15.47265625" style="1" customWidth="1"/>
+    <col min="10499" max="10499" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10752" width="11.47265625" style="1"/>
+    <col min="10753" max="10753" width="91.83984375" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="15.47265625" style="1" customWidth="1"/>
+    <col min="10755" max="10755" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10756" max="11008" width="11.47265625" style="1"/>
+    <col min="11009" max="11009" width="91.83984375" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="15.47265625" style="1" customWidth="1"/>
+    <col min="11011" max="11011" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11264" width="11.47265625" style="1"/>
+    <col min="11265" max="11265" width="91.83984375" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="15.47265625" style="1" customWidth="1"/>
+    <col min="11267" max="11267" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11520" width="11.47265625" style="1"/>
+    <col min="11521" max="11521" width="91.83984375" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="15.47265625" style="1" customWidth="1"/>
+    <col min="11523" max="11523" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11776" width="11.47265625" style="1"/>
+    <col min="11777" max="11777" width="91.83984375" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="15.47265625" style="1" customWidth="1"/>
+    <col min="11779" max="11779" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11780" max="12032" width="11.47265625" style="1"/>
+    <col min="12033" max="12033" width="91.83984375" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="15.47265625" style="1" customWidth="1"/>
+    <col min="12035" max="12035" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12288" width="11.47265625" style="1"/>
+    <col min="12289" max="12289" width="91.83984375" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="15.47265625" style="1" customWidth="1"/>
+    <col min="12291" max="12291" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12544" width="11.47265625" style="1"/>
+    <col min="12545" max="12545" width="91.83984375" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="15.47265625" style="1" customWidth="1"/>
+    <col min="12547" max="12547" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12800" width="11.47265625" style="1"/>
+    <col min="12801" max="12801" width="91.83984375" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="15.47265625" style="1" customWidth="1"/>
+    <col min="12803" max="12803" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12804" max="13056" width="11.47265625" style="1"/>
+    <col min="13057" max="13057" width="91.83984375" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="15.47265625" style="1" customWidth="1"/>
+    <col min="13059" max="13059" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13312" width="11.47265625" style="1"/>
+    <col min="13313" max="13313" width="91.83984375" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="15.47265625" style="1" customWidth="1"/>
+    <col min="13315" max="13315" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13568" width="11.47265625" style="1"/>
+    <col min="13569" max="13569" width="91.83984375" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="15.47265625" style="1" customWidth="1"/>
+    <col min="13571" max="13571" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13824" width="11.47265625" style="1"/>
+    <col min="13825" max="13825" width="91.83984375" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="15.47265625" style="1" customWidth="1"/>
+    <col min="13827" max="13827" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13828" max="14080" width="11.47265625" style="1"/>
+    <col min="14081" max="14081" width="91.83984375" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="15.47265625" style="1" customWidth="1"/>
+    <col min="14083" max="14083" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14336" width="11.47265625" style="1"/>
+    <col min="14337" max="14337" width="91.83984375" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="15.47265625" style="1" customWidth="1"/>
+    <col min="14339" max="14339" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14592" width="11.47265625" style="1"/>
+    <col min="14593" max="14593" width="91.83984375" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="15.47265625" style="1" customWidth="1"/>
+    <col min="14595" max="14595" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14848" width="11.47265625" style="1"/>
+    <col min="14849" max="14849" width="91.83984375" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="15.47265625" style="1" customWidth="1"/>
+    <col min="14851" max="14851" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14852" max="15104" width="11.47265625" style="1"/>
+    <col min="15105" max="15105" width="91.83984375" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="15.47265625" style="1" customWidth="1"/>
+    <col min="15107" max="15107" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15360" width="11.47265625" style="1"/>
+    <col min="15361" max="15361" width="91.83984375" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="15.47265625" style="1" customWidth="1"/>
+    <col min="15363" max="15363" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15616" width="11.47265625" style="1"/>
+    <col min="15617" max="15617" width="91.83984375" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="15.47265625" style="1" customWidth="1"/>
+    <col min="15619" max="15619" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15872" width="11.47265625" style="1"/>
+    <col min="15873" max="15873" width="91.83984375" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="15.47265625" style="1" customWidth="1"/>
+    <col min="15875" max="15875" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15876" max="16128" width="11.47265625" style="1"/>
+    <col min="16129" max="16129" width="91.83984375" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="15.47265625" style="1" customWidth="1"/>
+    <col min="16131" max="16131" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16384" width="11.47265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A1" s="38" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A3" s="38" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="39" t="s">
         <v>81</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="39" t="s">
         <v>82</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="39" t="s">
         <v>83</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="39" t="s">
         <v>84</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="39" t="s">
         <v>85</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="39" t="s">
         <v>86</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="39" t="s">
         <v>87</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="39" t="s">
         <v>88</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="39" t="s">
         <v>89</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A13" s="40" t="s">
         <v>90</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A16" s="41" t="s">
         <v>91</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="44" t="s">
         <v>92</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="27.6" x14ac:dyDescent="0.45">
       <c r="A18" s="44" t="s">
         <v>93</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="41.4" x14ac:dyDescent="0.45">
       <c r="A19" s="44" t="s">
         <v>94</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A20" s="44" t="s">
         <v>95</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="44" t="s">
         <v>96</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="44" t="s">
         <v>97</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>7560</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A23" s="41" t="s">
         <v>98</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>56.87830687830688</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="44" t="s">
         <v>99</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>7.9629629629629637</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A25" s="41" t="s">
         <v>100</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>64.841269841269849</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A26" s="41" t="s">
         <v>101</v>
       </c>
@@ -4693,6 +4693,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008A81759B7DFB004A8599E6F327A8EB98" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="16c538c27c9e089401d5678f760f8f49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="57e862f9-3287-4edb-8d69-92d4fb48d952" xmlns:ns3="e3667e19-af09-407c-b0d0-da75c7fe26e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c8fc48563e86c113fea55823a3af8a3" ns2:_="" ns3:_="">
     <xsd:import namespace="57e862f9-3287-4edb-8d69-92d4fb48d952"/>
@@ -4857,22 +4872,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD45D79A-6B5D-420C-8BFA-1B16B2988657}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3849BBA7-7FA9-45F9-B49C-CDA374FE0A9A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3A7BA2F-D5C3-4BB2-894A-06A0BD77C7DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4889,21 +4906,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3849BBA7-7FA9-45F9-B49C-CDA374FE0A9A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD45D79A-6B5D-420C-8BFA-1B16B2988657}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GVI & WUB/LS2/Stundensatzkalkulation_Vorlagen_LF2.8.xlsx
+++ b/GVI & WUB/LS2/Stundensatzkalkulation_Vorlagen_LF2.8.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/repos/Danger_Gang_GVI/GVI &amp; WUB/LS2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA85A87-D579-9B40-A71D-A091BCF3F1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37642CFE-FE04-094F-92CF-51308C26E625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="1080" windowWidth="30240" windowHeight="17380" tabRatio="908" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" tabRatio="908" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SB S. 247_248" sheetId="38" r:id="rId1"/>
     <sheet name="SB S. 249 Aufg. 2" sheetId="45" r:id="rId2"/>
-    <sheet name="SB S. 249_250 Aufg. 5" sheetId="58" r:id="rId3"/>
-    <sheet name="SB S. 250 Aufg. 6" sheetId="48" r:id="rId4"/>
-    <sheet name="SB S. 250 Aufg. 8" sheetId="44" r:id="rId5"/>
-    <sheet name="SB S. 250 Aufg. 9" sheetId="46" r:id="rId6"/>
-    <sheet name="SB S. 251" sheetId="40" r:id="rId7"/>
+    <sheet name="AB S.144" sheetId="59" r:id="rId3"/>
+    <sheet name="SB S. 249_250 Aufg. 5" sheetId="58" r:id="rId4"/>
+    <sheet name="SB S. 250 Aufg. 6" sheetId="48" r:id="rId5"/>
+    <sheet name="SB S. 250 Aufg. 8" sheetId="44" r:id="rId6"/>
+    <sheet name="SB S. 250 Aufg. 9" sheetId="46" r:id="rId7"/>
+    <sheet name="SB S. 251" sheetId="40" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="103">
   <si>
     <t>Rückwärtskalkulation im Handel</t>
   </si>
@@ -363,6 +364,9 @@
   <si>
     <t>Stundensatz inkl. MwSt.</t>
   </si>
+  <si>
+    <t xml:space="preserve"> = LV-Preis inkl. MwSt.</t>
+  </si>
 </sst>
 </file>
 
@@ -377,7 +381,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +427,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -483,7 +493,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -554,6 +564,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -566,7 +613,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -667,6 +714,8 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -679,8 +728,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Euro" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1756,10 +1817,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1768,7 +1829,12 @@
     <col min="2" max="2" width="16.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1"/>
     <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
-    <col min="5" max="244" width="11.5" style="1"/>
+    <col min="5" max="5" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.5" style="1"/>
+    <col min="9" max="9" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.5" style="1"/>
+    <col min="13" max="13" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="244" width="11.5" style="1"/>
     <col min="245" max="245" width="17.1640625" style="1" customWidth="1"/>
     <col min="246" max="247" width="11.5" style="1"/>
     <col min="248" max="248" width="9.5" style="1" customWidth="1"/>
@@ -2401,19 +2467,19 @@
     <col min="16133" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>45</v>
       </c>
@@ -2424,7 +2490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2433,7 +2499,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -2445,7 +2511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -2455,7 +2521,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -2467,7 +2533,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
@@ -2477,7 +2543,7 @@
         <v>23.28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -2486,7 +2552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -2496,7 +2562,7 @@
         <v>26.28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2573,9 @@
         <f>C10/100*B11</f>
         <v>18.396000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="G11" s="54"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -2518,7 +2585,7 @@
         <v>44.676000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
@@ -2530,7 +2597,7 @@
         <v>3.5740800000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -2540,17 +2607,17 @@
         <v>48.250080000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
@@ -2599,11 +2666,11 @@
         <v>47</v>
       </c>
       <c r="B22" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="9">
         <f>C21/100*B22</f>
-        <v>0.96</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -2613,7 +2680,7 @@
       <c r="B23" s="4"/>
       <c r="C23" s="9">
         <f>C21-C22</f>
-        <v>31.04</v>
+        <v>31.36</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -2632,7 +2699,7 @@
       <c r="B25" s="4"/>
       <c r="C25" s="9">
         <f>C23+C24</f>
-        <v>38.04</v>
+        <v>38.36</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -2644,7 +2711,7 @@
       </c>
       <c r="C26" s="9">
         <f>C25/100*B26</f>
-        <v>28.53</v>
+        <v>28.77</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -2654,7 +2721,7 @@
       <c r="B27" s="4"/>
       <c r="C27" s="9">
         <f>C25+C26</f>
-        <v>66.569999999999993</v>
+        <v>67.13</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -2666,7 +2733,7 @@
       </c>
       <c r="C28" s="9">
         <f>C27/100*B28</f>
-        <v>6.657</v>
+        <v>6.7130000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -2676,7 +2743,7 @@
       <c r="B29" s="4"/>
       <c r="C29" s="9">
         <f>C27+C28</f>
-        <v>73.22699999999999</v>
+        <v>73.842999999999989</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -2687,8 +2754,8 @@
         <v>3</v>
       </c>
       <c r="C30" s="9">
-        <f>C29/100*B30</f>
-        <v>2.1968099999999997</v>
+        <f>C29/(100-B30)*100-C29</f>
+        <v>2.2838041237113487</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -2707,7 +2774,7 @@
       <c r="B32" s="4"/>
       <c r="C32" s="9">
         <f>C29+C30+C31</f>
-        <v>75.423809999999989</v>
+        <v>76.126804123711338</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -2718,8 +2785,8 @@
         <v>20</v>
       </c>
       <c r="C33" s="9">
-        <f>C32/100*B33</f>
-        <v>15.084761999999998</v>
+        <f>C32/(100-B33)*100-C32</f>
+        <v>19.031701030927834</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -2728,8 +2795,8 @@
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="9">
-        <f>C32+C33</f>
-        <v>90.508571999999987</v>
+        <f>C32/(100-B33)*100</f>
+        <v>95.158505154639172</v>
       </c>
     </row>
   </sheetData>
@@ -2742,6 +2809,636 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F4EBE6-D88E-A341-B60B-EB9A433B1F58}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="D8:N27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D8" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="57"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="57"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="57"/>
+      <c r="N8" s="67"/>
+    </row>
+    <row r="9" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D9" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="60"/>
+      <c r="H9" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="60"/>
+      <c r="L9" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D10" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66">
+        <v>300</v>
+      </c>
+      <c r="G10" s="60"/>
+      <c r="H10" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66">
+        <v>680</v>
+      </c>
+      <c r="K10" s="60"/>
+      <c r="L10" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="65"/>
+      <c r="N10" s="66">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="11" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D11" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="65">
+        <v>20</v>
+      </c>
+      <c r="F11" s="66">
+        <f>F10/100*E11</f>
+        <v>60</v>
+      </c>
+      <c r="G11" s="60"/>
+      <c r="H11" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="65">
+        <v>20</v>
+      </c>
+      <c r="J11" s="66">
+        <f>J10/100*I11</f>
+        <v>136</v>
+      </c>
+      <c r="K11" s="60"/>
+      <c r="L11" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="65">
+        <v>15</v>
+      </c>
+      <c r="N11" s="66">
+        <f>N10/100*M11</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D12" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="65"/>
+      <c r="F12" s="66">
+        <f>F10-F11</f>
+        <v>240</v>
+      </c>
+      <c r="G12" s="60"/>
+      <c r="H12" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="65"/>
+      <c r="J12" s="66">
+        <f>J10-J11</f>
+        <v>544</v>
+      </c>
+      <c r="K12" s="60"/>
+      <c r="L12" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="65"/>
+      <c r="N12" s="66">
+        <f>N10-N11</f>
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="13" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D13" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="65">
+        <v>3</v>
+      </c>
+      <c r="F13" s="66">
+        <f>F12/100*E13</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="G13" s="60"/>
+      <c r="H13" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="65">
+        <v>2</v>
+      </c>
+      <c r="J13" s="66">
+        <f>J12/100*I13</f>
+        <v>10.88</v>
+      </c>
+      <c r="K13" s="60"/>
+      <c r="L13" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="65">
+        <v>2</v>
+      </c>
+      <c r="N13" s="66">
+        <f>N12/100*M13</f>
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="14" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D14" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="65"/>
+      <c r="F14" s="66">
+        <f>F12-F13</f>
+        <v>232.8</v>
+      </c>
+      <c r="G14" s="60"/>
+      <c r="H14" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="65"/>
+      <c r="J14" s="66">
+        <f>J12-J13</f>
+        <v>533.12</v>
+      </c>
+      <c r="K14" s="60"/>
+      <c r="L14" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="65"/>
+      <c r="N14" s="66">
+        <f>N12-N13</f>
+        <v>1166.2</v>
+      </c>
+    </row>
+    <row r="15" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D15" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="65">
+        <v>3</v>
+      </c>
+      <c r="F15" s="66">
+        <f>F14/100*E15</f>
+        <v>6.9840000000000009</v>
+      </c>
+      <c r="G15" s="60"/>
+      <c r="H15" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="65">
+        <v>7</v>
+      </c>
+      <c r="J15" s="66">
+        <f>J14/100*I15</f>
+        <v>37.318399999999997</v>
+      </c>
+      <c r="K15" s="60"/>
+      <c r="L15" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="65">
+        <v>5</v>
+      </c>
+      <c r="N15" s="66">
+        <f>N14/100*M15</f>
+        <v>58.31</v>
+      </c>
+    </row>
+    <row r="16" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D16" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66">
+        <f>F14+F15</f>
+        <v>239.78400000000002</v>
+      </c>
+      <c r="G16" s="60"/>
+      <c r="H16" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="65"/>
+      <c r="J16" s="66">
+        <f>J14+J15</f>
+        <v>570.4384</v>
+      </c>
+      <c r="K16" s="60"/>
+      <c r="L16" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="65"/>
+      <c r="N16" s="66">
+        <f>N14+N15</f>
+        <v>1224.51</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D17" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="65">
+        <v>70</v>
+      </c>
+      <c r="F17" s="66">
+        <f>F16/100*E17</f>
+        <v>167.84880000000004</v>
+      </c>
+      <c r="G17" s="60"/>
+      <c r="H17" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="65">
+        <v>75</v>
+      </c>
+      <c r="J17" s="66">
+        <f>J16/100*I17</f>
+        <v>427.8288</v>
+      </c>
+      <c r="K17" s="60"/>
+      <c r="L17" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="65">
+        <v>70</v>
+      </c>
+      <c r="N17" s="66">
+        <f>N16/100*M17</f>
+        <v>857.15700000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D18" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="65"/>
+      <c r="F18" s="66">
+        <f>F16+F17</f>
+        <v>407.63280000000009</v>
+      </c>
+      <c r="G18" s="60"/>
+      <c r="H18" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66">
+        <f>J16+J17</f>
+        <v>998.2672</v>
+      </c>
+      <c r="K18" s="60"/>
+      <c r="L18" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="65"/>
+      <c r="N18" s="66">
+        <f>N16+N17</f>
+        <v>2081.6669999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D19" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="65">
+        <v>8</v>
+      </c>
+      <c r="F19" s="66">
+        <f>F18/100*E19</f>
+        <v>32.610624000000008</v>
+      </c>
+      <c r="G19" s="60"/>
+      <c r="H19" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="65">
+        <v>10</v>
+      </c>
+      <c r="J19" s="66">
+        <f>J18/100*I19</f>
+        <v>99.826720000000009</v>
+      </c>
+      <c r="K19" s="60"/>
+      <c r="L19" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="65">
+        <v>9</v>
+      </c>
+      <c r="N19" s="66">
+        <f>N18/100*M19</f>
+        <v>187.35002999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D20" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66">
+        <f>F18+F19</f>
+        <v>440.24342400000012</v>
+      </c>
+      <c r="G20" s="60"/>
+      <c r="H20" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="65"/>
+      <c r="J20" s="66">
+        <f>J18+J19</f>
+        <v>1098.09392</v>
+      </c>
+      <c r="K20" s="60"/>
+      <c r="L20" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="65"/>
+      <c r="N20" s="66">
+        <f>N18+N19</f>
+        <v>2269.01703</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D21" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="65"/>
+      <c r="F21" s="66">
+        <f>F20/(100-E21)*100-F20</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="60"/>
+      <c r="H21" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="65">
+        <v>3</v>
+      </c>
+      <c r="J21" s="66">
+        <f>J20/(100-I21)*100-J20</f>
+        <v>33.961667628866053</v>
+      </c>
+      <c r="K21" s="60"/>
+      <c r="L21" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="65">
+        <v>3</v>
+      </c>
+      <c r="N21" s="66">
+        <f>N20/(100-M21)*100-N20</f>
+        <v>70.175784432989531</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D22" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66">
+        <f>F20/100*E22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="60"/>
+      <c r="H22" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="65">
+        <v>0</v>
+      </c>
+      <c r="J22" s="66">
+        <f>J20/100*I22</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="60"/>
+      <c r="L22" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="65">
+        <v>6</v>
+      </c>
+      <c r="N22" s="66">
+        <f>N20/100*M22</f>
+        <v>136.14102179999998</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D23" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="65"/>
+      <c r="F23" s="66">
+        <f>F20+F21+F22</f>
+        <v>440.24342400000012</v>
+      </c>
+      <c r="G23" s="60"/>
+      <c r="H23" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="65"/>
+      <c r="J23" s="66">
+        <f>J20+J21+J22</f>
+        <v>1132.0555876288661</v>
+      </c>
+      <c r="K23" s="60"/>
+      <c r="L23" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="65"/>
+      <c r="N23" s="66">
+        <f>N20+N21+N22</f>
+        <v>2475.3338362329896</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D24" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="65"/>
+      <c r="F24" s="66">
+        <f>F23/(100-E24)*100-F23</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="60"/>
+      <c r="H24" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="65">
+        <v>20</v>
+      </c>
+      <c r="J24" s="66">
+        <f>J23/(100-I24)*100-J23</f>
+        <v>283.01389690721658</v>
+      </c>
+      <c r="K24" s="60"/>
+      <c r="L24" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="65">
+        <v>10</v>
+      </c>
+      <c r="N24" s="66">
+        <f>N23/(100-M24)*100-N23</f>
+        <v>275.03709291477662</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D25" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="65"/>
+      <c r="F25" s="66">
+        <f>F23+F24</f>
+        <v>440.24342400000012</v>
+      </c>
+      <c r="G25" s="60"/>
+      <c r="H25" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="65"/>
+      <c r="J25" s="66">
+        <f>J23+J24</f>
+        <v>1415.0694845360827</v>
+      </c>
+      <c r="K25" s="60"/>
+      <c r="L25" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="65"/>
+      <c r="N25" s="66">
+        <f>N23+N24</f>
+        <v>2750.3709291477662</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D26" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="65">
+        <v>19</v>
+      </c>
+      <c r="F26" s="66">
+        <f>F25/100*E26</f>
+        <v>83.646250560000027</v>
+      </c>
+      <c r="G26" s="60"/>
+      <c r="H26" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="65">
+        <v>19</v>
+      </c>
+      <c r="J26" s="66">
+        <f>J25/100*I26</f>
+        <v>268.8632020618557</v>
+      </c>
+      <c r="K26" s="60"/>
+      <c r="L26" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" s="65">
+        <v>19</v>
+      </c>
+      <c r="N26" s="66">
+        <f>N25/100*M26</f>
+        <v>522.57047653807558</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D27" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="65"/>
+      <c r="F27" s="66">
+        <f>F25+F26</f>
+        <v>523.88967456000012</v>
+      </c>
+      <c r="G27" s="60"/>
+      <c r="H27" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" s="65"/>
+      <c r="J27" s="66">
+        <f>J25+J26</f>
+        <v>1683.9326865979383</v>
+      </c>
+      <c r="K27" s="60"/>
+      <c r="L27" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="M27" s="65"/>
+      <c r="N27" s="66">
+        <f>N25+N26</f>
+        <v>3272.9414056858418</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="L8:N8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D245E6-BDAE-47A1-8066-392C431294D1}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -2749,7 +3446,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3211,31 +3908,31 @@
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" s="18"/>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="56"/>
+      <c r="D2" s="58"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="56"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="19" t="s">
@@ -3626,7 +4323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -3634,14 +4331,16 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="11.5" style="26"/>
-    <col min="4" max="16384" width="11.5" style="1"/>
+    <col min="4" max="4" width="11.5" style="1"/>
+    <col min="5" max="5" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -3674,7 +4373,7 @@
         <f>B4</f>
         <v>30</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="54"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
@@ -3697,7 +4396,7 @@
         <f>C4-C5</f>
         <v>24</v>
       </c>
-      <c r="D6" s="58"/>
+      <c r="D6" s="54"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
@@ -3710,7 +4409,7 @@
         <f>C6*B7</f>
         <v>0.72</v>
       </c>
-      <c r="D7" s="58"/>
+      <c r="D7" s="54"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
@@ -3721,7 +4420,7 @@
         <f>C6-C7</f>
         <v>23.28</v>
       </c>
-      <c r="D8" s="58"/>
+      <c r="D8" s="54"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
@@ -3734,7 +4433,7 @@
         <f>B9</f>
         <v>3</v>
       </c>
-      <c r="D9" s="58"/>
+      <c r="D9" s="54"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
@@ -3744,7 +4443,7 @@
         <f>C8+C9</f>
         <v>26.28</v>
       </c>
-      <c r="D10" s="58"/>
+      <c r="D10" s="54"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
@@ -3757,7 +4456,7 @@
         <f>C10*B11</f>
         <v>11.826000000000001</v>
       </c>
-      <c r="D11" s="58"/>
+      <c r="D11" s="54"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
@@ -3768,7 +4467,7 @@
         <f>C10+C11</f>
         <v>38.106000000000002</v>
       </c>
-      <c r="D12" s="58"/>
+      <c r="D12" s="54"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
@@ -3781,7 +4480,7 @@
         <f>C14-C12</f>
         <v>6.3064999999999927</v>
       </c>
-      <c r="D13" s="58"/>
+      <c r="D13" s="54"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
@@ -3804,7 +4503,7 @@
         <f>C17*B15</f>
         <v>0.93500000000000005</v>
       </c>
-      <c r="D15" s="58"/>
+      <c r="D15" s="54"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
@@ -3817,7 +4516,7 @@
         <f>C17*B16</f>
         <v>1.4024999999999999</v>
       </c>
-      <c r="D16" s="58"/>
+      <c r="D16" s="54"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
@@ -3840,7 +4539,7 @@
         <f>C19*B18</f>
         <v>8.25</v>
       </c>
-      <c r="D18" s="58"/>
+      <c r="D18" s="54"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
@@ -3860,15 +4559,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4118,7 +4817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -4183,13 +4882,13 @@
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="59">
+      <c r="B4" s="55">
         <v>28</v>
       </c>
       <c r="C4" s="36">
         <v>0.5</v>
       </c>
-      <c r="D4" s="59">
+      <c r="D4" s="55">
         <f>B4*C4+B4</f>
         <v>42</v>
       </c>
@@ -4199,7 +4898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
@@ -4858,18 +5557,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4892,18 +5591,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD45D79A-6B5D-420C-8BFA-1B16B2988657}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3849BBA7-7FA9-45F9-B49C-CDA374FE0A9A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD45D79A-6B5D-420C-8BFA-1B16B2988657}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GVI & WUB/LS2/Stundensatzkalkulation_Vorlagen_LF2.8.xlsx
+++ b/GVI & WUB/LS2/Stundensatzkalkulation_Vorlagen_LF2.8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/repos/Danger_Gang_GVI/GVI &amp; WUB/LS2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37642CFE-FE04-094F-92CF-51308C26E625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC11C68-D905-9D44-9836-3942E26DADD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" tabRatio="908" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" tabRatio="908" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SB S. 247_248" sheetId="38" r:id="rId1"/>
@@ -716,18 +716,6 @@
     <xf numFmtId="9" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -739,7 +727,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2473,11 +2473,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
@@ -2613,11 +2613,11 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
@@ -2815,7 +2815,7 @@
   </sheetPr>
   <dimension ref="D8:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
@@ -2830,600 +2830,600 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="56" t="s">
+      <c r="E8" s="64"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="56" t="s">
+      <c r="I8" s="64"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="57"/>
-      <c r="N8" s="67"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="66"/>
     </row>
     <row r="9" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61" t="s">
+      <c r="G9" s="56"/>
+      <c r="H9" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="60"/>
-      <c r="L9" s="61" t="s">
+      <c r="K9" s="56"/>
+      <c r="L9" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="62" t="s">
+      <c r="M9" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="63" t="s">
+      <c r="N9" s="59" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66">
+      <c r="E10" s="61"/>
+      <c r="F10" s="62">
         <v>300</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="64" t="s">
+      <c r="G10" s="56"/>
+      <c r="H10" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66">
+      <c r="I10" s="61"/>
+      <c r="J10" s="62">
         <v>680</v>
       </c>
-      <c r="K10" s="60"/>
-      <c r="L10" s="64" t="s">
+      <c r="K10" s="56"/>
+      <c r="L10" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="65"/>
-      <c r="N10" s="66">
+      <c r="M10" s="61"/>
+      <c r="N10" s="62">
         <v>1400</v>
       </c>
     </row>
     <row r="11" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="65">
+      <c r="E11" s="61">
         <v>20</v>
       </c>
-      <c r="F11" s="66">
+      <c r="F11" s="62">
         <f>F10/100*E11</f>
         <v>60</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="64" t="s">
+      <c r="G11" s="56"/>
+      <c r="H11" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="65">
+      <c r="I11" s="61">
         <v>20</v>
       </c>
-      <c r="J11" s="66">
+      <c r="J11" s="62">
         <f>J10/100*I11</f>
         <v>136</v>
       </c>
-      <c r="K11" s="60"/>
-      <c r="L11" s="64" t="s">
+      <c r="K11" s="56"/>
+      <c r="L11" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="65">
+      <c r="M11" s="61">
         <v>15</v>
       </c>
-      <c r="N11" s="66">
+      <c r="N11" s="62">
         <f>N10/100*M11</f>
         <v>210</v>
       </c>
     </row>
     <row r="12" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="66">
+      <c r="E12" s="61"/>
+      <c r="F12" s="62">
         <f>F10-F11</f>
         <v>240</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="64" t="s">
+      <c r="G12" s="56"/>
+      <c r="H12" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="65"/>
-      <c r="J12" s="66">
+      <c r="I12" s="61"/>
+      <c r="J12" s="62">
         <f>J10-J11</f>
         <v>544</v>
       </c>
-      <c r="K12" s="60"/>
-      <c r="L12" s="64" t="s">
+      <c r="K12" s="56"/>
+      <c r="L12" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="65"/>
-      <c r="N12" s="66">
+      <c r="M12" s="61"/>
+      <c r="N12" s="62">
         <f>N10-N11</f>
         <v>1190</v>
       </c>
     </row>
     <row r="13" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E13" s="61">
         <v>3</v>
       </c>
-      <c r="F13" s="66">
+      <c r="F13" s="62">
         <f>F12/100*E13</f>
         <v>7.1999999999999993</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="64" t="s">
+      <c r="G13" s="56"/>
+      <c r="H13" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="65">
+      <c r="I13" s="61">
         <v>2</v>
       </c>
-      <c r="J13" s="66">
+      <c r="J13" s="62">
         <f>J12/100*I13</f>
         <v>10.88</v>
       </c>
-      <c r="K13" s="60"/>
-      <c r="L13" s="64" t="s">
+      <c r="K13" s="56"/>
+      <c r="L13" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="65">
+      <c r="M13" s="61">
         <v>2</v>
       </c>
-      <c r="N13" s="66">
+      <c r="N13" s="62">
         <f>N12/100*M13</f>
         <v>23.8</v>
       </c>
     </row>
     <row r="14" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="66">
+      <c r="E14" s="61"/>
+      <c r="F14" s="62">
         <f>F12-F13</f>
         <v>232.8</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="64" t="s">
+      <c r="G14" s="56"/>
+      <c r="H14" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="65"/>
-      <c r="J14" s="66">
+      <c r="I14" s="61"/>
+      <c r="J14" s="62">
         <f>J12-J13</f>
         <v>533.12</v>
       </c>
-      <c r="K14" s="60"/>
-      <c r="L14" s="64" t="s">
+      <c r="K14" s="56"/>
+      <c r="L14" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="65"/>
-      <c r="N14" s="66">
+      <c r="M14" s="61"/>
+      <c r="N14" s="62">
         <f>N12-N13</f>
         <v>1166.2</v>
       </c>
     </row>
     <row r="15" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="61">
         <v>3</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="62">
         <f>F14/100*E15</f>
         <v>6.9840000000000009</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="64" t="s">
+      <c r="G15" s="56"/>
+      <c r="H15" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="65">
+      <c r="I15" s="61">
         <v>7</v>
       </c>
-      <c r="J15" s="66">
+      <c r="J15" s="62">
         <f>J14/100*I15</f>
         <v>37.318399999999997</v>
       </c>
-      <c r="K15" s="60"/>
-      <c r="L15" s="64" t="s">
+      <c r="K15" s="56"/>
+      <c r="L15" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="65">
+      <c r="M15" s="61">
         <v>5</v>
       </c>
-      <c r="N15" s="66">
+      <c r="N15" s="62">
         <f>N14/100*M15</f>
         <v>58.31</v>
       </c>
     </row>
     <row r="16" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="65"/>
-      <c r="F16" s="66">
+      <c r="E16" s="61"/>
+      <c r="F16" s="62">
         <f>F14+F15</f>
         <v>239.78400000000002</v>
       </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="64" t="s">
+      <c r="G16" s="56"/>
+      <c r="H16" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="65"/>
-      <c r="J16" s="66">
+      <c r="I16" s="61"/>
+      <c r="J16" s="62">
         <f>J14+J15</f>
         <v>570.4384</v>
       </c>
-      <c r="K16" s="60"/>
-      <c r="L16" s="64" t="s">
+      <c r="K16" s="56"/>
+      <c r="L16" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="65"/>
-      <c r="N16" s="66">
+      <c r="M16" s="61"/>
+      <c r="N16" s="62">
         <f>N14+N15</f>
         <v>1224.51</v>
       </c>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="61">
         <v>70</v>
       </c>
-      <c r="F17" s="66">
+      <c r="F17" s="62">
         <f>F16/100*E17</f>
         <v>167.84880000000004</v>
       </c>
-      <c r="G17" s="60"/>
-      <c r="H17" s="64" t="s">
+      <c r="G17" s="56"/>
+      <c r="H17" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="65">
+      <c r="I17" s="61">
         <v>75</v>
       </c>
-      <c r="J17" s="66">
+      <c r="J17" s="62">
         <f>J16/100*I17</f>
         <v>427.8288</v>
       </c>
-      <c r="K17" s="60"/>
-      <c r="L17" s="64" t="s">
+      <c r="K17" s="56"/>
+      <c r="L17" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="65">
+      <c r="M17" s="61">
         <v>70</v>
       </c>
-      <c r="N17" s="66">
+      <c r="N17" s="62">
         <f>N16/100*M17</f>
         <v>857.15700000000004</v>
       </c>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="66">
+      <c r="E18" s="61"/>
+      <c r="F18" s="62">
         <f>F16+F17</f>
         <v>407.63280000000009</v>
       </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="64" t="s">
+      <c r="G18" s="56"/>
+      <c r="H18" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="65"/>
-      <c r="J18" s="66">
+      <c r="I18" s="61"/>
+      <c r="J18" s="62">
         <f>J16+J17</f>
         <v>998.2672</v>
       </c>
-      <c r="K18" s="60"/>
-      <c r="L18" s="64" t="s">
+      <c r="K18" s="56"/>
+      <c r="L18" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="65"/>
-      <c r="N18" s="66">
+      <c r="M18" s="61"/>
+      <c r="N18" s="62">
         <f>N16+N17</f>
         <v>2081.6669999999999</v>
       </c>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="65">
+      <c r="E19" s="61">
         <v>8</v>
       </c>
-      <c r="F19" s="66">
+      <c r="F19" s="62">
         <f>F18/100*E19</f>
         <v>32.610624000000008</v>
       </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="64" t="s">
+      <c r="G19" s="56"/>
+      <c r="H19" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="65">
+      <c r="I19" s="61">
         <v>10</v>
       </c>
-      <c r="J19" s="66">
+      <c r="J19" s="62">
         <f>J18/100*I19</f>
         <v>99.826720000000009</v>
       </c>
-      <c r="K19" s="60"/>
-      <c r="L19" s="64" t="s">
+      <c r="K19" s="56"/>
+      <c r="L19" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="65">
+      <c r="M19" s="61">
         <v>9</v>
       </c>
-      <c r="N19" s="66">
+      <c r="N19" s="62">
         <f>N18/100*M19</f>
         <v>187.35002999999998</v>
       </c>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66">
+      <c r="E20" s="61"/>
+      <c r="F20" s="62">
         <f>F18+F19</f>
         <v>440.24342400000012</v>
       </c>
-      <c r="G20" s="60"/>
-      <c r="H20" s="64" t="s">
+      <c r="G20" s="56"/>
+      <c r="H20" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="65"/>
-      <c r="J20" s="66">
+      <c r="I20" s="61"/>
+      <c r="J20" s="62">
         <f>J18+J19</f>
         <v>1098.09392</v>
       </c>
-      <c r="K20" s="60"/>
-      <c r="L20" s="64" t="s">
+      <c r="K20" s="56"/>
+      <c r="L20" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="65"/>
-      <c r="N20" s="66">
+      <c r="M20" s="61"/>
+      <c r="N20" s="62">
         <f>N18+N19</f>
         <v>2269.01703</v>
       </c>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="65"/>
-      <c r="F21" s="66">
+      <c r="E21" s="61"/>
+      <c r="F21" s="62">
         <f>F20/(100-E21)*100-F20</f>
         <v>0</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="64" t="s">
+      <c r="G21" s="56"/>
+      <c r="H21" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="65">
+      <c r="I21" s="61">
         <v>3</v>
       </c>
-      <c r="J21" s="66">
+      <c r="J21" s="62">
         <f>J20/(100-I21)*100-J20</f>
         <v>33.961667628866053</v>
       </c>
-      <c r="K21" s="60"/>
-      <c r="L21" s="64" t="s">
+      <c r="K21" s="56"/>
+      <c r="L21" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="65">
+      <c r="M21" s="61">
         <v>3</v>
       </c>
-      <c r="N21" s="66">
+      <c r="N21" s="62">
         <f>N20/(100-M21)*100-N20</f>
         <v>70.175784432989531</v>
       </c>
     </row>
     <row r="22" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66">
+      <c r="E22" s="61"/>
+      <c r="F22" s="62">
         <f>F20/100*E22</f>
         <v>0</v>
       </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="64" t="s">
+      <c r="G22" s="56"/>
+      <c r="H22" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="65">
+      <c r="I22" s="61">
         <v>0</v>
       </c>
-      <c r="J22" s="66">
+      <c r="J22" s="62">
         <f>J20/100*I22</f>
         <v>0</v>
       </c>
-      <c r="K22" s="60"/>
-      <c r="L22" s="64" t="s">
+      <c r="K22" s="56"/>
+      <c r="L22" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="65">
+      <c r="M22" s="61">
         <v>6</v>
       </c>
-      <c r="N22" s="66">
+      <c r="N22" s="62">
         <f>N20/100*M22</f>
         <v>136.14102179999998</v>
       </c>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66">
+      <c r="E23" s="61"/>
+      <c r="F23" s="62">
         <f>F20+F21+F22</f>
         <v>440.24342400000012</v>
       </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="64" t="s">
+      <c r="G23" s="56"/>
+      <c r="H23" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="65"/>
-      <c r="J23" s="66">
+      <c r="I23" s="61"/>
+      <c r="J23" s="62">
         <f>J20+J21+J22</f>
         <v>1132.0555876288661</v>
       </c>
-      <c r="K23" s="60"/>
-      <c r="L23" s="64" t="s">
+      <c r="K23" s="56"/>
+      <c r="L23" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="65"/>
-      <c r="N23" s="66">
+      <c r="M23" s="61"/>
+      <c r="N23" s="62">
         <f>N20+N21+N22</f>
         <v>2475.3338362329896</v>
       </c>
     </row>
     <row r="24" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="65"/>
-      <c r="F24" s="66">
+      <c r="E24" s="61"/>
+      <c r="F24" s="62">
         <f>F23/(100-E24)*100-F23</f>
         <v>0</v>
       </c>
-      <c r="G24" s="60"/>
-      <c r="H24" s="64" t="s">
+      <c r="G24" s="56"/>
+      <c r="H24" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="65">
+      <c r="I24" s="61">
         <v>20</v>
       </c>
-      <c r="J24" s="66">
+      <c r="J24" s="62">
         <f>J23/(100-I24)*100-J23</f>
         <v>283.01389690721658</v>
       </c>
-      <c r="K24" s="60"/>
-      <c r="L24" s="64" t="s">
+      <c r="K24" s="56"/>
+      <c r="L24" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="M24" s="65">
+      <c r="M24" s="61">
         <v>10</v>
       </c>
-      <c r="N24" s="66">
+      <c r="N24" s="62">
         <f>N23/(100-M24)*100-N23</f>
         <v>275.03709291477662</v>
       </c>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="65"/>
-      <c r="F25" s="66">
+      <c r="E25" s="61"/>
+      <c r="F25" s="62">
         <f>F23+F24</f>
         <v>440.24342400000012</v>
       </c>
-      <c r="G25" s="60"/>
-      <c r="H25" s="64" t="s">
+      <c r="G25" s="56"/>
+      <c r="H25" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="65"/>
-      <c r="J25" s="66">
+      <c r="I25" s="61"/>
+      <c r="J25" s="62">
         <f>J23+J24</f>
         <v>1415.0694845360827</v>
       </c>
-      <c r="K25" s="60"/>
-      <c r="L25" s="64" t="s">
+      <c r="K25" s="56"/>
+      <c r="L25" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="M25" s="65"/>
-      <c r="N25" s="66">
+      <c r="M25" s="61"/>
+      <c r="N25" s="62">
         <f>N23+N24</f>
         <v>2750.3709291477662</v>
       </c>
     </row>
     <row r="26" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="65">
+      <c r="E26" s="61">
         <v>19</v>
       </c>
-      <c r="F26" s="66">
+      <c r="F26" s="62">
         <f>F25/100*E26</f>
         <v>83.646250560000027</v>
       </c>
-      <c r="G26" s="60"/>
-      <c r="H26" s="64" t="s">
+      <c r="G26" s="56"/>
+      <c r="H26" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="65">
+      <c r="I26" s="61">
         <v>19</v>
       </c>
-      <c r="J26" s="66">
+      <c r="J26" s="62">
         <f>J25/100*I26</f>
         <v>268.8632020618557</v>
       </c>
-      <c r="K26" s="60"/>
-      <c r="L26" s="64" t="s">
+      <c r="K26" s="56"/>
+      <c r="L26" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="M26" s="65">
+      <c r="M26" s="61">
         <v>19</v>
       </c>
-      <c r="N26" s="66">
+      <c r="N26" s="62">
         <f>N25/100*M26</f>
         <v>522.57047653807558</v>
       </c>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="66">
+      <c r="E27" s="61"/>
+      <c r="F27" s="62">
         <f>F25+F26</f>
         <v>523.88967456000012</v>
       </c>
-      <c r="G27" s="60"/>
-      <c r="H27" s="64" t="s">
+      <c r="G27" s="56"/>
+      <c r="H27" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="I27" s="65"/>
-      <c r="J27" s="66">
+      <c r="I27" s="61"/>
+      <c r="J27" s="62">
         <f>J25+J26</f>
         <v>1683.9326865979383</v>
       </c>
-      <c r="K27" s="60"/>
-      <c r="L27" s="64" t="s">
+      <c r="K27" s="56"/>
+      <c r="L27" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="M27" s="65"/>
-      <c r="N27" s="66">
+      <c r="M27" s="61"/>
+      <c r="N27" s="62">
         <f>N25+N26</f>
         <v>3272.9414056858418</v>
       </c>
@@ -3445,8 +3445,8 @@
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3908,31 +3908,31 @@
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" s="18"/>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="58"/>
+      <c r="D2" s="65"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="58"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="19" t="s">
@@ -3961,7 +3961,7 @@
       <c r="C4" s="16"/>
       <c r="D4" s="21">
         <f>D6+D5</f>
-        <v>130.11778392375751</v>
+        <v>83.510905878421738</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>52</v>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="D5" s="22">
         <f>D6/(1-C5)*C5</f>
-        <v>19.517667588563626</v>
+        <v>12.526635881763262</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>53</v>
@@ -4001,7 +4001,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="22">
         <f>D8+D7</f>
-        <v>110.60011633519389</v>
+        <v>70.984269996658483</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>10</v>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="D7" s="22">
         <f>D8/(1-C7)*C7</f>
-        <v>3.3180034900558164</v>
+        <v>2.1295280998997543</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>12</v>
@@ -4041,7 +4041,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="22">
         <f>D10-D9</f>
-        <v>107.28211284513807</v>
+        <v>68.854741896758725</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>14</v>
@@ -4075,7 +4075,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="23">
         <f>D12-D11</f>
-        <v>115.28211284513807</v>
+        <v>76.854741896758725</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>54</v>
@@ -4090,10 +4090,12 @@
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3">
+        <v>0.5</v>
+      </c>
       <c r="D11" s="24">
         <f>D12/(1+C11)*C11</f>
-        <v>0</v>
+        <v>38.427370948379355</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>20</v>
@@ -5392,6 +5394,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008A81759B7DFB004A8599E6F327A8EB98" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="16c538c27c9e089401d5678f760f8f49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="57e862f9-3287-4edb-8d69-92d4fb48d952" xmlns:ns3="e3667e19-af09-407c-b0d0-da75c7fe26e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c8fc48563e86c113fea55823a3af8a3" ns2:_="" ns3:_="">
     <xsd:import namespace="57e862f9-3287-4edb-8d69-92d4fb48d952"/>
@@ -5556,22 +5573,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3849BBA7-7FA9-45F9-B49C-CDA374FE0A9A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD45D79A-6B5D-420C-8BFA-1B16B2988657}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3A7BA2F-D5C3-4BB2-894A-06A0BD77C7DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5588,21 +5607,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD45D79A-6B5D-420C-8BFA-1B16B2988657}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3849BBA7-7FA9-45F9-B49C-CDA374FE0A9A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GVI & WUB/LS2/Stundensatzkalkulation_Vorlagen_LF2.8.xlsx
+++ b/GVI & WUB/LS2/Stundensatzkalkulation_Vorlagen_LF2.8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/repos/Danger_Gang_GVI/GVI &amp; WUB/LS2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC11C68-D905-9D44-9836-3942E26DADD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652662C8-8EF2-5F43-99DD-CD51729FFC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" tabRatio="908" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" tabRatio="908" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SB S. 247_248" sheetId="38" r:id="rId1"/>
@@ -613,7 +613,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -742,6 +742,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Euro" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1819,8 +1820,8 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2596,6 +2597,7 @@
         <f>C12/100*B13</f>
         <v>3.5740800000000004</v>
       </c>
+      <c r="F13" s="68"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
@@ -2816,7 +2818,7 @@
   <dimension ref="D8:N27"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3443,10 +3445,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4210,7 +4212,7 @@
         <v>8.3193277310924376</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
         <v>58</v>
       </c>
@@ -4228,7 +4230,7 @@
         <v>166.38655462184875</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
         <v>34</v>
       </c>
@@ -4249,8 +4251,9 @@
         <f>I19*H18</f>
         <v>18.487394957983195</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="K18" s="37"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" s="5" t="s">
         <v>59</v>
       </c>
@@ -4268,7 +4271,7 @@
         <v>184.87394957983193</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
         <v>38</v>
       </c>
@@ -4290,7 +4293,7 @@
         <v>35.12605042016807</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" s="5" t="s">
         <v>60</v>
       </c>
@@ -4306,7 +4309,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>61</v>
       </c>
@@ -4330,10 +4333,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4476,7 +4479,8 @@
         <v>24</v>
       </c>
       <c r="B13" s="32">
-        <v>0.1</v>
+        <f>C13/C12</f>
+        <v>0.16549887156878162</v>
       </c>
       <c r="C13" s="33">
         <f>C14-C12</f>
@@ -4520,7 +4524,7 @@
       </c>
       <c r="D16" s="54"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
@@ -4530,7 +4534,7 @@
         <v>46.75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
@@ -4543,7 +4547,7 @@
       </c>
       <c r="D18" s="54"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -4554,6 +4558,7 @@
         <f>B19</f>
         <v>55</v>
       </c>
+      <c r="E19" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5394,21 +5399,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008A81759B7DFB004A8599E6F327A8EB98" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="16c538c27c9e089401d5678f760f8f49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="57e862f9-3287-4edb-8d69-92d4fb48d952" xmlns:ns3="e3667e19-af09-407c-b0d0-da75c7fe26e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c8fc48563e86c113fea55823a3af8a3" ns2:_="" ns3:_="">
     <xsd:import namespace="57e862f9-3287-4edb-8d69-92d4fb48d952"/>
@@ -5573,24 +5563,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3849BBA7-7FA9-45F9-B49C-CDA374FE0A9A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD45D79A-6B5D-420C-8BFA-1B16B2988657}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3A7BA2F-D5C3-4BB2-894A-06A0BD77C7DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5607,4 +5595,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD45D79A-6B5D-420C-8BFA-1B16B2988657}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3849BBA7-7FA9-45F9-B49C-CDA374FE0A9A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>